--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FS01\RedirectedFolders\maja.zimmermann\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FS01\RedirectedFolders\maja.zimmermann\Documents\Code\Bufdi-Diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Lese-/ Recherchaufgabe "ethical dilemma in research"; Vorbereitung Präsentation; Organisation Dateien</t>
+  </si>
+  <si>
+    <t>Auswertung research, Präsentation der Wochenergebnisse, Einrichtung Github mit Git Bash</t>
+  </si>
+  <si>
+    <t>Github, Git Bash</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <dimension ref="B3:X368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +693,9 @@
       <c r="B10" s="8">
         <v>44414</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -705,7 +713,9 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
+      <c r="U10" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -68,10 +68,10 @@
     <t>Lese-/ Recherchaufgabe "ethical dilemma in research"; Vorbereitung Präsentation; Organisation Dateien</t>
   </si>
   <si>
-    <t>Auswertung research, Präsentation der Wochenergebnisse, Einrichtung Github mit Git Bash</t>
+    <t>Github, Git Bash; PyCharm</t>
   </si>
   <si>
-    <t>Github, Git Bash</t>
+    <t xml:space="preserve">Auswertung Research; Präsentation der Wochenergebnisse; Einrichtung Github mit Git Bash; Einführung Open_Modex </t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X368"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <v>44414</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -714,7 +714,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -73,12 +73,36 @@
   <si>
     <t xml:space="preserve">Auswertung Research; Präsentation der Wochenergebnisse; Einrichtung Github mit Git Bash; Einführung Open_Modex </t>
   </si>
+  <si>
+    <t>SEDOS Antrag Korrektur lesen; Recherche für Djagora: Soil Quality Rating</t>
+  </si>
+  <si>
+    <t>Djagora</t>
+  </si>
+  <si>
+    <t>Open Energy Platform</t>
+  </si>
+  <si>
+    <t>Recherche Djagora; Projektreport; Upload CSV Tabellen auf Open Energy Platform</t>
+  </si>
+  <si>
+    <t>OEP --&gt; upload wizard, Metadaten anlegen</t>
+  </si>
+  <si>
+    <t>krank</t>
+  </si>
+  <si>
+    <t>openmod</t>
+  </si>
+  <si>
+    <t>Korretur/ Formatierung der SEDOS Kurzbeschreibung; Einfindung in openmod; Einarbeitung open_BEA; Einweisung Geburtstagsfee</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +177,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -209,7 +240,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1"/>
@@ -228,6 +259,8 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -515,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +811,9 @@
       <c r="B13" s="8">
         <v>44417</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -790,13 +825,15 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
+      <c r="U13" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -805,7 +842,9 @@
       <c r="B14" s="8">
         <v>44418</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -817,13 +856,15 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
+      <c r="U14" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -832,7 +873,9 @@
       <c r="B15" s="8">
         <v>44419</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -859,7 +902,9 @@
       <c r="B16" s="8">
         <v>44420</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -886,7 +931,9 @@
       <c r="B17" s="8">
         <v>44421</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -904,7 +951,9 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
+      <c r="U17" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FS01\RedirectedFolders\maja.zimmermann\Documents\Code\Bufdi-Diary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FS01\RedirectedFolders\Maja.Zimmermann\Documents\Code\Bufdi-Diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -96,6 +96,27 @@
   </si>
   <si>
     <t>Korretur/ Formatierung der SEDOS Kurzbeschreibung; Einfindung in openmod; Einarbeitung open_BEA; Einweisung Geburtstagsfee</t>
+  </si>
+  <si>
+    <t>Organisation Geburtstagskalender; Bufdi Kennenlernen/Einweisung; Open_BEA Aufgabenzuweisung</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>Recherche DjAgora: PV-Potentialflächen</t>
+  </si>
+  <si>
+    <t>Teammeeting; open_BEA</t>
+  </si>
+  <si>
+    <t>Recherche open_BEA; Vorbereitungstreffen RLS-Feier; Einführung Plot Design</t>
+  </si>
+  <si>
+    <t>csv anzeigen, nach Spalten und Werten filtern (.loc), Summe (.sum), Maximum (.max)</t>
+  </si>
+  <si>
+    <t>Bufdi Treffen (Partyplanung+Kaffeemaschine); Arbeit mit Tabellen auf Jupyter Lab mit Pandas, open_BEA Texte schreiben</t>
   </si>
 </sst>
 </file>
@@ -548,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1037,9 @@
       <c r="B20" s="8">
         <v>44424</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1034,7 +1057,9 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="11"/>
+      <c r="U20" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -1043,7 +1068,9 @@
       <c r="B21" s="8">
         <v>44425</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1070,7 +1097,9 @@
       <c r="B22" s="8">
         <v>44426</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1097,7 +1126,9 @@
       <c r="B23" s="8">
         <v>44427</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1124,7 +1155,9 @@
       <c r="B24" s="8">
         <v>44428</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1136,7 +1169,9 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
+      <c r="O24" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Bufdi Treffen (Partyplanung+Kaffeemaschine); Arbeit mit Tabellen auf Jupyter Lab mit Pandas, open_BEA Texte schreiben</t>
+  </si>
+  <si>
+    <t>RLI-Treffen + Party Vorbereitung (Einkauf); Präsentation: Was ist das RLI?; Auswertung Tabellen; Recherche Djagora</t>
   </si>
 </sst>
 </file>
@@ -569,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1243,9 @@
       <c r="B27" s="8">
         <v>44431</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>RLI-Treffen + Party Vorbereitung (Einkauf); Präsentation: Was ist das RLI?; Auswertung Tabellen; Recherche Djagora</t>
+  </si>
+  <si>
+    <t>Kennlern Seminar</t>
+  </si>
+  <si>
+    <t>Recherche Djagora (PV-Potentiale); Vorbereitunng Stiftungsfeier</t>
+  </si>
+  <si>
+    <t>Recherche +  Auswertung Djagora, Vorbereitung der nächsten Woche, Partyplanung</t>
   </si>
 </sst>
 </file>
@@ -572,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="I18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,8 +1252,8 @@
       <c r="B27" s="8">
         <v>44431</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>31</v>
+      <c r="C27" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1272,7 +1281,9 @@
       <c r="B28" s="8">
         <v>44432</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1299,7 +1310,9 @@
       <c r="B29" s="8">
         <v>44433</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -1326,7 +1339,9 @@
       <c r="B30" s="8">
         <v>44434</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1353,7 +1368,9 @@
       <c r="B31" s="8">
         <v>44435</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -130,12 +130,81 @@
   <si>
     <t>Recherche +  Auswertung Djagora, Vorbereitung der nächsten Woche, Partyplanung</t>
   </si>
+  <si>
+    <t>Team-Event Wukania: Ziele</t>
+  </si>
+  <si>
+    <r>
+      <t>Team-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vent Wukania: Jahresrückblick, persönliche Kompetenzen, Priorisierung von Aufgaben</t>
+    </r>
+  </si>
+  <si>
+    <t>UMAS: Quellen in ShareLatex einfügen mit Zotero; Energiedatenbanken recherchieren (Metadaten)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planung Team-Event; Quellen für UMAS; Energiedatenbanken </t>
+  </si>
+  <si>
+    <t>Quellen für UMAS, Teamkärtchen aktualisieren, Energiedatenbanken, Nachbereitung Team-Event</t>
+  </si>
+  <si>
+    <t>ShareLatex, Zotero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meeting in the Park</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Energiedatenbanken</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom-Meetings planen; Vorbereitung workshop: Menti; RLI-Umfrage auswerten; Djagora nach Fehlern durchsuchen; Open_Modex Korrektur </t>
+  </si>
+  <si>
+    <t>Plakat Gestaltung für Umfrage; Brandschutz Einweisung; Djagora Bericht korrektur lesen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +280,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -581,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1528,9 @@
       <c r="B34" s="8">
         <v>44438</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -1469,7 +1548,9 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="11"/>
+      <c r="U34" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -1478,7 +1559,9 @@
       <c r="B35" s="8">
         <v>44439</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -1505,7 +1588,9 @@
       <c r="B36" s="8">
         <v>44440</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -1532,8 +1617,10 @@
       <c r="B37" s="8">
         <v>44441</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="19"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -1559,8 +1646,10 @@
       <c r="B38" s="8">
         <v>44442</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -1640,7 +1729,9 @@
       <c r="B41" s="8">
         <v>44445</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -1667,7 +1758,9 @@
       <c r="B42" s="8">
         <v>44446</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -1694,7 +1787,9 @@
       <c r="B43" s="8">
         <v>44447</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -197,14 +197,56 @@
     <t xml:space="preserve">Zoom-Meetings planen; Vorbereitung workshop: Menti; RLI-Umfrage auswerten; Djagora nach Fehlern durchsuchen; Open_Modex Korrektur </t>
   </si>
   <si>
-    <t>Plakat Gestaltung für Umfrage; Brandschutz Einweisung; Djagora Bericht korrektur lesen</t>
+    <t>Plakat Gestaltung und Druck im Copyshop; Djagora Bericht; Teamkärtchen aktualisieren; Open_Modex</t>
+  </si>
+  <si>
+    <t>Plakat Gestaltung für Umfrage; Brandschutz Einweisung; Djagora Bericht korrektur lesen; Open_Modex</t>
+  </si>
+  <si>
+    <t>Energiedialog; technische Unterstützung im Djagora Workshop</t>
+  </si>
+  <si>
+    <t>Open_Modex Recherche</t>
+  </si>
+  <si>
+    <t>Tutorial Dreh: PV- und Windflächenrechner; Bearbeitung und Schnitt</t>
+  </si>
+  <si>
+    <t>Loom(Bildschirmaufnahme mit Portrai); OpenShot Video Editor</t>
+  </si>
+  <si>
+    <t>Tutorial Dreh: PV- und Windflächenrechner; Bearbeitung und Schnitt; Textblock für Abschlussbericht</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>Sarah/ Editha</t>
+  </si>
+  <si>
+    <t>Sarah/ Lena</t>
+  </si>
+  <si>
+    <t>Jann</t>
+  </si>
+  <si>
+    <t>Kathrin</t>
+  </si>
+  <si>
+    <t>Open_Modex Texte verfassen; Tutorial schneiden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +336,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -350,7 +398,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1"/>
@@ -371,6 +419,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -656,15 +708,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X368"/>
+  <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -675,7 +727,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="5" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,7 +746,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -702,13 +754,14 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>44410</v>
       </c>
@@ -732,12 +785,15 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
+      <c r="U6" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="11"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>44411</v>
       </c>
@@ -755,20 +811,21 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="21"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="11"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>44412</v>
       </c>
@@ -786,22 +843,23 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="10"/>
+      <c r="O8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="21"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="11"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>44413</v>
       </c>
@@ -819,20 +877,21 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="O9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="21"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>44414</v>
       </c>
@@ -850,20 +909,21 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="21"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="11"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>44415</v>
       </c>
@@ -879,8 +939,8 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -889,8 +949,9 @@
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>44416</v>
       </c>
@@ -906,8 +967,8 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
@@ -916,8 +977,9 @@
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="15"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>44417</v>
       </c>
@@ -935,20 +997,23 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="10"/>
+      <c r="O13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="21"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>44418</v>
       </c>
@@ -966,20 +1031,21 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="10"/>
+      <c r="O14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="21"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>44419</v>
       </c>
@@ -997,8 +1063,8 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -1007,8 +1073,9 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>44420</v>
       </c>
@@ -1026,8 +1093,8 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -1036,8 +1103,9 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="11"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>44421</v>
       </c>
@@ -1055,20 +1123,21 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="O17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="21"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="11"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>44422</v>
       </c>
@@ -1084,8 +1153,8 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -1094,8 +1163,9 @@
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="15"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>44423</v>
       </c>
@@ -1111,8 +1181,8 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -1121,8 +1191,9 @@
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="15"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>44424</v>
       </c>
@@ -1140,20 +1211,23 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="O20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="21"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="17" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>44425</v>
       </c>
@@ -1171,7 +1245,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -1181,8 +1255,9 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>44426</v>
       </c>
@@ -1210,8 +1285,9 @@
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="11"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>44427</v>
       </c>
@@ -1239,8 +1315,9 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>44428</v>
       </c>
@@ -1258,20 +1335,21 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="O24" s="18"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
+      <c r="U24" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="11"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>44429</v>
       </c>
@@ -1297,8 +1375,9 @@
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y25" s="15"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <v>44430</v>
       </c>
@@ -1324,8 +1403,9 @@
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y26" s="15"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>44431</v>
       </c>
@@ -1349,12 +1429,15 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
+      <c r="U27" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="11"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>44432</v>
       </c>
@@ -1382,8 +1465,9 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y28" s="11"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>44433</v>
       </c>
@@ -1411,8 +1495,9 @@
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y29" s="11"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>44434</v>
       </c>
@@ -1440,8 +1525,9 @@
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>44435</v>
       </c>
@@ -1469,8 +1555,9 @@
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y31" s="11"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <v>44436</v>
       </c>
@@ -1496,8 +1583,9 @@
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="15"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <v>44437</v>
       </c>
@@ -1523,8 +1611,9 @@
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="15"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>44438</v>
       </c>
@@ -1542,20 +1631,23 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="10"/>
+      <c r="O34" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y34" s="11"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>44439</v>
       </c>
@@ -1583,8 +1675,9 @@
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y35" s="11"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>44440</v>
       </c>
@@ -1612,8 +1705,9 @@
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="11"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>44441</v>
       </c>
@@ -1641,8 +1735,9 @@
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y37" s="11"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>44442</v>
       </c>
@@ -1670,8 +1765,9 @@
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y38" s="11"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <v>44443</v>
       </c>
@@ -1697,8 +1793,9 @@
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y39" s="15"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <v>44444</v>
       </c>
@@ -1724,8 +1821,9 @@
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y40" s="15"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>44445</v>
       </c>
@@ -1749,12 +1847,15 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
-      <c r="U41" s="11"/>
+      <c r="U41" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y41" s="11"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>44446</v>
       </c>
@@ -1782,13 +1883,14 @@
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y42" s="11"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>44447</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1811,12 +1913,15 @@
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y43" s="11"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>44448</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -1838,8 +1943,9 @@
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y44" s="11"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>44449</v>
       </c>
@@ -1865,8 +1971,9 @@
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y45" s="11"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <v>44450</v>
       </c>
@@ -1892,8 +1999,9 @@
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y46" s="15"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <v>44451</v>
       </c>
@@ -1919,12 +2027,15 @@
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y47" s="15"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>44452</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -1942,16 +2053,21 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
-      <c r="U48" s="11"/>
+      <c r="U48" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y48" s="11"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>44453</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -1973,12 +2089,15 @@
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="11"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>44454</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -1990,22 +2109,27 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="10"/>
+      <c r="O50" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="11"/>
+      <c r="U50" s="17"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="11"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>44455</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2027,12 +2151,15 @@
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y51" s="11"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>44456</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -2054,8 +2181,9 @@
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y52" s="11"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <v>44457</v>
       </c>
@@ -2081,8 +2209,9 @@
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y53" s="15"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <v>44458</v>
       </c>
@@ -2108,12 +2237,15 @@
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y54" s="15"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>44459</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -2135,12 +2267,15 @@
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y55" s="11"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>44460</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -2162,12 +2297,15 @@
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y56" s="11"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>44461</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -2189,12 +2327,15 @@
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y57" s="11"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>44462</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -2216,12 +2357,15 @@
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y58" s="11"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>44463</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2243,8 +2387,9 @@
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y59" s="11"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <v>44464</v>
       </c>
@@ -2270,8 +2415,9 @@
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y60" s="15"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <v>44465</v>
       </c>
@@ -2297,8 +2443,9 @@
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y61" s="15"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>44466</v>
       </c>
@@ -2324,8 +2471,9 @@
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y62" s="11"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>44467</v>
       </c>
@@ -2351,8 +2499,9 @@
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y63" s="11"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>44468</v>
       </c>
@@ -2378,8 +2527,9 @@
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y64" s="11"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>44469</v>
       </c>
@@ -2405,8 +2555,9 @@
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y65" s="11"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>44470</v>
       </c>
@@ -2432,8 +2583,9 @@
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y66" s="11"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <v>44471</v>
       </c>
@@ -2459,8 +2611,9 @@
       <c r="V67" s="15"/>
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y67" s="15"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <v>44472</v>
       </c>
@@ -2486,8 +2639,9 @@
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y68" s="15"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="8">
         <v>44473</v>
       </c>
@@ -2513,8 +2667,9 @@
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y69" s="11"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
         <v>44474</v>
       </c>
@@ -2540,8 +2695,9 @@
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y70" s="11"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <v>44475</v>
       </c>
@@ -2567,8 +2723,9 @@
       <c r="V71" s="11"/>
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y71" s="11"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <v>44476</v>
       </c>
@@ -2594,8 +2751,9 @@
       <c r="V72" s="11"/>
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y72" s="11"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>44477</v>
       </c>
@@ -2621,8 +2779,9 @@
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y73" s="11"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <v>44478</v>
       </c>
@@ -2648,8 +2807,9 @@
       <c r="V74" s="15"/>
       <c r="W74" s="15"/>
       <c r="X74" s="15"/>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y74" s="15"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <v>44479</v>
       </c>
@@ -2675,8 +2835,9 @@
       <c r="V75" s="15"/>
       <c r="W75" s="15"/>
       <c r="X75" s="15"/>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y75" s="15"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
         <v>44480</v>
       </c>
@@ -2702,8 +2863,9 @@
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y76" s="11"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>44481</v>
       </c>
@@ -2729,8 +2891,9 @@
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y77" s="11"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>44482</v>
       </c>
@@ -2756,8 +2919,9 @@
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y78" s="11"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>44483</v>
       </c>
@@ -2783,8 +2947,9 @@
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y79" s="11"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>44484</v>
       </c>
@@ -2810,8 +2975,9 @@
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y80" s="11"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <v>44485</v>
       </c>
@@ -2837,8 +3003,9 @@
       <c r="V81" s="15"/>
       <c r="W81" s="15"/>
       <c r="X81" s="15"/>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y81" s="15"/>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <v>44486</v>
       </c>
@@ -2864,8 +3031,9 @@
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
       <c r="X82" s="15"/>
-    </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y82" s="15"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
         <v>44487</v>
       </c>
@@ -2891,8 +3059,9 @@
       <c r="V83" s="11"/>
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y83" s="11"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="8">
         <v>44488</v>
       </c>
@@ -2918,8 +3087,9 @@
       <c r="V84" s="11"/>
       <c r="W84" s="11"/>
       <c r="X84" s="11"/>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y84" s="11"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
         <v>44489</v>
       </c>
@@ -2945,8 +3115,9 @@
       <c r="V85" s="11"/>
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y85" s="11"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="8">
         <v>44490</v>
       </c>
@@ -2972,8 +3143,9 @@
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y86" s="11"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <v>44491</v>
       </c>
@@ -2999,8 +3171,9 @@
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y87" s="11"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <v>44492</v>
       </c>
@@ -3026,8 +3199,9 @@
       <c r="V88" s="15"/>
       <c r="W88" s="15"/>
       <c r="X88" s="15"/>
-    </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y88" s="15"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <v>44493</v>
       </c>
@@ -3053,8 +3227,9 @@
       <c r="V89" s="15"/>
       <c r="W89" s="15"/>
       <c r="X89" s="15"/>
-    </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y89" s="15"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="8">
         <v>44494</v>
       </c>
@@ -3080,8 +3255,9 @@
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
-    </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y90" s="11"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
         <v>44495</v>
       </c>
@@ -3107,8 +3283,9 @@
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
-    </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y91" s="11"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="8">
         <v>44496</v>
       </c>
@@ -3134,8 +3311,9 @@
       <c r="V92" s="11"/>
       <c r="W92" s="11"/>
       <c r="X92" s="11"/>
-    </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y92" s="11"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="8">
         <v>44497</v>
       </c>
@@ -3161,8 +3339,9 @@
       <c r="V93" s="11"/>
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
-    </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y93" s="11"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="8">
         <v>44498</v>
       </c>
@@ -3188,8 +3367,9 @@
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
       <c r="X94" s="11"/>
-    </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y94" s="11"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
         <v>44499</v>
       </c>
@@ -3215,8 +3395,9 @@
       <c r="V95" s="15"/>
       <c r="W95" s="15"/>
       <c r="X95" s="15"/>
-    </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y95" s="15"/>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="12">
         <v>44500</v>
       </c>
@@ -3242,8 +3423,9 @@
       <c r="V96" s="15"/>
       <c r="W96" s="15"/>
       <c r="X96" s="15"/>
-    </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y96" s="15"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="8">
         <v>44501</v>
       </c>
@@ -3269,8 +3451,9 @@
       <c r="V97" s="11"/>
       <c r="W97" s="11"/>
       <c r="X97" s="11"/>
-    </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y97" s="11"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="8">
         <v>44502</v>
       </c>
@@ -3296,8 +3479,9 @@
       <c r="V98" s="11"/>
       <c r="W98" s="11"/>
       <c r="X98" s="11"/>
-    </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y98" s="11"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="8">
         <v>44503</v>
       </c>
@@ -3323,8 +3507,9 @@
       <c r="V99" s="11"/>
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
-    </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y99" s="11"/>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="8">
         <v>44504</v>
       </c>
@@ -3350,8 +3535,9 @@
       <c r="V100" s="11"/>
       <c r="W100" s="11"/>
       <c r="X100" s="11"/>
-    </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y100" s="11"/>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="8">
         <v>44505</v>
       </c>
@@ -3377,8 +3563,9 @@
       <c r="V101" s="11"/>
       <c r="W101" s="11"/>
       <c r="X101" s="11"/>
-    </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y101" s="11"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="12">
         <v>44506</v>
       </c>
@@ -3404,8 +3591,9 @@
       <c r="V102" s="15"/>
       <c r="W102" s="15"/>
       <c r="X102" s="15"/>
-    </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y102" s="15"/>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="12">
         <v>44507</v>
       </c>
@@ -3431,8 +3619,9 @@
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
-    </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y103" s="15"/>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="8">
         <v>44508</v>
       </c>
@@ -3458,8 +3647,9 @@
       <c r="V104" s="11"/>
       <c r="W104" s="11"/>
       <c r="X104" s="11"/>
-    </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y104" s="11"/>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="8">
         <v>44509</v>
       </c>
@@ -3485,8 +3675,9 @@
       <c r="V105" s="11"/>
       <c r="W105" s="11"/>
       <c r="X105" s="11"/>
-    </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y105" s="11"/>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="8">
         <v>44510</v>
       </c>
@@ -3512,8 +3703,9 @@
       <c r="V106" s="11"/>
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
-    </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y106" s="11"/>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="8">
         <v>44511</v>
       </c>
@@ -3539,8 +3731,9 @@
       <c r="V107" s="11"/>
       <c r="W107" s="11"/>
       <c r="X107" s="11"/>
-    </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y107" s="11"/>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="8">
         <v>44512</v>
       </c>
@@ -3566,8 +3759,9 @@
       <c r="V108" s="11"/>
       <c r="W108" s="11"/>
       <c r="X108" s="11"/>
-    </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y108" s="11"/>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="12">
         <v>44513</v>
       </c>
@@ -3593,8 +3787,9 @@
       <c r="V109" s="15"/>
       <c r="W109" s="15"/>
       <c r="X109" s="15"/>
-    </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y109" s="15"/>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="12">
         <v>44514</v>
       </c>
@@ -3620,8 +3815,9 @@
       <c r="V110" s="15"/>
       <c r="W110" s="15"/>
       <c r="X110" s="15"/>
-    </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y110" s="15"/>
+    </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="8">
         <v>44515</v>
       </c>
@@ -3647,8 +3843,9 @@
       <c r="V111" s="11"/>
       <c r="W111" s="11"/>
       <c r="X111" s="11"/>
-    </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y111" s="11"/>
+    </row>
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="8">
         <v>44516</v>
       </c>
@@ -3674,8 +3871,9 @@
       <c r="V112" s="11"/>
       <c r="W112" s="11"/>
       <c r="X112" s="11"/>
-    </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y112" s="11"/>
+    </row>
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="8">
         <v>44517</v>
       </c>
@@ -3701,8 +3899,9 @@
       <c r="V113" s="11"/>
       <c r="W113" s="11"/>
       <c r="X113" s="11"/>
-    </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y113" s="11"/>
+    </row>
+    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B114" s="8">
         <v>44518</v>
       </c>
@@ -3728,8 +3927,9 @@
       <c r="V114" s="11"/>
       <c r="W114" s="11"/>
       <c r="X114" s="11"/>
-    </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y114" s="11"/>
+    </row>
+    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B115" s="8">
         <v>44519</v>
       </c>
@@ -3755,8 +3955,9 @@
       <c r="V115" s="11"/>
       <c r="W115" s="11"/>
       <c r="X115" s="11"/>
-    </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y115" s="11"/>
+    </row>
+    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B116" s="12">
         <v>44520</v>
       </c>
@@ -3782,8 +3983,9 @@
       <c r="V116" s="15"/>
       <c r="W116" s="15"/>
       <c r="X116" s="15"/>
-    </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y116" s="15"/>
+    </row>
+    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
         <v>44521</v>
       </c>
@@ -3809,8 +4011,9 @@
       <c r="V117" s="15"/>
       <c r="W117" s="15"/>
       <c r="X117" s="15"/>
-    </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y117" s="15"/>
+    </row>
+    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B118" s="8">
         <v>44522</v>
       </c>
@@ -3836,8 +4039,9 @@
       <c r="V118" s="11"/>
       <c r="W118" s="11"/>
       <c r="X118" s="11"/>
-    </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y118" s="11"/>
+    </row>
+    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B119" s="8">
         <v>44523</v>
       </c>
@@ -3863,8 +4067,9 @@
       <c r="V119" s="11"/>
       <c r="W119" s="11"/>
       <c r="X119" s="11"/>
-    </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y119" s="11"/>
+    </row>
+    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B120" s="8">
         <v>44524</v>
       </c>
@@ -3890,8 +4095,9 @@
       <c r="V120" s="11"/>
       <c r="W120" s="11"/>
       <c r="X120" s="11"/>
-    </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y120" s="11"/>
+    </row>
+    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B121" s="8">
         <v>44525</v>
       </c>
@@ -3917,8 +4123,9 @@
       <c r="V121" s="11"/>
       <c r="W121" s="11"/>
       <c r="X121" s="11"/>
-    </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y121" s="11"/>
+    </row>
+    <row r="122" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B122" s="8">
         <v>44526</v>
       </c>
@@ -3944,8 +4151,9 @@
       <c r="V122" s="11"/>
       <c r="W122" s="11"/>
       <c r="X122" s="11"/>
-    </row>
-    <row r="123" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y122" s="11"/>
+    </row>
+    <row r="123" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B123" s="12">
         <v>44527</v>
       </c>
@@ -3971,8 +4179,9 @@
       <c r="V123" s="15"/>
       <c r="W123" s="15"/>
       <c r="X123" s="15"/>
-    </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y123" s="15"/>
+    </row>
+    <row r="124" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B124" s="12">
         <v>44528</v>
       </c>
@@ -3998,8 +4207,9 @@
       <c r="V124" s="15"/>
       <c r="W124" s="15"/>
       <c r="X124" s="15"/>
-    </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y124" s="15"/>
+    </row>
+    <row r="125" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B125" s="8">
         <v>44529</v>
       </c>
@@ -4025,8 +4235,9 @@
       <c r="V125" s="11"/>
       <c r="W125" s="11"/>
       <c r="X125" s="11"/>
-    </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y125" s="11"/>
+    </row>
+    <row r="126" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B126" s="8">
         <v>44530</v>
       </c>
@@ -4052,8 +4263,9 @@
       <c r="V126" s="11"/>
       <c r="W126" s="11"/>
       <c r="X126" s="11"/>
-    </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y126" s="11"/>
+    </row>
+    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B127" s="8">
         <v>44531</v>
       </c>
@@ -4079,8 +4291,9 @@
       <c r="V127" s="11"/>
       <c r="W127" s="11"/>
       <c r="X127" s="11"/>
-    </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y127" s="11"/>
+    </row>
+    <row r="128" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B128" s="8">
         <v>44532</v>
       </c>
@@ -4106,8 +4319,9 @@
       <c r="V128" s="11"/>
       <c r="W128" s="11"/>
       <c r="X128" s="11"/>
-    </row>
-    <row r="129" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y128" s="11"/>
+    </row>
+    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B129" s="8">
         <v>44533</v>
       </c>
@@ -4133,8 +4347,9 @@
       <c r="V129" s="11"/>
       <c r="W129" s="11"/>
       <c r="X129" s="11"/>
-    </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y129" s="11"/>
+    </row>
+    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
         <v>44534</v>
       </c>
@@ -4160,8 +4375,9 @@
       <c r="V130" s="15"/>
       <c r="W130" s="15"/>
       <c r="X130" s="15"/>
-    </row>
-    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y130" s="15"/>
+    </row>
+    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
         <v>44535</v>
       </c>
@@ -4187,8 +4403,9 @@
       <c r="V131" s="15"/>
       <c r="W131" s="15"/>
       <c r="X131" s="15"/>
-    </row>
-    <row r="132" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y131" s="15"/>
+    </row>
+    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B132" s="8">
         <v>44536</v>
       </c>
@@ -4214,8 +4431,9 @@
       <c r="V132" s="11"/>
       <c r="W132" s="11"/>
       <c r="X132" s="11"/>
-    </row>
-    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y132" s="11"/>
+    </row>
+    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B133" s="8">
         <v>44537</v>
       </c>
@@ -4241,8 +4459,9 @@
       <c r="V133" s="11"/>
       <c r="W133" s="11"/>
       <c r="X133" s="11"/>
-    </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y133" s="11"/>
+    </row>
+    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B134" s="8">
         <v>44538</v>
       </c>
@@ -4268,8 +4487,9 @@
       <c r="V134" s="11"/>
       <c r="W134" s="11"/>
       <c r="X134" s="11"/>
-    </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y134" s="11"/>
+    </row>
+    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B135" s="8">
         <v>44539</v>
       </c>
@@ -4295,8 +4515,9 @@
       <c r="V135" s="11"/>
       <c r="W135" s="11"/>
       <c r="X135" s="11"/>
-    </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y135" s="11"/>
+    </row>
+    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B136" s="8">
         <v>44540</v>
       </c>
@@ -4322,8 +4543,9 @@
       <c r="V136" s="11"/>
       <c r="W136" s="11"/>
       <c r="X136" s="11"/>
-    </row>
-    <row r="137" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y136" s="11"/>
+    </row>
+    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
         <v>44541</v>
       </c>
@@ -4349,8 +4571,9 @@
       <c r="V137" s="15"/>
       <c r="W137" s="15"/>
       <c r="X137" s="15"/>
-    </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y137" s="15"/>
+    </row>
+    <row r="138" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B138" s="12">
         <v>44542</v>
       </c>
@@ -4376,8 +4599,9 @@
       <c r="V138" s="15"/>
       <c r="W138" s="15"/>
       <c r="X138" s="15"/>
-    </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y138" s="15"/>
+    </row>
+    <row r="139" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B139" s="8">
         <v>44543</v>
       </c>
@@ -4403,8 +4627,9 @@
       <c r="V139" s="11"/>
       <c r="W139" s="11"/>
       <c r="X139" s="11"/>
-    </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y139" s="11"/>
+    </row>
+    <row r="140" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B140" s="8">
         <v>44544</v>
       </c>
@@ -4430,8 +4655,9 @@
       <c r="V140" s="11"/>
       <c r="W140" s="11"/>
       <c r="X140" s="11"/>
-    </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y140" s="11"/>
+    </row>
+    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B141" s="8">
         <v>44545</v>
       </c>
@@ -4457,8 +4683,9 @@
       <c r="V141" s="11"/>
       <c r="W141" s="11"/>
       <c r="X141" s="11"/>
-    </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y141" s="11"/>
+    </row>
+    <row r="142" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B142" s="8">
         <v>44546</v>
       </c>
@@ -4484,8 +4711,9 @@
       <c r="V142" s="11"/>
       <c r="W142" s="11"/>
       <c r="X142" s="11"/>
-    </row>
-    <row r="143" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y142" s="11"/>
+    </row>
+    <row r="143" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B143" s="8">
         <v>44547</v>
       </c>
@@ -4511,8 +4739,9 @@
       <c r="V143" s="11"/>
       <c r="W143" s="11"/>
       <c r="X143" s="11"/>
-    </row>
-    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y143" s="11"/>
+    </row>
+    <row r="144" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B144" s="12">
         <v>44548</v>
       </c>
@@ -4538,8 +4767,9 @@
       <c r="V144" s="15"/>
       <c r="W144" s="15"/>
       <c r="X144" s="15"/>
-    </row>
-    <row r="145" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y144" s="15"/>
+    </row>
+    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B145" s="12">
         <v>44549</v>
       </c>
@@ -4565,8 +4795,9 @@
       <c r="V145" s="15"/>
       <c r="W145" s="15"/>
       <c r="X145" s="15"/>
-    </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y145" s="15"/>
+    </row>
+    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B146" s="8">
         <v>44550</v>
       </c>
@@ -4592,8 +4823,9 @@
       <c r="V146" s="11"/>
       <c r="W146" s="11"/>
       <c r="X146" s="11"/>
-    </row>
-    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y146" s="11"/>
+    </row>
+    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B147" s="8">
         <v>44551</v>
       </c>
@@ -4619,8 +4851,9 @@
       <c r="V147" s="11"/>
       <c r="W147" s="11"/>
       <c r="X147" s="11"/>
-    </row>
-    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y147" s="11"/>
+    </row>
+    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B148" s="8">
         <v>44552</v>
       </c>
@@ -4646,8 +4879,9 @@
       <c r="V148" s="11"/>
       <c r="W148" s="11"/>
       <c r="X148" s="11"/>
-    </row>
-    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y148" s="11"/>
+    </row>
+    <row r="149" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B149" s="8">
         <v>44553</v>
       </c>
@@ -4673,8 +4907,9 @@
       <c r="V149" s="11"/>
       <c r="W149" s="11"/>
       <c r="X149" s="11"/>
-    </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y149" s="11"/>
+    </row>
+    <row r="150" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B150" s="8">
         <v>44554</v>
       </c>
@@ -4700,8 +4935,9 @@
       <c r="V150" s="11"/>
       <c r="W150" s="11"/>
       <c r="X150" s="11"/>
-    </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y150" s="11"/>
+    </row>
+    <row r="151" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B151" s="12">
         <v>44555</v>
       </c>
@@ -4727,8 +4963,9 @@
       <c r="V151" s="15"/>
       <c r="W151" s="15"/>
       <c r="X151" s="15"/>
-    </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y151" s="15"/>
+    </row>
+    <row r="152" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B152" s="12">
         <v>44556</v>
       </c>
@@ -4754,8 +4991,9 @@
       <c r="V152" s="15"/>
       <c r="W152" s="15"/>
       <c r="X152" s="15"/>
-    </row>
-    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y152" s="15"/>
+    </row>
+    <row r="153" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B153" s="8">
         <v>44557</v>
       </c>
@@ -4781,8 +5019,9 @@
       <c r="V153" s="11"/>
       <c r="W153" s="11"/>
       <c r="X153" s="11"/>
-    </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y153" s="11"/>
+    </row>
+    <row r="154" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B154" s="8">
         <v>44558</v>
       </c>
@@ -4808,8 +5047,9 @@
       <c r="V154" s="11"/>
       <c r="W154" s="11"/>
       <c r="X154" s="11"/>
-    </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y154" s="11"/>
+    </row>
+    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B155" s="8">
         <v>44559</v>
       </c>
@@ -4835,8 +5075,9 @@
       <c r="V155" s="11"/>
       <c r="W155" s="11"/>
       <c r="X155" s="11"/>
-    </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y155" s="11"/>
+    </row>
+    <row r="156" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B156" s="8">
         <v>44560</v>
       </c>
@@ -4862,8 +5103,9 @@
       <c r="V156" s="11"/>
       <c r="W156" s="11"/>
       <c r="X156" s="11"/>
-    </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y156" s="11"/>
+    </row>
+    <row r="157" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B157" s="8">
         <v>44561</v>
       </c>
@@ -4889,8 +5131,9 @@
       <c r="V157" s="11"/>
       <c r="W157" s="11"/>
       <c r="X157" s="11"/>
-    </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y157" s="11"/>
+    </row>
+    <row r="158" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B158" s="12">
         <v>44562</v>
       </c>
@@ -4916,8 +5159,9 @@
       <c r="V158" s="15"/>
       <c r="W158" s="15"/>
       <c r="X158" s="15"/>
-    </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y158" s="15"/>
+    </row>
+    <row r="159" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B159" s="12">
         <v>44563</v>
       </c>
@@ -4943,8 +5187,9 @@
       <c r="V159" s="15"/>
       <c r="W159" s="15"/>
       <c r="X159" s="15"/>
-    </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y159" s="15"/>
+    </row>
+    <row r="160" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B160" s="8">
         <v>44564</v>
       </c>
@@ -4970,8 +5215,9 @@
       <c r="V160" s="11"/>
       <c r="W160" s="11"/>
       <c r="X160" s="11"/>
-    </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y160" s="11"/>
+    </row>
+    <row r="161" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B161" s="8">
         <v>44565</v>
       </c>
@@ -4997,8 +5243,9 @@
       <c r="V161" s="11"/>
       <c r="W161" s="11"/>
       <c r="X161" s="11"/>
-    </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y161" s="11"/>
+    </row>
+    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B162" s="8">
         <v>44566</v>
       </c>
@@ -5024,8 +5271,9 @@
       <c r="V162" s="11"/>
       <c r="W162" s="11"/>
       <c r="X162" s="11"/>
-    </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y162" s="11"/>
+    </row>
+    <row r="163" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B163" s="8">
         <v>44567</v>
       </c>
@@ -5051,8 +5299,9 @@
       <c r="V163" s="11"/>
       <c r="W163" s="11"/>
       <c r="X163" s="11"/>
-    </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y163" s="11"/>
+    </row>
+    <row r="164" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B164" s="8">
         <v>44568</v>
       </c>
@@ -5078,8 +5327,9 @@
       <c r="V164" s="11"/>
       <c r="W164" s="11"/>
       <c r="X164" s="11"/>
-    </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y164" s="11"/>
+    </row>
+    <row r="165" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B165" s="12">
         <v>44569</v>
       </c>
@@ -5105,8 +5355,9 @@
       <c r="V165" s="15"/>
       <c r="W165" s="15"/>
       <c r="X165" s="15"/>
-    </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y165" s="15"/>
+    </row>
+    <row r="166" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B166" s="12">
         <v>44570</v>
       </c>
@@ -5132,8 +5383,9 @@
       <c r="V166" s="15"/>
       <c r="W166" s="15"/>
       <c r="X166" s="15"/>
-    </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y166" s="15"/>
+    </row>
+    <row r="167" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B167" s="8">
         <v>44571</v>
       </c>
@@ -5159,8 +5411,9 @@
       <c r="V167" s="11"/>
       <c r="W167" s="11"/>
       <c r="X167" s="11"/>
-    </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y167" s="11"/>
+    </row>
+    <row r="168" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B168" s="8">
         <v>44572</v>
       </c>
@@ -5186,8 +5439,9 @@
       <c r="V168" s="11"/>
       <c r="W168" s="11"/>
       <c r="X168" s="11"/>
-    </row>
-    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y168" s="11"/>
+    </row>
+    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B169" s="8">
         <v>44573</v>
       </c>
@@ -5213,8 +5467,9 @@
       <c r="V169" s="11"/>
       <c r="W169" s="11"/>
       <c r="X169" s="11"/>
-    </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y169" s="11"/>
+    </row>
+    <row r="170" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B170" s="8">
         <v>44574</v>
       </c>
@@ -5240,8 +5495,9 @@
       <c r="V170" s="11"/>
       <c r="W170" s="11"/>
       <c r="X170" s="11"/>
-    </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y170" s="11"/>
+    </row>
+    <row r="171" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B171" s="8">
         <v>44575</v>
       </c>
@@ -5267,8 +5523,9 @@
       <c r="V171" s="11"/>
       <c r="W171" s="11"/>
       <c r="X171" s="11"/>
-    </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y171" s="11"/>
+    </row>
+    <row r="172" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B172" s="12">
         <v>44576</v>
       </c>
@@ -5294,8 +5551,9 @@
       <c r="V172" s="15"/>
       <c r="W172" s="15"/>
       <c r="X172" s="15"/>
-    </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y172" s="15"/>
+    </row>
+    <row r="173" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B173" s="12">
         <v>44577</v>
       </c>
@@ -5321,8 +5579,9 @@
       <c r="V173" s="15"/>
       <c r="W173" s="15"/>
       <c r="X173" s="15"/>
-    </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y173" s="15"/>
+    </row>
+    <row r="174" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B174" s="8">
         <v>44578</v>
       </c>
@@ -5348,8 +5607,9 @@
       <c r="V174" s="11"/>
       <c r="W174" s="11"/>
       <c r="X174" s="11"/>
-    </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y174" s="11"/>
+    </row>
+    <row r="175" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B175" s="8">
         <v>44579</v>
       </c>
@@ -5375,8 +5635,9 @@
       <c r="V175" s="11"/>
       <c r="W175" s="11"/>
       <c r="X175" s="11"/>
-    </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y175" s="11"/>
+    </row>
+    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B176" s="8">
         <v>44580</v>
       </c>
@@ -5402,8 +5663,9 @@
       <c r="V176" s="11"/>
       <c r="W176" s="11"/>
       <c r="X176" s="11"/>
-    </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y176" s="11"/>
+    </row>
+    <row r="177" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B177" s="8">
         <v>44581</v>
       </c>
@@ -5429,8 +5691,9 @@
       <c r="V177" s="11"/>
       <c r="W177" s="11"/>
       <c r="X177" s="11"/>
-    </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y177" s="11"/>
+    </row>
+    <row r="178" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B178" s="8">
         <v>44582</v>
       </c>
@@ -5456,8 +5719,9 @@
       <c r="V178" s="11"/>
       <c r="W178" s="11"/>
       <c r="X178" s="11"/>
-    </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y178" s="11"/>
+    </row>
+    <row r="179" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B179" s="12">
         <v>44583</v>
       </c>
@@ -5483,8 +5747,9 @@
       <c r="V179" s="15"/>
       <c r="W179" s="15"/>
       <c r="X179" s="15"/>
-    </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y179" s="15"/>
+    </row>
+    <row r="180" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B180" s="12">
         <v>44584</v>
       </c>
@@ -5510,8 +5775,9 @@
       <c r="V180" s="15"/>
       <c r="W180" s="15"/>
       <c r="X180" s="15"/>
-    </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y180" s="15"/>
+    </row>
+    <row r="181" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B181" s="8">
         <v>44585</v>
       </c>
@@ -5537,8 +5803,9 @@
       <c r="V181" s="11"/>
       <c r="W181" s="11"/>
       <c r="X181" s="11"/>
-    </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y181" s="11"/>
+    </row>
+    <row r="182" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B182" s="8">
         <v>44586</v>
       </c>
@@ -5564,8 +5831,9 @@
       <c r="V182" s="11"/>
       <c r="W182" s="11"/>
       <c r="X182" s="11"/>
-    </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y182" s="11"/>
+    </row>
+    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B183" s="8">
         <v>44587</v>
       </c>
@@ -5591,8 +5859,9 @@
       <c r="V183" s="11"/>
       <c r="W183" s="11"/>
       <c r="X183" s="11"/>
-    </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y183" s="11"/>
+    </row>
+    <row r="184" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B184" s="8">
         <v>44588</v>
       </c>
@@ -5618,8 +5887,9 @@
       <c r="V184" s="11"/>
       <c r="W184" s="11"/>
       <c r="X184" s="11"/>
-    </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y184" s="11"/>
+    </row>
+    <row r="185" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B185" s="8">
         <v>44589</v>
       </c>
@@ -5645,8 +5915,9 @@
       <c r="V185" s="11"/>
       <c r="W185" s="11"/>
       <c r="X185" s="11"/>
-    </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y185" s="11"/>
+    </row>
+    <row r="186" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B186" s="12">
         <v>44590</v>
       </c>
@@ -5672,8 +5943,9 @@
       <c r="V186" s="15"/>
       <c r="W186" s="15"/>
       <c r="X186" s="15"/>
-    </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y186" s="15"/>
+    </row>
+    <row r="187" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B187" s="12">
         <v>44591</v>
       </c>
@@ -5699,8 +5971,9 @@
       <c r="V187" s="15"/>
       <c r="W187" s="15"/>
       <c r="X187" s="15"/>
-    </row>
-    <row r="188" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y187" s="15"/>
+    </row>
+    <row r="188" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B188" s="8">
         <v>44592</v>
       </c>
@@ -5726,8 +5999,9 @@
       <c r="V188" s="11"/>
       <c r="W188" s="11"/>
       <c r="X188" s="11"/>
-    </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y188" s="11"/>
+    </row>
+    <row r="189" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B189" s="8">
         <v>44593</v>
       </c>
@@ -5753,8 +6027,9 @@
       <c r="V189" s="11"/>
       <c r="W189" s="11"/>
       <c r="X189" s="11"/>
-    </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y189" s="11"/>
+    </row>
+    <row r="190" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B190" s="8">
         <v>44594</v>
       </c>
@@ -5780,8 +6055,9 @@
       <c r="V190" s="11"/>
       <c r="W190" s="11"/>
       <c r="X190" s="11"/>
-    </row>
-    <row r="191" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y190" s="11"/>
+    </row>
+    <row r="191" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B191" s="8">
         <v>44595</v>
       </c>
@@ -5807,8 +6083,9 @@
       <c r="V191" s="11"/>
       <c r="W191" s="11"/>
       <c r="X191" s="11"/>
-    </row>
-    <row r="192" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y191" s="11"/>
+    </row>
+    <row r="192" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B192" s="8">
         <v>44596</v>
       </c>
@@ -5834,8 +6111,9 @@
       <c r="V192" s="11"/>
       <c r="W192" s="11"/>
       <c r="X192" s="11"/>
-    </row>
-    <row r="193" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y192" s="11"/>
+    </row>
+    <row r="193" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B193" s="12">
         <v>44597</v>
       </c>
@@ -5861,8 +6139,9 @@
       <c r="V193" s="15"/>
       <c r="W193" s="15"/>
       <c r="X193" s="15"/>
-    </row>
-    <row r="194" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y193" s="15"/>
+    </row>
+    <row r="194" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B194" s="12">
         <v>44598</v>
       </c>
@@ -5888,8 +6167,9 @@
       <c r="V194" s="15"/>
       <c r="W194" s="15"/>
       <c r="X194" s="15"/>
-    </row>
-    <row r="195" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y194" s="15"/>
+    </row>
+    <row r="195" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B195" s="8">
         <v>44599</v>
       </c>
@@ -5915,8 +6195,9 @@
       <c r="V195" s="11"/>
       <c r="W195" s="11"/>
       <c r="X195" s="11"/>
-    </row>
-    <row r="196" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y195" s="11"/>
+    </row>
+    <row r="196" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B196" s="8">
         <v>44600</v>
       </c>
@@ -5942,8 +6223,9 @@
       <c r="V196" s="11"/>
       <c r="W196" s="11"/>
       <c r="X196" s="11"/>
-    </row>
-    <row r="197" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y196" s="11"/>
+    </row>
+    <row r="197" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B197" s="8">
         <v>44601</v>
       </c>
@@ -5969,8 +6251,9 @@
       <c r="V197" s="11"/>
       <c r="W197" s="11"/>
       <c r="X197" s="11"/>
-    </row>
-    <row r="198" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y197" s="11"/>
+    </row>
+    <row r="198" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B198" s="8">
         <v>44602</v>
       </c>
@@ -5996,8 +6279,9 @@
       <c r="V198" s="11"/>
       <c r="W198" s="11"/>
       <c r="X198" s="11"/>
-    </row>
-    <row r="199" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y198" s="11"/>
+    </row>
+    <row r="199" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B199" s="8">
         <v>44603</v>
       </c>
@@ -6023,8 +6307,9 @@
       <c r="V199" s="11"/>
       <c r="W199" s="11"/>
       <c r="X199" s="11"/>
-    </row>
-    <row r="200" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y199" s="11"/>
+    </row>
+    <row r="200" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B200" s="12">
         <v>44604</v>
       </c>
@@ -6050,8 +6335,9 @@
       <c r="V200" s="15"/>
       <c r="W200" s="15"/>
       <c r="X200" s="15"/>
-    </row>
-    <row r="201" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y200" s="15"/>
+    </row>
+    <row r="201" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B201" s="12">
         <v>44605</v>
       </c>
@@ -6077,8 +6363,9 @@
       <c r="V201" s="15"/>
       <c r="W201" s="15"/>
       <c r="X201" s="15"/>
-    </row>
-    <row r="202" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y201" s="15"/>
+    </row>
+    <row r="202" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B202" s="8">
         <v>44606</v>
       </c>
@@ -6104,8 +6391,9 @@
       <c r="V202" s="11"/>
       <c r="W202" s="11"/>
       <c r="X202" s="11"/>
-    </row>
-    <row r="203" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y202" s="11"/>
+    </row>
+    <row r="203" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B203" s="8">
         <v>44607</v>
       </c>
@@ -6131,8 +6419,9 @@
       <c r="V203" s="11"/>
       <c r="W203" s="11"/>
       <c r="X203" s="11"/>
-    </row>
-    <row r="204" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y203" s="11"/>
+    </row>
+    <row r="204" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B204" s="8">
         <v>44608</v>
       </c>
@@ -6158,8 +6447,9 @@
       <c r="V204" s="11"/>
       <c r="W204" s="11"/>
       <c r="X204" s="11"/>
-    </row>
-    <row r="205" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y204" s="11"/>
+    </row>
+    <row r="205" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B205" s="8">
         <v>44609</v>
       </c>
@@ -6185,8 +6475,9 @@
       <c r="V205" s="11"/>
       <c r="W205" s="11"/>
       <c r="X205" s="11"/>
-    </row>
-    <row r="206" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y205" s="11"/>
+    </row>
+    <row r="206" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B206" s="8">
         <v>44610</v>
       </c>
@@ -6212,8 +6503,9 @@
       <c r="V206" s="11"/>
       <c r="W206" s="11"/>
       <c r="X206" s="11"/>
-    </row>
-    <row r="207" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y206" s="11"/>
+    </row>
+    <row r="207" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
         <v>44611</v>
       </c>
@@ -6239,8 +6531,9 @@
       <c r="V207" s="15"/>
       <c r="W207" s="15"/>
       <c r="X207" s="15"/>
-    </row>
-    <row r="208" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y207" s="15"/>
+    </row>
+    <row r="208" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B208" s="12">
         <v>44612</v>
       </c>
@@ -6266,8 +6559,9 @@
       <c r="V208" s="15"/>
       <c r="W208" s="15"/>
       <c r="X208" s="15"/>
-    </row>
-    <row r="209" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y208" s="15"/>
+    </row>
+    <row r="209" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B209" s="8">
         <v>44613</v>
       </c>
@@ -6293,8 +6587,9 @@
       <c r="V209" s="11"/>
       <c r="W209" s="11"/>
       <c r="X209" s="11"/>
-    </row>
-    <row r="210" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y209" s="11"/>
+    </row>
+    <row r="210" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B210" s="8">
         <v>44614</v>
       </c>
@@ -6320,8 +6615,9 @@
       <c r="V210" s="11"/>
       <c r="W210" s="11"/>
       <c r="X210" s="11"/>
-    </row>
-    <row r="211" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y210" s="11"/>
+    </row>
+    <row r="211" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B211" s="8">
         <v>44615</v>
       </c>
@@ -6347,8 +6643,9 @@
       <c r="V211" s="11"/>
       <c r="W211" s="11"/>
       <c r="X211" s="11"/>
-    </row>
-    <row r="212" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y211" s="11"/>
+    </row>
+    <row r="212" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B212" s="8">
         <v>44616</v>
       </c>
@@ -6374,8 +6671,9 @@
       <c r="V212" s="11"/>
       <c r="W212" s="11"/>
       <c r="X212" s="11"/>
-    </row>
-    <row r="213" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y212" s="11"/>
+    </row>
+    <row r="213" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B213" s="8">
         <v>44617</v>
       </c>
@@ -6401,8 +6699,9 @@
       <c r="V213" s="11"/>
       <c r="W213" s="11"/>
       <c r="X213" s="11"/>
-    </row>
-    <row r="214" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y213" s="11"/>
+    </row>
+    <row r="214" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B214" s="12">
         <v>44618</v>
       </c>
@@ -6428,8 +6727,9 @@
       <c r="V214" s="15"/>
       <c r="W214" s="15"/>
       <c r="X214" s="15"/>
-    </row>
-    <row r="215" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y214" s="15"/>
+    </row>
+    <row r="215" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B215" s="12">
         <v>44619</v>
       </c>
@@ -6455,8 +6755,9 @@
       <c r="V215" s="15"/>
       <c r="W215" s="15"/>
       <c r="X215" s="15"/>
-    </row>
-    <row r="216" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y215" s="15"/>
+    </row>
+    <row r="216" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B216" s="8">
         <v>44620</v>
       </c>
@@ -6482,8 +6783,9 @@
       <c r="V216" s="11"/>
       <c r="W216" s="11"/>
       <c r="X216" s="11"/>
-    </row>
-    <row r="217" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y216" s="11"/>
+    </row>
+    <row r="217" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B217" s="8">
         <v>44621</v>
       </c>
@@ -6509,8 +6811,9 @@
       <c r="V217" s="11"/>
       <c r="W217" s="11"/>
       <c r="X217" s="11"/>
-    </row>
-    <row r="218" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y217" s="11"/>
+    </row>
+    <row r="218" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B218" s="8">
         <v>44622</v>
       </c>
@@ -6536,8 +6839,9 @@
       <c r="V218" s="11"/>
       <c r="W218" s="11"/>
       <c r="X218" s="11"/>
-    </row>
-    <row r="219" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y218" s="11"/>
+    </row>
+    <row r="219" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B219" s="8">
         <v>44623</v>
       </c>
@@ -6563,8 +6867,9 @@
       <c r="V219" s="11"/>
       <c r="W219" s="11"/>
       <c r="X219" s="11"/>
-    </row>
-    <row r="220" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y219" s="11"/>
+    </row>
+    <row r="220" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B220" s="8">
         <v>44624</v>
       </c>
@@ -6590,8 +6895,9 @@
       <c r="V220" s="11"/>
       <c r="W220" s="11"/>
       <c r="X220" s="11"/>
-    </row>
-    <row r="221" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y220" s="11"/>
+    </row>
+    <row r="221" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B221" s="12">
         <v>44625</v>
       </c>
@@ -6617,8 +6923,9 @@
       <c r="V221" s="15"/>
       <c r="W221" s="15"/>
       <c r="X221" s="15"/>
-    </row>
-    <row r="222" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y221" s="15"/>
+    </row>
+    <row r="222" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B222" s="12">
         <v>44626</v>
       </c>
@@ -6644,8 +6951,9 @@
       <c r="V222" s="15"/>
       <c r="W222" s="15"/>
       <c r="X222" s="15"/>
-    </row>
-    <row r="223" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y222" s="15"/>
+    </row>
+    <row r="223" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B223" s="8">
         <v>44627</v>
       </c>
@@ -6671,8 +6979,9 @@
       <c r="V223" s="11"/>
       <c r="W223" s="11"/>
       <c r="X223" s="11"/>
-    </row>
-    <row r="224" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y223" s="11"/>
+    </row>
+    <row r="224" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B224" s="8">
         <v>44628</v>
       </c>
@@ -6698,8 +7007,9 @@
       <c r="V224" s="11"/>
       <c r="W224" s="11"/>
       <c r="X224" s="11"/>
-    </row>
-    <row r="225" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y224" s="11"/>
+    </row>
+    <row r="225" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B225" s="8">
         <v>44629</v>
       </c>
@@ -6725,8 +7035,9 @@
       <c r="V225" s="11"/>
       <c r="W225" s="11"/>
       <c r="X225" s="11"/>
-    </row>
-    <row r="226" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y225" s="11"/>
+    </row>
+    <row r="226" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B226" s="8">
         <v>44630</v>
       </c>
@@ -6752,8 +7063,9 @@
       <c r="V226" s="11"/>
       <c r="W226" s="11"/>
       <c r="X226" s="11"/>
-    </row>
-    <row r="227" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y226" s="11"/>
+    </row>
+    <row r="227" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B227" s="8">
         <v>44631</v>
       </c>
@@ -6779,8 +7091,9 @@
       <c r="V227" s="11"/>
       <c r="W227" s="11"/>
       <c r="X227" s="11"/>
-    </row>
-    <row r="228" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y227" s="11"/>
+    </row>
+    <row r="228" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B228" s="12">
         <v>44632</v>
       </c>
@@ -6806,8 +7119,9 @@
       <c r="V228" s="15"/>
       <c r="W228" s="15"/>
       <c r="X228" s="15"/>
-    </row>
-    <row r="229" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y228" s="15"/>
+    </row>
+    <row r="229" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B229" s="12">
         <v>44633</v>
       </c>
@@ -6833,8 +7147,9 @@
       <c r="V229" s="15"/>
       <c r="W229" s="15"/>
       <c r="X229" s="15"/>
-    </row>
-    <row r="230" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y229" s="15"/>
+    </row>
+    <row r="230" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B230" s="8">
         <v>44634</v>
       </c>
@@ -6860,8 +7175,9 @@
       <c r="V230" s="11"/>
       <c r="W230" s="11"/>
       <c r="X230" s="11"/>
-    </row>
-    <row r="231" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y230" s="11"/>
+    </row>
+    <row r="231" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B231" s="8">
         <v>44635</v>
       </c>
@@ -6887,8 +7203,9 @@
       <c r="V231" s="11"/>
       <c r="W231" s="11"/>
       <c r="X231" s="11"/>
-    </row>
-    <row r="232" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y231" s="11"/>
+    </row>
+    <row r="232" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B232" s="8">
         <v>44636</v>
       </c>
@@ -6914,8 +7231,9 @@
       <c r="V232" s="11"/>
       <c r="W232" s="11"/>
       <c r="X232" s="11"/>
-    </row>
-    <row r="233" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y232" s="11"/>
+    </row>
+    <row r="233" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B233" s="8">
         <v>44637</v>
       </c>
@@ -6941,8 +7259,9 @@
       <c r="V233" s="11"/>
       <c r="W233" s="11"/>
       <c r="X233" s="11"/>
-    </row>
-    <row r="234" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y233" s="11"/>
+    </row>
+    <row r="234" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B234" s="8">
         <v>44638</v>
       </c>
@@ -6968,8 +7287,9 @@
       <c r="V234" s="11"/>
       <c r="W234" s="11"/>
       <c r="X234" s="11"/>
-    </row>
-    <row r="235" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y234" s="11"/>
+    </row>
+    <row r="235" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B235" s="12">
         <v>44639</v>
       </c>
@@ -6995,8 +7315,9 @@
       <c r="V235" s="15"/>
       <c r="W235" s="15"/>
       <c r="X235" s="15"/>
-    </row>
-    <row r="236" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y235" s="15"/>
+    </row>
+    <row r="236" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B236" s="12">
         <v>44640</v>
       </c>
@@ -7022,8 +7343,9 @@
       <c r="V236" s="15"/>
       <c r="W236" s="15"/>
       <c r="X236" s="15"/>
-    </row>
-    <row r="237" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y236" s="15"/>
+    </row>
+    <row r="237" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B237" s="8">
         <v>44641</v>
       </c>
@@ -7049,8 +7371,9 @@
       <c r="V237" s="11"/>
       <c r="W237" s="11"/>
       <c r="X237" s="11"/>
-    </row>
-    <row r="238" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y237" s="11"/>
+    </row>
+    <row r="238" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B238" s="8">
         <v>44642</v>
       </c>
@@ -7076,8 +7399,9 @@
       <c r="V238" s="11"/>
       <c r="W238" s="11"/>
       <c r="X238" s="11"/>
-    </row>
-    <row r="239" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y238" s="11"/>
+    </row>
+    <row r="239" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B239" s="8">
         <v>44643</v>
       </c>
@@ -7103,8 +7427,9 @@
       <c r="V239" s="11"/>
       <c r="W239" s="11"/>
       <c r="X239" s="11"/>
-    </row>
-    <row r="240" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y239" s="11"/>
+    </row>
+    <row r="240" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B240" s="8">
         <v>44644</v>
       </c>
@@ -7130,8 +7455,9 @@
       <c r="V240" s="11"/>
       <c r="W240" s="11"/>
       <c r="X240" s="11"/>
-    </row>
-    <row r="241" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y240" s="11"/>
+    </row>
+    <row r="241" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B241" s="8">
         <v>44645</v>
       </c>
@@ -7157,8 +7483,9 @@
       <c r="V241" s="11"/>
       <c r="W241" s="11"/>
       <c r="X241" s="11"/>
-    </row>
-    <row r="242" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y241" s="11"/>
+    </row>
+    <row r="242" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
         <v>44646</v>
       </c>
@@ -7184,8 +7511,9 @@
       <c r="V242" s="15"/>
       <c r="W242" s="15"/>
       <c r="X242" s="15"/>
-    </row>
-    <row r="243" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y242" s="15"/>
+    </row>
+    <row r="243" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B243" s="12">
         <v>44647</v>
       </c>
@@ -7211,8 +7539,9 @@
       <c r="V243" s="15"/>
       <c r="W243" s="15"/>
       <c r="X243" s="15"/>
-    </row>
-    <row r="244" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y243" s="15"/>
+    </row>
+    <row r="244" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B244" s="8">
         <v>44648</v>
       </c>
@@ -7238,8 +7567,9 @@
       <c r="V244" s="11"/>
       <c r="W244" s="11"/>
       <c r="X244" s="11"/>
-    </row>
-    <row r="245" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y244" s="11"/>
+    </row>
+    <row r="245" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B245" s="8">
         <v>44649</v>
       </c>
@@ -7265,8 +7595,9 @@
       <c r="V245" s="11"/>
       <c r="W245" s="11"/>
       <c r="X245" s="11"/>
-    </row>
-    <row r="246" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y245" s="11"/>
+    </row>
+    <row r="246" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B246" s="8">
         <v>44650</v>
       </c>
@@ -7292,8 +7623,9 @@
       <c r="V246" s="11"/>
       <c r="W246" s="11"/>
       <c r="X246" s="11"/>
-    </row>
-    <row r="247" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y246" s="11"/>
+    </row>
+    <row r="247" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B247" s="8">
         <v>44651</v>
       </c>
@@ -7319,8 +7651,9 @@
       <c r="V247" s="11"/>
       <c r="W247" s="11"/>
       <c r="X247" s="11"/>
-    </row>
-    <row r="248" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y247" s="11"/>
+    </row>
+    <row r="248" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B248" s="8">
         <v>44652</v>
       </c>
@@ -7346,8 +7679,9 @@
       <c r="V248" s="11"/>
       <c r="W248" s="11"/>
       <c r="X248" s="11"/>
-    </row>
-    <row r="249" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y248" s="11"/>
+    </row>
+    <row r="249" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B249" s="12">
         <v>44653</v>
       </c>
@@ -7373,8 +7707,9 @@
       <c r="V249" s="15"/>
       <c r="W249" s="15"/>
       <c r="X249" s="15"/>
-    </row>
-    <row r="250" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y249" s="15"/>
+    </row>
+    <row r="250" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B250" s="12">
         <v>44654</v>
       </c>
@@ -7400,8 +7735,9 @@
       <c r="V250" s="15"/>
       <c r="W250" s="15"/>
       <c r="X250" s="15"/>
-    </row>
-    <row r="251" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y250" s="15"/>
+    </row>
+    <row r="251" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B251" s="8">
         <v>44655</v>
       </c>
@@ -7427,8 +7763,9 @@
       <c r="V251" s="11"/>
       <c r="W251" s="11"/>
       <c r="X251" s="11"/>
-    </row>
-    <row r="252" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y251" s="11"/>
+    </row>
+    <row r="252" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B252" s="8">
         <v>44656</v>
       </c>
@@ -7454,8 +7791,9 @@
       <c r="V252" s="11"/>
       <c r="W252" s="11"/>
       <c r="X252" s="11"/>
-    </row>
-    <row r="253" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y252" s="11"/>
+    </row>
+    <row r="253" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B253" s="8">
         <v>44657</v>
       </c>
@@ -7481,8 +7819,9 @@
       <c r="V253" s="11"/>
       <c r="W253" s="11"/>
       <c r="X253" s="11"/>
-    </row>
-    <row r="254" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y253" s="11"/>
+    </row>
+    <row r="254" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B254" s="8">
         <v>44658</v>
       </c>
@@ -7508,8 +7847,9 @@
       <c r="V254" s="11"/>
       <c r="W254" s="11"/>
       <c r="X254" s="11"/>
-    </row>
-    <row r="255" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y254" s="11"/>
+    </row>
+    <row r="255" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B255" s="8">
         <v>44659</v>
       </c>
@@ -7535,8 +7875,9 @@
       <c r="V255" s="11"/>
       <c r="W255" s="11"/>
       <c r="X255" s="11"/>
-    </row>
-    <row r="256" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y255" s="11"/>
+    </row>
+    <row r="256" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B256" s="12">
         <v>44660</v>
       </c>
@@ -7562,8 +7903,9 @@
       <c r="V256" s="15"/>
       <c r="W256" s="15"/>
       <c r="X256" s="15"/>
-    </row>
-    <row r="257" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y256" s="15"/>
+    </row>
+    <row r="257" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B257" s="12">
         <v>44661</v>
       </c>
@@ -7589,8 +7931,9 @@
       <c r="V257" s="15"/>
       <c r="W257" s="15"/>
       <c r="X257" s="15"/>
-    </row>
-    <row r="258" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y257" s="15"/>
+    </row>
+    <row r="258" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B258" s="8">
         <v>44662</v>
       </c>
@@ -7616,8 +7959,9 @@
       <c r="V258" s="11"/>
       <c r="W258" s="11"/>
       <c r="X258" s="11"/>
-    </row>
-    <row r="259" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y258" s="11"/>
+    </row>
+    <row r="259" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B259" s="8">
         <v>44663</v>
       </c>
@@ -7643,8 +7987,9 @@
       <c r="V259" s="11"/>
       <c r="W259" s="11"/>
       <c r="X259" s="11"/>
-    </row>
-    <row r="260" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y259" s="11"/>
+    </row>
+    <row r="260" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B260" s="8">
         <v>44664</v>
       </c>
@@ -7670,8 +8015,9 @@
       <c r="V260" s="11"/>
       <c r="W260" s="11"/>
       <c r="X260" s="11"/>
-    </row>
-    <row r="261" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y260" s="11"/>
+    </row>
+    <row r="261" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B261" s="8">
         <v>44665</v>
       </c>
@@ -7697,8 +8043,9 @@
       <c r="V261" s="11"/>
       <c r="W261" s="11"/>
       <c r="X261" s="11"/>
-    </row>
-    <row r="262" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y261" s="11"/>
+    </row>
+    <row r="262" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B262" s="8">
         <v>44666</v>
       </c>
@@ -7724,8 +8071,9 @@
       <c r="V262" s="11"/>
       <c r="W262" s="11"/>
       <c r="X262" s="11"/>
-    </row>
-    <row r="263" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y262" s="11"/>
+    </row>
+    <row r="263" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
         <v>44667</v>
       </c>
@@ -7751,8 +8099,9 @@
       <c r="V263" s="15"/>
       <c r="W263" s="15"/>
       <c r="X263" s="15"/>
-    </row>
-    <row r="264" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y263" s="15"/>
+    </row>
+    <row r="264" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B264" s="12">
         <v>44668</v>
       </c>
@@ -7778,8 +8127,9 @@
       <c r="V264" s="15"/>
       <c r="W264" s="15"/>
       <c r="X264" s="15"/>
-    </row>
-    <row r="265" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y264" s="15"/>
+    </row>
+    <row r="265" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B265" s="8">
         <v>44669</v>
       </c>
@@ -7805,8 +8155,9 @@
       <c r="V265" s="11"/>
       <c r="W265" s="11"/>
       <c r="X265" s="11"/>
-    </row>
-    <row r="266" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y265" s="11"/>
+    </row>
+    <row r="266" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B266" s="8">
         <v>44670</v>
       </c>
@@ -7832,8 +8183,9 @@
       <c r="V266" s="11"/>
       <c r="W266" s="11"/>
       <c r="X266" s="11"/>
-    </row>
-    <row r="267" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y266" s="11"/>
+    </row>
+    <row r="267" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B267" s="8">
         <v>44671</v>
       </c>
@@ -7859,8 +8211,9 @@
       <c r="V267" s="11"/>
       <c r="W267" s="11"/>
       <c r="X267" s="11"/>
-    </row>
-    <row r="268" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y267" s="11"/>
+    </row>
+    <row r="268" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B268" s="8">
         <v>44672</v>
       </c>
@@ -7886,8 +8239,9 @@
       <c r="V268" s="11"/>
       <c r="W268" s="11"/>
       <c r="X268" s="11"/>
-    </row>
-    <row r="269" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y268" s="11"/>
+    </row>
+    <row r="269" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B269" s="8">
         <v>44673</v>
       </c>
@@ -7913,8 +8267,9 @@
       <c r="V269" s="11"/>
       <c r="W269" s="11"/>
       <c r="X269" s="11"/>
-    </row>
-    <row r="270" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y269" s="11"/>
+    </row>
+    <row r="270" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B270" s="12">
         <v>44674</v>
       </c>
@@ -7940,8 +8295,9 @@
       <c r="V270" s="15"/>
       <c r="W270" s="15"/>
       <c r="X270" s="15"/>
-    </row>
-    <row r="271" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y270" s="15"/>
+    </row>
+    <row r="271" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B271" s="12">
         <v>44675</v>
       </c>
@@ -7967,8 +8323,9 @@
       <c r="V271" s="15"/>
       <c r="W271" s="15"/>
       <c r="X271" s="15"/>
-    </row>
-    <row r="272" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y271" s="15"/>
+    </row>
+    <row r="272" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B272" s="8">
         <v>44676</v>
       </c>
@@ -7994,8 +8351,9 @@
       <c r="V272" s="11"/>
       <c r="W272" s="11"/>
       <c r="X272" s="11"/>
-    </row>
-    <row r="273" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y272" s="11"/>
+    </row>
+    <row r="273" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B273" s="8">
         <v>44677</v>
       </c>
@@ -8021,8 +8379,9 @@
       <c r="V273" s="11"/>
       <c r="W273" s="11"/>
       <c r="X273" s="11"/>
-    </row>
-    <row r="274" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y273" s="11"/>
+    </row>
+    <row r="274" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B274" s="8">
         <v>44678</v>
       </c>
@@ -8048,8 +8407,9 @@
       <c r="V274" s="11"/>
       <c r="W274" s="11"/>
       <c r="X274" s="11"/>
-    </row>
-    <row r="275" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y274" s="11"/>
+    </row>
+    <row r="275" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B275" s="8">
         <v>44679</v>
       </c>
@@ -8075,8 +8435,9 @@
       <c r="V275" s="11"/>
       <c r="W275" s="11"/>
       <c r="X275" s="11"/>
-    </row>
-    <row r="276" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y275" s="11"/>
+    </row>
+    <row r="276" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B276" s="8">
         <v>44680</v>
       </c>
@@ -8102,8 +8463,9 @@
       <c r="V276" s="11"/>
       <c r="W276" s="11"/>
       <c r="X276" s="11"/>
-    </row>
-    <row r="277" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y276" s="11"/>
+    </row>
+    <row r="277" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
         <v>44681</v>
       </c>
@@ -8129,8 +8491,9 @@
       <c r="V277" s="15"/>
       <c r="W277" s="15"/>
       <c r="X277" s="15"/>
-    </row>
-    <row r="278" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y277" s="15"/>
+    </row>
+    <row r="278" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B278" s="12">
         <v>44682</v>
       </c>
@@ -8156,8 +8519,9 @@
       <c r="V278" s="15"/>
       <c r="W278" s="15"/>
       <c r="X278" s="15"/>
-    </row>
-    <row r="279" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y278" s="15"/>
+    </row>
+    <row r="279" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B279" s="8">
         <v>44683</v>
       </c>
@@ -8183,8 +8547,9 @@
       <c r="V279" s="11"/>
       <c r="W279" s="11"/>
       <c r="X279" s="11"/>
-    </row>
-    <row r="280" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y279" s="11"/>
+    </row>
+    <row r="280" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B280" s="8">
         <v>44684</v>
       </c>
@@ -8210,8 +8575,9 @@
       <c r="V280" s="11"/>
       <c r="W280" s="11"/>
       <c r="X280" s="11"/>
-    </row>
-    <row r="281" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y280" s="11"/>
+    </row>
+    <row r="281" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B281" s="8">
         <v>44685</v>
       </c>
@@ -8237,8 +8603,9 @@
       <c r="V281" s="11"/>
       <c r="W281" s="11"/>
       <c r="X281" s="11"/>
-    </row>
-    <row r="282" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y281" s="11"/>
+    </row>
+    <row r="282" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B282" s="8">
         <v>44686</v>
       </c>
@@ -8264,8 +8631,9 @@
       <c r="V282" s="11"/>
       <c r="W282" s="11"/>
       <c r="X282" s="11"/>
-    </row>
-    <row r="283" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y282" s="11"/>
+    </row>
+    <row r="283" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B283" s="8">
         <v>44687</v>
       </c>
@@ -8291,8 +8659,9 @@
       <c r="V283" s="11"/>
       <c r="W283" s="11"/>
       <c r="X283" s="11"/>
-    </row>
-    <row r="284" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y283" s="11"/>
+    </row>
+    <row r="284" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B284" s="12">
         <v>44688</v>
       </c>
@@ -8318,8 +8687,9 @@
       <c r="V284" s="15"/>
       <c r="W284" s="15"/>
       <c r="X284" s="15"/>
-    </row>
-    <row r="285" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y284" s="15"/>
+    </row>
+    <row r="285" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
         <v>44689</v>
       </c>
@@ -8345,8 +8715,9 @@
       <c r="V285" s="15"/>
       <c r="W285" s="15"/>
       <c r="X285" s="15"/>
-    </row>
-    <row r="286" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y285" s="15"/>
+    </row>
+    <row r="286" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B286" s="8">
         <v>44690</v>
       </c>
@@ -8372,8 +8743,9 @@
       <c r="V286" s="11"/>
       <c r="W286" s="11"/>
       <c r="X286" s="11"/>
-    </row>
-    <row r="287" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y286" s="11"/>
+    </row>
+    <row r="287" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B287" s="8">
         <v>44691</v>
       </c>
@@ -8399,8 +8771,9 @@
       <c r="V287" s="11"/>
       <c r="W287" s="11"/>
       <c r="X287" s="11"/>
-    </row>
-    <row r="288" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y287" s="11"/>
+    </row>
+    <row r="288" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B288" s="8">
         <v>44692</v>
       </c>
@@ -8426,8 +8799,9 @@
       <c r="V288" s="11"/>
       <c r="W288" s="11"/>
       <c r="X288" s="11"/>
-    </row>
-    <row r="289" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y288" s="11"/>
+    </row>
+    <row r="289" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B289" s="8">
         <v>44693</v>
       </c>
@@ -8453,8 +8827,9 @@
       <c r="V289" s="11"/>
       <c r="W289" s="11"/>
       <c r="X289" s="11"/>
-    </row>
-    <row r="290" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y289" s="11"/>
+    </row>
+    <row r="290" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B290" s="8">
         <v>44694</v>
       </c>
@@ -8480,8 +8855,9 @@
       <c r="V290" s="11"/>
       <c r="W290" s="11"/>
       <c r="X290" s="11"/>
-    </row>
-    <row r="291" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y290" s="11"/>
+    </row>
+    <row r="291" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B291" s="12">
         <v>44695</v>
       </c>
@@ -8507,8 +8883,9 @@
       <c r="V291" s="15"/>
       <c r="W291" s="15"/>
       <c r="X291" s="15"/>
-    </row>
-    <row r="292" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y291" s="15"/>
+    </row>
+    <row r="292" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B292" s="12">
         <v>44696</v>
       </c>
@@ -8534,8 +8911,9 @@
       <c r="V292" s="15"/>
       <c r="W292" s="15"/>
       <c r="X292" s="15"/>
-    </row>
-    <row r="293" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y292" s="15"/>
+    </row>
+    <row r="293" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B293" s="8">
         <v>44697</v>
       </c>
@@ -8561,8 +8939,9 @@
       <c r="V293" s="11"/>
       <c r="W293" s="11"/>
       <c r="X293" s="11"/>
-    </row>
-    <row r="294" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y293" s="11"/>
+    </row>
+    <row r="294" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B294" s="8">
         <v>44698</v>
       </c>
@@ -8588,8 +8967,9 @@
       <c r="V294" s="11"/>
       <c r="W294" s="11"/>
       <c r="X294" s="11"/>
-    </row>
-    <row r="295" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y294" s="11"/>
+    </row>
+    <row r="295" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B295" s="8">
         <v>44699</v>
       </c>
@@ -8615,8 +8995,9 @@
       <c r="V295" s="11"/>
       <c r="W295" s="11"/>
       <c r="X295" s="11"/>
-    </row>
-    <row r="296" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y295" s="11"/>
+    </row>
+    <row r="296" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B296" s="8">
         <v>44700</v>
       </c>
@@ -8642,8 +9023,9 @@
       <c r="V296" s="11"/>
       <c r="W296" s="11"/>
       <c r="X296" s="11"/>
-    </row>
-    <row r="297" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y296" s="11"/>
+    </row>
+    <row r="297" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B297" s="8">
         <v>44701</v>
       </c>
@@ -8669,8 +9051,9 @@
       <c r="V297" s="11"/>
       <c r="W297" s="11"/>
       <c r="X297" s="11"/>
-    </row>
-    <row r="298" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y297" s="11"/>
+    </row>
+    <row r="298" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B298" s="12">
         <v>44702</v>
       </c>
@@ -8696,8 +9079,9 @@
       <c r="V298" s="15"/>
       <c r="W298" s="15"/>
       <c r="X298" s="15"/>
-    </row>
-    <row r="299" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y298" s="15"/>
+    </row>
+    <row r="299" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B299" s="12">
         <v>44703</v>
       </c>
@@ -8723,8 +9107,9 @@
       <c r="V299" s="15"/>
       <c r="W299" s="15"/>
       <c r="X299" s="15"/>
-    </row>
-    <row r="300" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y299" s="15"/>
+    </row>
+    <row r="300" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B300" s="8">
         <v>44704</v>
       </c>
@@ -8750,8 +9135,9 @@
       <c r="V300" s="11"/>
       <c r="W300" s="11"/>
       <c r="X300" s="11"/>
-    </row>
-    <row r="301" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y300" s="11"/>
+    </row>
+    <row r="301" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B301" s="8">
         <v>44705</v>
       </c>
@@ -8777,8 +9163,9 @@
       <c r="V301" s="11"/>
       <c r="W301" s="11"/>
       <c r="X301" s="11"/>
-    </row>
-    <row r="302" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y301" s="11"/>
+    </row>
+    <row r="302" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B302" s="8">
         <v>44706</v>
       </c>
@@ -8804,8 +9191,9 @@
       <c r="V302" s="11"/>
       <c r="W302" s="11"/>
       <c r="X302" s="11"/>
-    </row>
-    <row r="303" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y302" s="11"/>
+    </row>
+    <row r="303" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B303" s="8">
         <v>44707</v>
       </c>
@@ -8831,8 +9219,9 @@
       <c r="V303" s="11"/>
       <c r="W303" s="11"/>
       <c r="X303" s="11"/>
-    </row>
-    <row r="304" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y303" s="11"/>
+    </row>
+    <row r="304" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B304" s="8">
         <v>44708</v>
       </c>
@@ -8858,8 +9247,9 @@
       <c r="V304" s="11"/>
       <c r="W304" s="11"/>
       <c r="X304" s="11"/>
-    </row>
-    <row r="305" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y304" s="11"/>
+    </row>
+    <row r="305" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B305" s="12">
         <v>44709</v>
       </c>
@@ -8885,8 +9275,9 @@
       <c r="V305" s="15"/>
       <c r="W305" s="15"/>
       <c r="X305" s="15"/>
-    </row>
-    <row r="306" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y305" s="15"/>
+    </row>
+    <row r="306" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B306" s="12">
         <v>44710</v>
       </c>
@@ -8912,8 +9303,9 @@
       <c r="V306" s="15"/>
       <c r="W306" s="15"/>
       <c r="X306" s="15"/>
-    </row>
-    <row r="307" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y306" s="15"/>
+    </row>
+    <row r="307" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B307" s="8">
         <v>44711</v>
       </c>
@@ -8939,8 +9331,9 @@
       <c r="V307" s="11"/>
       <c r="W307" s="11"/>
       <c r="X307" s="11"/>
-    </row>
-    <row r="308" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y307" s="11"/>
+    </row>
+    <row r="308" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B308" s="8">
         <v>44712</v>
       </c>
@@ -8966,8 +9359,9 @@
       <c r="V308" s="11"/>
       <c r="W308" s="11"/>
       <c r="X308" s="11"/>
-    </row>
-    <row r="309" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y308" s="11"/>
+    </row>
+    <row r="309" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B309" s="8">
         <v>44713</v>
       </c>
@@ -8993,8 +9387,9 @@
       <c r="V309" s="11"/>
       <c r="W309" s="11"/>
       <c r="X309" s="11"/>
-    </row>
-    <row r="310" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y309" s="11"/>
+    </row>
+    <row r="310" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B310" s="8">
         <v>44714</v>
       </c>
@@ -9020,8 +9415,9 @@
       <c r="V310" s="11"/>
       <c r="W310" s="11"/>
       <c r="X310" s="11"/>
-    </row>
-    <row r="311" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y310" s="11"/>
+    </row>
+    <row r="311" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B311" s="8">
         <v>44715</v>
       </c>
@@ -9047,8 +9443,9 @@
       <c r="V311" s="11"/>
       <c r="W311" s="11"/>
       <c r="X311" s="11"/>
-    </row>
-    <row r="312" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y311" s="11"/>
+    </row>
+    <row r="312" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B312" s="12">
         <v>44716</v>
       </c>
@@ -9074,8 +9471,9 @@
       <c r="V312" s="15"/>
       <c r="W312" s="15"/>
       <c r="X312" s="15"/>
-    </row>
-    <row r="313" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y312" s="15"/>
+    </row>
+    <row r="313" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B313" s="12">
         <v>44717</v>
       </c>
@@ -9101,8 +9499,9 @@
       <c r="V313" s="15"/>
       <c r="W313" s="15"/>
       <c r="X313" s="15"/>
-    </row>
-    <row r="314" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y313" s="15"/>
+    </row>
+    <row r="314" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B314" s="8">
         <v>44718</v>
       </c>
@@ -9128,8 +9527,9 @@
       <c r="V314" s="11"/>
       <c r="W314" s="11"/>
       <c r="X314" s="11"/>
-    </row>
-    <row r="315" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y314" s="11"/>
+    </row>
+    <row r="315" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B315" s="8">
         <v>44719</v>
       </c>
@@ -9155,8 +9555,9 @@
       <c r="V315" s="11"/>
       <c r="W315" s="11"/>
       <c r="X315" s="11"/>
-    </row>
-    <row r="316" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y315" s="11"/>
+    </row>
+    <row r="316" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B316" s="8">
         <v>44720</v>
       </c>
@@ -9182,8 +9583,9 @@
       <c r="V316" s="11"/>
       <c r="W316" s="11"/>
       <c r="X316" s="11"/>
-    </row>
-    <row r="317" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y316" s="11"/>
+    </row>
+    <row r="317" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B317" s="8">
         <v>44721</v>
       </c>
@@ -9209,8 +9611,9 @@
       <c r="V317" s="11"/>
       <c r="W317" s="11"/>
       <c r="X317" s="11"/>
-    </row>
-    <row r="318" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y317" s="11"/>
+    </row>
+    <row r="318" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B318" s="8">
         <v>44722</v>
       </c>
@@ -9236,8 +9639,9 @@
       <c r="V318" s="11"/>
       <c r="W318" s="11"/>
       <c r="X318" s="11"/>
-    </row>
-    <row r="319" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y318" s="11"/>
+    </row>
+    <row r="319" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B319" s="12">
         <v>44723</v>
       </c>
@@ -9263,8 +9667,9 @@
       <c r="V319" s="15"/>
       <c r="W319" s="15"/>
       <c r="X319" s="15"/>
-    </row>
-    <row r="320" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y319" s="15"/>
+    </row>
+    <row r="320" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B320" s="12">
         <v>44724</v>
       </c>
@@ -9290,8 +9695,9 @@
       <c r="V320" s="15"/>
       <c r="W320" s="15"/>
       <c r="X320" s="15"/>
-    </row>
-    <row r="321" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y320" s="15"/>
+    </row>
+    <row r="321" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B321" s="8">
         <v>44725</v>
       </c>
@@ -9317,8 +9723,9 @@
       <c r="V321" s="11"/>
       <c r="W321" s="11"/>
       <c r="X321" s="11"/>
-    </row>
-    <row r="322" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y321" s="11"/>
+    </row>
+    <row r="322" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B322" s="8">
         <v>44726</v>
       </c>
@@ -9344,8 +9751,9 @@
       <c r="V322" s="11"/>
       <c r="W322" s="11"/>
       <c r="X322" s="11"/>
-    </row>
-    <row r="323" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y322" s="11"/>
+    </row>
+    <row r="323" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B323" s="8">
         <v>44727</v>
       </c>
@@ -9371,8 +9779,9 @@
       <c r="V323" s="11"/>
       <c r="W323" s="11"/>
       <c r="X323" s="11"/>
-    </row>
-    <row r="324" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y323" s="11"/>
+    </row>
+    <row r="324" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B324" s="8">
         <v>44728</v>
       </c>
@@ -9398,8 +9807,9 @@
       <c r="V324" s="11"/>
       <c r="W324" s="11"/>
       <c r="X324" s="11"/>
-    </row>
-    <row r="325" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y324" s="11"/>
+    </row>
+    <row r="325" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B325" s="8">
         <v>44729</v>
       </c>
@@ -9425,8 +9835,9 @@
       <c r="V325" s="11"/>
       <c r="W325" s="11"/>
       <c r="X325" s="11"/>
-    </row>
-    <row r="326" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y325" s="11"/>
+    </row>
+    <row r="326" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B326" s="12">
         <v>44730</v>
       </c>
@@ -9452,8 +9863,9 @@
       <c r="V326" s="15"/>
       <c r="W326" s="15"/>
       <c r="X326" s="15"/>
-    </row>
-    <row r="327" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y326" s="15"/>
+    </row>
+    <row r="327" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B327" s="12">
         <v>44731</v>
       </c>
@@ -9479,8 +9891,9 @@
       <c r="V327" s="15"/>
       <c r="W327" s="15"/>
       <c r="X327" s="15"/>
-    </row>
-    <row r="328" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y327" s="15"/>
+    </row>
+    <row r="328" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B328" s="8">
         <v>44732</v>
       </c>
@@ -9506,8 +9919,9 @@
       <c r="V328" s="11"/>
       <c r="W328" s="11"/>
       <c r="X328" s="11"/>
-    </row>
-    <row r="329" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y328" s="11"/>
+    </row>
+    <row r="329" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B329" s="8">
         <v>44733</v>
       </c>
@@ -9533,8 +9947,9 @@
       <c r="V329" s="11"/>
       <c r="W329" s="11"/>
       <c r="X329" s="11"/>
-    </row>
-    <row r="330" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y329" s="11"/>
+    </row>
+    <row r="330" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B330" s="8">
         <v>44734</v>
       </c>
@@ -9560,8 +9975,9 @@
       <c r="V330" s="11"/>
       <c r="W330" s="11"/>
       <c r="X330" s="11"/>
-    </row>
-    <row r="331" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y330" s="11"/>
+    </row>
+    <row r="331" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B331" s="8">
         <v>44735</v>
       </c>
@@ -9587,8 +10003,9 @@
       <c r="V331" s="11"/>
       <c r="W331" s="11"/>
       <c r="X331" s="11"/>
-    </row>
-    <row r="332" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y331" s="11"/>
+    </row>
+    <row r="332" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B332" s="8">
         <v>44736</v>
       </c>
@@ -9614,8 +10031,9 @@
       <c r="V332" s="11"/>
       <c r="W332" s="11"/>
       <c r="X332" s="11"/>
-    </row>
-    <row r="333" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y332" s="11"/>
+    </row>
+    <row r="333" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B333" s="12">
         <v>44737</v>
       </c>
@@ -9641,8 +10059,9 @@
       <c r="V333" s="15"/>
       <c r="W333" s="15"/>
       <c r="X333" s="15"/>
-    </row>
-    <row r="334" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y333" s="15"/>
+    </row>
+    <row r="334" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B334" s="12">
         <v>44738</v>
       </c>
@@ -9668,8 +10087,9 @@
       <c r="V334" s="15"/>
       <c r="W334" s="15"/>
       <c r="X334" s="15"/>
-    </row>
-    <row r="335" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y334" s="15"/>
+    </row>
+    <row r="335" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B335" s="8">
         <v>44739</v>
       </c>
@@ -9695,8 +10115,9 @@
       <c r="V335" s="11"/>
       <c r="W335" s="11"/>
       <c r="X335" s="11"/>
-    </row>
-    <row r="336" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y335" s="11"/>
+    </row>
+    <row r="336" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B336" s="8">
         <v>44740</v>
       </c>
@@ -9722,8 +10143,9 @@
       <c r="V336" s="11"/>
       <c r="W336" s="11"/>
       <c r="X336" s="11"/>
-    </row>
-    <row r="337" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y336" s="11"/>
+    </row>
+    <row r="337" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B337" s="8">
         <v>44741</v>
       </c>
@@ -9749,8 +10171,9 @@
       <c r="V337" s="11"/>
       <c r="W337" s="11"/>
       <c r="X337" s="11"/>
-    </row>
-    <row r="338" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y337" s="11"/>
+    </row>
+    <row r="338" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B338" s="8">
         <v>44742</v>
       </c>
@@ -9776,8 +10199,9 @@
       <c r="V338" s="11"/>
       <c r="W338" s="11"/>
       <c r="X338" s="11"/>
-    </row>
-    <row r="339" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y338" s="11"/>
+    </row>
+    <row r="339" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B339" s="8">
         <v>44743</v>
       </c>
@@ -9803,8 +10227,9 @@
       <c r="V339" s="11"/>
       <c r="W339" s="11"/>
       <c r="X339" s="11"/>
-    </row>
-    <row r="340" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y339" s="11"/>
+    </row>
+    <row r="340" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B340" s="12">
         <v>44744</v>
       </c>
@@ -9830,8 +10255,9 @@
       <c r="V340" s="15"/>
       <c r="W340" s="15"/>
       <c r="X340" s="15"/>
-    </row>
-    <row r="341" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y340" s="15"/>
+    </row>
+    <row r="341" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B341" s="12">
         <v>44745</v>
       </c>
@@ -9857,8 +10283,9 @@
       <c r="V341" s="15"/>
       <c r="W341" s="15"/>
       <c r="X341" s="15"/>
-    </row>
-    <row r="342" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y341" s="15"/>
+    </row>
+    <row r="342" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B342" s="8">
         <v>44746</v>
       </c>
@@ -9884,8 +10311,9 @@
       <c r="V342" s="11"/>
       <c r="W342" s="11"/>
       <c r="X342" s="11"/>
-    </row>
-    <row r="343" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y342" s="11"/>
+    </row>
+    <row r="343" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B343" s="8">
         <v>44747</v>
       </c>
@@ -9911,8 +10339,9 @@
       <c r="V343" s="11"/>
       <c r="W343" s="11"/>
       <c r="X343" s="11"/>
-    </row>
-    <row r="344" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y343" s="11"/>
+    </row>
+    <row r="344" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B344" s="8">
         <v>44748</v>
       </c>
@@ -9938,8 +10367,9 @@
       <c r="V344" s="11"/>
       <c r="W344" s="11"/>
       <c r="X344" s="11"/>
-    </row>
-    <row r="345" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y344" s="11"/>
+    </row>
+    <row r="345" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B345" s="8">
         <v>44749</v>
       </c>
@@ -9965,8 +10395,9 @@
       <c r="V345" s="11"/>
       <c r="W345" s="11"/>
       <c r="X345" s="11"/>
-    </row>
-    <row r="346" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y345" s="11"/>
+    </row>
+    <row r="346" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B346" s="8">
         <v>44750</v>
       </c>
@@ -9992,8 +10423,9 @@
       <c r="V346" s="11"/>
       <c r="W346" s="11"/>
       <c r="X346" s="11"/>
-    </row>
-    <row r="347" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y346" s="11"/>
+    </row>
+    <row r="347" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B347" s="12">
         <v>44751</v>
       </c>
@@ -10019,8 +10451,9 @@
       <c r="V347" s="15"/>
       <c r="W347" s="15"/>
       <c r="X347" s="15"/>
-    </row>
-    <row r="348" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y347" s="15"/>
+    </row>
+    <row r="348" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B348" s="12">
         <v>44752</v>
       </c>
@@ -10046,8 +10479,9 @@
       <c r="V348" s="15"/>
       <c r="W348" s="15"/>
       <c r="X348" s="15"/>
-    </row>
-    <row r="349" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y348" s="15"/>
+    </row>
+    <row r="349" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B349" s="8">
         <v>44753</v>
       </c>
@@ -10073,8 +10507,9 @@
       <c r="V349" s="11"/>
       <c r="W349" s="11"/>
       <c r="X349" s="11"/>
-    </row>
-    <row r="350" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y349" s="11"/>
+    </row>
+    <row r="350" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B350" s="8">
         <v>44754</v>
       </c>
@@ -10100,8 +10535,9 @@
       <c r="V350" s="11"/>
       <c r="W350" s="11"/>
       <c r="X350" s="11"/>
-    </row>
-    <row r="351" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y350" s="11"/>
+    </row>
+    <row r="351" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B351" s="8">
         <v>44755</v>
       </c>
@@ -10127,8 +10563,9 @@
       <c r="V351" s="11"/>
       <c r="W351" s="11"/>
       <c r="X351" s="11"/>
-    </row>
-    <row r="352" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y351" s="11"/>
+    </row>
+    <row r="352" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B352" s="8">
         <v>44756</v>
       </c>
@@ -10154,8 +10591,9 @@
       <c r="V352" s="11"/>
       <c r="W352" s="11"/>
       <c r="X352" s="11"/>
-    </row>
-    <row r="353" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y352" s="11"/>
+    </row>
+    <row r="353" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B353" s="8">
         <v>44757</v>
       </c>
@@ -10181,8 +10619,9 @@
       <c r="V353" s="11"/>
       <c r="W353" s="11"/>
       <c r="X353" s="11"/>
-    </row>
-    <row r="354" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y353" s="11"/>
+    </row>
+    <row r="354" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B354" s="12">
         <v>44758</v>
       </c>
@@ -10208,8 +10647,9 @@
       <c r="V354" s="15"/>
       <c r="W354" s="15"/>
       <c r="X354" s="15"/>
-    </row>
-    <row r="355" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y354" s="15"/>
+    </row>
+    <row r="355" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B355" s="12">
         <v>44759</v>
       </c>
@@ -10235,8 +10675,9 @@
       <c r="V355" s="15"/>
       <c r="W355" s="15"/>
       <c r="X355" s="15"/>
-    </row>
-    <row r="356" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y355" s="15"/>
+    </row>
+    <row r="356" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B356" s="8">
         <v>44760</v>
       </c>
@@ -10262,8 +10703,9 @@
       <c r="V356" s="11"/>
       <c r="W356" s="11"/>
       <c r="X356" s="11"/>
-    </row>
-    <row r="357" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y356" s="11"/>
+    </row>
+    <row r="357" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B357" s="8">
         <v>44761</v>
       </c>
@@ -10289,8 +10731,9 @@
       <c r="V357" s="11"/>
       <c r="W357" s="11"/>
       <c r="X357" s="11"/>
-    </row>
-    <row r="358" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y357" s="11"/>
+    </row>
+    <row r="358" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B358" s="8">
         <v>44762</v>
       </c>
@@ -10316,8 +10759,9 @@
       <c r="V358" s="11"/>
       <c r="W358" s="11"/>
       <c r="X358" s="11"/>
-    </row>
-    <row r="359" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y358" s="11"/>
+    </row>
+    <row r="359" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B359" s="8">
         <v>44763</v>
       </c>
@@ -10343,8 +10787,9 @@
       <c r="V359" s="11"/>
       <c r="W359" s="11"/>
       <c r="X359" s="11"/>
-    </row>
-    <row r="360" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y359" s="11"/>
+    </row>
+    <row r="360" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B360" s="8">
         <v>44764</v>
       </c>
@@ -10370,8 +10815,9 @@
       <c r="V360" s="11"/>
       <c r="W360" s="11"/>
       <c r="X360" s="11"/>
-    </row>
-    <row r="361" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y360" s="11"/>
+    </row>
+    <row r="361" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B361" s="12">
         <v>44765</v>
       </c>
@@ -10397,8 +10843,9 @@
       <c r="V361" s="15"/>
       <c r="W361" s="15"/>
       <c r="X361" s="15"/>
-    </row>
-    <row r="362" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y361" s="15"/>
+    </row>
+    <row r="362" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B362" s="12">
         <v>44766</v>
       </c>
@@ -10424,8 +10871,9 @@
       <c r="V362" s="15"/>
       <c r="W362" s="15"/>
       <c r="X362" s="15"/>
-    </row>
-    <row r="363" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y362" s="15"/>
+    </row>
+    <row r="363" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B363" s="8">
         <v>44767</v>
       </c>
@@ -10451,8 +10899,9 @@
       <c r="V363" s="11"/>
       <c r="W363" s="11"/>
       <c r="X363" s="11"/>
-    </row>
-    <row r="364" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y363" s="11"/>
+    </row>
+    <row r="364" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B364" s="8">
         <v>44768</v>
       </c>
@@ -10478,8 +10927,9 @@
       <c r="V364" s="11"/>
       <c r="W364" s="11"/>
       <c r="X364" s="11"/>
-    </row>
-    <row r="365" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y364" s="11"/>
+    </row>
+    <row r="365" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B365" s="8">
         <v>44769</v>
       </c>
@@ -10505,8 +10955,9 @@
       <c r="V365" s="11"/>
       <c r="W365" s="11"/>
       <c r="X365" s="11"/>
-    </row>
-    <row r="366" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y365" s="11"/>
+    </row>
+    <row r="366" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B366" s="8">
         <v>44770</v>
       </c>
@@ -10532,8 +10983,9 @@
       <c r="V366" s="11"/>
       <c r="W366" s="11"/>
       <c r="X366" s="11"/>
-    </row>
-    <row r="367" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y366" s="11"/>
+    </row>
+    <row r="367" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B367" s="8">
         <v>44771</v>
       </c>
@@ -10559,8 +11011,9 @@
       <c r="V367" s="11"/>
       <c r="W367" s="11"/>
       <c r="X367" s="11"/>
-    </row>
-    <row r="368" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y367" s="11"/>
+    </row>
+    <row r="368" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B368" s="12">
         <v>44772</v>
       </c>
@@ -10586,6 +11039,7 @@
       <c r="V368" s="15"/>
       <c r="W368" s="15"/>
       <c r="X368" s="15"/>
+      <c r="Y368" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -240,6 +240,21 @@
   </si>
   <si>
     <t>Open_Modex Texte verfassen; Tutorial schneiden</t>
+  </si>
+  <si>
+    <t>Open_MODEX Aufaben; Infotext DjAgora überarbeiten, Abschiedsvideo schneiden</t>
+  </si>
+  <si>
+    <t>Drehbuch Tutorial schreiben; Projektreferenzen ergänzen und aktualisieren</t>
+  </si>
+  <si>
+    <t>Abschiedsvideo schneiden; Infotext DjAgora überarbeiten; Kontaktliste aktualisieren</t>
+  </si>
+  <si>
+    <t>Tutorial drehen/schneiden; Teammeeting/Abschied Editha planen &amp; einkaufen</t>
+  </si>
+  <si>
+    <t>Tutorial schneiden; Projektreferenzen schneiden und aktualisieren</t>
   </si>
 </sst>
 </file>
@@ -710,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2464,9 @@
       <c r="B62" s="8">
         <v>44466</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -2477,7 +2494,9 @@
       <c r="B63" s="8">
         <v>44467</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -2505,7 +2524,9 @@
       <c r="B64" s="8">
         <v>44468</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -2533,7 +2554,9 @@
       <c r="B65" s="8">
         <v>44469</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -2561,7 +2584,9 @@
       <c r="B66" s="8">
         <v>44470</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -255,6 +255,27 @@
   </si>
   <si>
     <t>Tutorial schneiden; Projektreferenzen schneiden und aktualisieren</t>
+  </si>
+  <si>
+    <t>Übericht der TEO-CVs erstellt; Python Tutorial und Übungen; Einführug eGo^n; Einführung Thursday Updates on Energy Modeling</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Bewerbungen drucken; Open_MODEX Abschlussbericht formatieren; Orga Women's Career Week; Teammeeting Protokolle in Redmine ablegen</t>
+  </si>
+  <si>
+    <t>Büro Umräumaktion, UMAS Quellen einpflegen; Teamevent Herbst/Winter planen</t>
+  </si>
+  <si>
+    <t>Recherche eGo^n (Flexibilitäten im Verteilnetz</t>
+  </si>
+  <si>
+    <t>Tutorial Änderungen + Upload auf YouTube; Recherche eGo^n (Flexibilitäten im Verteilnetz); Orga für Thursday Updates on Energy Modeling</t>
+  </si>
+  <si>
+    <t>Recherche eGo^n (Flexibilitäten im Verteilnetz), Projektreferenzen ergänzen</t>
   </si>
 </sst>
 </file>
@@ -725,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,7 +2691,9 @@
       <c r="B69" s="8">
         <v>44473</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -2698,7 +2721,9 @@
       <c r="B70" s="8">
         <v>44474</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -2710,7 +2735,9 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="10"/>
+      <c r="O70" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
@@ -2726,7 +2753,9 @@
       <c r="B71" s="8">
         <v>44475</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -2754,7 +2783,9 @@
       <c r="B72" s="8">
         <v>44476</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -2782,7 +2813,9 @@
       <c r="B73" s="8">
         <v>44477</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -269,13 +269,28 @@
     <t>Büro Umräumaktion, UMAS Quellen einpflegen; Teamevent Herbst/Winter planen</t>
   </si>
   <si>
-    <t>Recherche eGo^n (Flexibilitäten im Verteilnetz</t>
-  </si>
-  <si>
     <t>Tutorial Änderungen + Upload auf YouTube; Recherche eGo^n (Flexibilitäten im Verteilnetz); Orga für Thursday Updates on Energy Modeling</t>
   </si>
   <si>
     <t>Recherche eGo^n (Flexibilitäten im Verteilnetz), Projektreferenzen ergänzen</t>
+  </si>
+  <si>
+    <t>Seminar "Einführung in die Pressearbeit"</t>
+  </si>
+  <si>
+    <t>gute Pressemitteilungen schreiben, Interesse von Journalisten</t>
+  </si>
+  <si>
+    <t>wecken, instrumente der Medienarbeit, Regeln für Interviews</t>
+  </si>
+  <si>
+    <t>Recherche eGo^n; open_Modex; Einkauf für das Büro</t>
+  </si>
+  <si>
+    <t>letzte Änderungen am Tutorial auf YouTube; Orga Team Event; Recherche eGo^n; Orga Womens Career Day</t>
+  </si>
+  <si>
+    <t>Drehbuch und Videodreh für Mobi Team mit Mobi Team, Termine planen, Python</t>
   </si>
 </sst>
 </file>
@@ -746,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,7 +2737,7 @@
         <v>44474</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -2784,7 +2799,7 @@
         <v>44476</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -2899,7 +2914,9 @@
       <c r="B76" s="8">
         <v>44480</v>
       </c>
-      <c r="C76" s="9"/>
+      <c r="C76" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -2927,9 +2944,11 @@
       <c r="B77" s="8">
         <v>44481</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="C77" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -2945,7 +2964,9 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
-      <c r="U77" s="11"/>
+      <c r="U77" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
@@ -2955,9 +2976,11 @@
       <c r="B78" s="8">
         <v>44482</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="C78" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -2973,7 +2996,9 @@
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
-      <c r="U78" s="11"/>
+      <c r="U78" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
@@ -2983,7 +3008,9 @@
       <c r="B79" s="8">
         <v>44483</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -3011,7 +3038,9 @@
       <c r="B80" s="8">
         <v>44484</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -290,7 +290,56 @@
     <t>letzte Änderungen am Tutorial auf YouTube; Orga Team Event; Recherche eGo^n; Orga Womens Career Day</t>
   </si>
   <si>
-    <t>Drehbuch und Videodreh für Mobi Team mit Mobi Team, Termine planen, Python</t>
+    <t>Recherche eGo^n; Vor- und Nachbereitung Projektreport</t>
+  </si>
+  <si>
+    <t>Drehbuch und Videodreh für Mobi Team mit Marius, Termine planen, Python Tutorial</t>
+  </si>
+  <si>
+    <t>Projektrefernzen ergänzen, Feedbackgespräch eGo^n mit Birgit; Recherche eGo^n; Vorbereitung Womens Career Week mit Annika</t>
+  </si>
+  <si>
+    <t>Antrag korrekturlesen und formatieren, Recherche</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Programieraufgabe Marktstammdatenregister, Projektreferenzen aktualisieren</t>
+  </si>
+  <si>
+    <t>Womens Career Week Menti Fragen, Recherche eGo^n, Organisation von Meetings und Kalender, Aufgabe Mastr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meeting in the Park;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Problembesprechung open_Mastr; Orga Projektreport; Nachbereitung Teammeeting</t>
+    </r>
+  </si>
+  <si>
+    <t>Mail übersetzen; Workshop Notitzen von MitP digitalisieren; Zoom Meetings planen; Meeting Womens Career Week; Umwandlung xml-Mastr zu csv</t>
+  </si>
+  <si>
+    <t>PyCharm, Anaconda</t>
+  </si>
+  <si>
+    <t>Copyshop; Mastr Vergleich; Feedbackgespräch, Pads/boards abspeichern, Orga Projektreport</t>
   </si>
 </sst>
 </file>
@@ -761,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,7 +3088,7 @@
         <v>44484</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -3124,7 +3173,9 @@
       <c r="B83" s="8">
         <v>44487</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -3152,7 +3203,9 @@
       <c r="B84" s="8">
         <v>44488</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -3180,7 +3233,9 @@
       <c r="B85" s="8">
         <v>44489</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -3208,7 +3263,9 @@
       <c r="B86" s="8">
         <v>44490</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -3236,7 +3293,9 @@
       <c r="B87" s="8">
         <v>44491</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -3320,7 +3379,9 @@
       <c r="B90" s="8">
         <v>44494</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -3348,7 +3409,9 @@
       <c r="B91" s="8">
         <v>44495</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -3376,7 +3439,9 @@
       <c r="B92" s="8">
         <v>44496</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -3388,7 +3453,9 @@
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
-      <c r="O92" s="10"/>
+      <c r="O92" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
@@ -3404,7 +3471,9 @@
       <c r="B93" s="8">
         <v>44497</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -172,28 +172,6 @@
     <t>ShareLatex, Zotero</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Meeting in the Park</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; Energiedatenbanken</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Zoom-Meetings planen; Vorbereitung workshop: Menti; RLI-Umfrage auswerten; Djagora nach Fehlern durchsuchen; Open_Modex Korrektur </t>
   </si>
   <si>
@@ -311,28 +289,6 @@
     <t>Womens Career Week Menti Fragen, Recherche eGo^n, Organisation von Meetings und Kalender, Aufgabe Mastr</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Meeting in the Park;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Problembesprechung open_Mastr; Orga Projektreport; Nachbereitung Teammeeting</t>
-    </r>
-  </si>
-  <si>
     <t>Mail übersetzen; Workshop Notitzen von MitP digitalisieren; Zoom Meetings planen; Meeting Womens Career Week; Umwandlung xml-Mastr zu csv</t>
   </si>
   <si>
@@ -340,6 +296,18 @@
   </si>
   <si>
     <t>Copyshop; Mastr Vergleich; Feedbackgespräch, Pads/boards abspeichern, Orga Projektreport</t>
+  </si>
+  <si>
+    <t>Mastr Vergleich; Masterarbeit Zusammenfassung; Git Hub</t>
+  </si>
+  <si>
+    <t>Mastr Vergleich; MA-Runde; Organisation Geburtstagsgruppe und Geschenkkarte; Organisation Teamevent</t>
+  </si>
+  <si>
+    <t>Meeting in the Park; Energiedatenbanken</t>
+  </si>
+  <si>
+    <t>Meeting in the Park;  Problembesprechung open_Mastr; Orga Projektreport; Nachbereitung Teammeeting</t>
   </si>
 </sst>
 </file>
@@ -810,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +854,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
@@ -1106,7 +1074,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -1320,7 +1288,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
@@ -1530,7 +1498,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -1740,7 +1708,7 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
@@ -1782,7 +1750,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1948,7 +1916,7 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
@@ -1960,7 +1928,7 @@
         <v>44446</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -1990,7 +1958,7 @@
         <v>44447</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2020,7 +1988,7 @@
         <v>44448</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2134,7 +2102,7 @@
         <v>44452</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -2154,7 +2122,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
@@ -2166,7 +2134,7 @@
         <v>44453</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2196,7 +2164,7 @@
         <v>44454</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2210,7 +2178,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
@@ -2228,7 +2196,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -2258,7 +2226,7 @@
         <v>44456</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -2550,7 +2518,7 @@
         <v>44466</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -2580,7 +2548,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -2610,7 +2578,7 @@
         <v>44468</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -2640,7 +2608,7 @@
         <v>44469</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -2670,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -2756,7 +2724,7 @@
         <v>44473</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -2786,7 +2754,7 @@
         <v>44474</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -2800,7 +2768,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -2818,7 +2786,7 @@
         <v>44475</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -2848,7 +2816,7 @@
         <v>44476</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -2878,7 +2846,7 @@
         <v>44477</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -2964,7 +2932,7 @@
         <v>44480</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -2994,7 +2962,7 @@
         <v>44481</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -3014,7 +2982,7 @@
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
       <c r="U77" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
@@ -3026,7 +2994,7 @@
         <v>44482</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -3046,7 +3014,7 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
       <c r="U78" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
@@ -3058,7 +3026,7 @@
         <v>44483</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -3088,7 +3056,7 @@
         <v>44484</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -3174,7 +3142,7 @@
         <v>44487</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -3204,7 +3172,7 @@
         <v>44488</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -3234,7 +3202,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -3264,7 +3232,7 @@
         <v>44490</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -3294,7 +3262,7 @@
         <v>44491</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -3380,7 +3348,7 @@
         <v>44494</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -3410,7 +3378,7 @@
         <v>44495</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -3440,7 +3408,7 @@
         <v>44496</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -3454,7 +3422,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
@@ -3472,7 +3440,7 @@
         <v>44497</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -3501,7 +3469,9 @@
       <c r="B94" s="8">
         <v>44498</v>
       </c>
-      <c r="C94" s="9"/>
+      <c r="C94" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -3585,7 +3555,9 @@
       <c r="B97" s="8">
         <v>44501</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>Meeting in the Park;  Problembesprechung open_Mastr; Orga Projektreport; Nachbereitung Teammeeting</t>
+  </si>
+  <si>
+    <t>Mastr Vergleich</t>
+  </si>
+  <si>
+    <t>Jupyter Lab</t>
+  </si>
+  <si>
+    <t>Blumen kaufen, Mastr Vergleich, Orga Teamevent; Projekt PPP</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook, GitHub</t>
   </si>
 </sst>
 </file>
@@ -778,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="J92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,7 +3581,9 @@
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
-      <c r="O97" s="10"/>
+      <c r="O97" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
@@ -3585,7 +3599,9 @@
       <c r="B98" s="8">
         <v>44502</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -3597,7 +3613,9 @@
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
-      <c r="O98" s="10"/>
+      <c r="O98" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
@@ -3613,7 +3631,9 @@
       <c r="B99" s="8">
         <v>44503</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FS01\RedirectedFolders\Maja.Zimmermann\Documents\Code\Bufdi-Diary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\Code\Bufdi-Diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -316,10 +316,19 @@
     <t>Jupyter Lab</t>
   </si>
   <si>
-    <t>Blumen kaufen, Mastr Vergleich, Orga Teamevent; Projekt PPP</t>
+    <t>Jupyter Notebook, GitHub</t>
   </si>
   <si>
-    <t>Jupyter Notebook, GitHub</t>
+    <t>Mastr Vergleich; Masterarbeit Zusammenfassung; oemof Doku aufräumen</t>
+  </si>
+  <si>
+    <t>Blumen kaufen, Mastr Vergleich, Orga Teamevent; Projekt PPP; oemof Doku aufräumen</t>
+  </si>
+  <si>
+    <t>PyCharm, GitHub, Git Bash</t>
+  </si>
+  <si>
+    <t>Pads und Miro abspeichern, Orga Weihnachtsfeier; oemof Doku, Masterarbeit</t>
   </si>
 </sst>
 </file>
@@ -790,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O98" sqref="O98"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3614,7 +3623,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
@@ -3632,7 +3641,7 @@
         <v>44503</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -3661,7 +3670,9 @@
       <c r="B100" s="8">
         <v>44504</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -3673,7 +3684,9 @@
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
-      <c r="O100" s="10"/>
+      <c r="O100" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
@@ -3689,7 +3702,9 @@
       <c r="B101" s="8">
         <v>44505</v>
       </c>
-      <c r="C101" s="9"/>
+      <c r="C101" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -329,6 +329,27 @@
   </si>
   <si>
     <t>Pads und Miro abspeichern, Orga Weihnachtsfeier; oemof Doku, Masterarbeit</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook, ShareLatex, Zotero</t>
+  </si>
+  <si>
+    <t>oemof-b3 Gasbedarf (Recherche und Datenauswertung); Meeting Womens career week</t>
+  </si>
+  <si>
+    <t>Zusammenfassung Masterarbeit; Teammeeting + Nachbereitung; Projektpräsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oemof Doku vereinheitlichen + Merge auf GitHub;  </t>
+  </si>
+  <si>
+    <t>oemof-B3 Daten; Gespräch mit Sabine; Planung Programm Weihnachtsfeier, Geurtstagsgruppen planen</t>
+  </si>
+  <si>
+    <t>Teammeeting Protokolle ins Redmine; PLanung Womens Career Week; Orga Bufdi-Tagebuch, Masterareit</t>
+  </si>
+  <si>
+    <t>Pads und Miro abspeichern, Masterarbeit Notitzen zu Texten</t>
   </si>
 </sst>
 </file>
@@ -799,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,7 +3809,9 @@
       <c r="B104" s="8">
         <v>44508</v>
       </c>
-      <c r="C104" s="9"/>
+      <c r="C104" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
@@ -3816,7 +3839,9 @@
       <c r="B105" s="8">
         <v>44509</v>
       </c>
-      <c r="C105" s="9"/>
+      <c r="C105" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
@@ -3844,7 +3869,9 @@
       <c r="B106" s="8">
         <v>44510</v>
       </c>
-      <c r="C106" s="9"/>
+      <c r="C106" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
@@ -3856,7 +3883,9 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
-      <c r="O106" s="10"/>
+      <c r="O106" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
       <c r="R106" s="10"/>
@@ -3872,7 +3901,9 @@
       <c r="B107" s="8">
         <v>44511</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -3900,7 +3931,9 @@
       <c r="B108" s="8">
         <v>44512</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
@@ -3984,7 +4017,9 @@
       <c r="B111" s="8">
         <v>44515</v>
       </c>
-      <c r="C111" s="9"/>
+      <c r="C111" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="105">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -349,7 +349,19 @@
     <t>Teammeeting Protokolle ins Redmine; PLanung Womens Career Week; Orga Bufdi-Tagebuch, Masterareit</t>
   </si>
   <si>
-    <t>Pads und Miro abspeichern, Masterarbeit Notitzen zu Texten</t>
+    <t xml:space="preserve">Aktualisierung Projektrefernzen; Meeting Projekteport; Nachbereitung PR; GitHub Tutorial; Merge oemof-b3 </t>
+  </si>
+  <si>
+    <t>Pads und Miro abspeichern; Masterarbeit Notitzen zu Texten; Planung Jahresrückblick</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier Programm Orga; Aktualisierung der Projektreferenzen; Meeting Mastr-Vergleich; Sticker-Druck beim Copyshop</t>
+  </si>
+  <si>
+    <t>Recherche Wetterdaten Merra-2; Projektrefernzen angleichen; Workshop Schreibtechnik; Planung und Einkauf der Weihnachtsfeier Goodies</t>
+  </si>
+  <si>
+    <t>Pads und Miro abspeichern; Projektreferenzen mit Website abgleichen; Kicker auseinanderbauen + putzen</t>
   </si>
 </sst>
 </file>
@@ -821,7 +833,7 @@
   <dimension ref="B3:Y368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +4030,7 @@
         <v>44515</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4047,7 +4059,9 @@
       <c r="B112" s="8">
         <v>44516</v>
       </c>
-      <c r="C112" s="9"/>
+      <c r="C112" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -4075,7 +4089,9 @@
       <c r="B113" s="8">
         <v>44517</v>
       </c>
-      <c r="C113" s="9"/>
+      <c r="C113" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -4103,7 +4119,9 @@
       <c r="B114" s="8">
         <v>44518</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
@@ -4131,7 +4149,9 @@
       <c r="B115" s="8">
         <v>44519</v>
       </c>
-      <c r="C115" s="9"/>
+      <c r="C115" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>Pads und Miro abspeichern; Projektreferenzen mit Website abgleichen; Kicker auseinanderbauen + putzen</t>
+  </si>
+  <si>
+    <t>Seminar: Politische Bildung</t>
+  </si>
+  <si>
+    <t>Weihnachtstüten packen, Weihnachtsfeier Programm planen, Zoom Meetings erstellen, Lebensläufe übersetzen, Team Meeting Protokoll ins Redmine</t>
   </si>
 </sst>
 </file>
@@ -832,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,7 +4241,9 @@
       <c r="B118" s="8">
         <v>44522</v>
       </c>
-      <c r="C118" s="9"/>
+      <c r="C118" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -4263,7 +4271,9 @@
       <c r="B119" s="8">
         <v>44523</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -4291,7 +4301,9 @@
       <c r="B120" s="8">
         <v>44524</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -4319,7 +4331,9 @@
       <c r="B121" s="8">
         <v>44525</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -4347,7 +4361,9 @@
       <c r="B122" s="8">
         <v>44526</v>
       </c>
-      <c r="C122" s="9"/>
+      <c r="C122" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -4431,7 +4447,9 @@
       <c r="B125" s="8">
         <v>44529</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -367,7 +367,40 @@
     <t>Seminar: Politische Bildung</t>
   </si>
   <si>
-    <t>Weihnachtstüten packen, Weihnachtsfeier Programm planen, Zoom Meetings erstellen, Lebensläufe übersetzen, Team Meeting Protokoll ins Redmine</t>
+    <t>Weihnachtstüten packen, Weihnachtsfeier Programm planen, Zoom Meetings erstellen, Lebensläufe übersetzen</t>
+  </si>
+  <si>
+    <t>Komplimentebox planen, oemof-B3 Recherche und LaTeX, Team Meeting Protokoll ins Redmine, Weihnachtstüten</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">oemof-B3 Recherche und LaTeX, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>krank</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Diashow Weihnachtsfeier, Recherche eGo^n, </t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier Vorbereitungen, Orga Modex Treffen</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier Nachbereitung, Mails, Validierungsdaten Haushaltsstromedarfszeitreihen</t>
   </si>
 </sst>
 </file>
@@ -838,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,7 +4510,9 @@
       <c r="B126" s="8">
         <v>44530</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -4505,7 +4540,9 @@
       <c r="B127" s="8">
         <v>44531</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
@@ -4533,7 +4570,9 @@
       <c r="B128" s="8">
         <v>44532</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
@@ -4561,7 +4600,9 @@
       <c r="B129" s="8">
         <v>44533</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -4645,7 +4686,9 @@
       <c r="B132" s="8">
         <v>44536</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -4673,7 +4716,9 @@
       <c r="B133" s="8">
         <v>44537</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -4701,7 +4746,9 @@
       <c r="B134" s="8">
         <v>44538</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -4729,7 +4776,9 @@
       <c r="B135" s="8">
         <v>44539</v>
       </c>
-      <c r="C135" s="9"/>
+      <c r="C135" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -4757,7 +4806,9 @@
       <c r="B136" s="8">
         <v>44540</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -401,6 +401,157 @@
   </si>
   <si>
     <t>Weihnachtsfeier Nachbereitung, Mails, Validierungsdaten Haushaltsstromedarfszeitreihen</t>
+  </si>
+  <si>
+    <t>Lebensläufe auf neues Format aktualisieren, Einkauf von Schnelltests für das Büro</t>
+  </si>
+  <si>
+    <t>Validierungsdaten eGo^n, Unterstützung Abschlussbericht UMAS</t>
+  </si>
+  <si>
+    <t>Christians Geschenk vorbereiten und basteln, Termine vereinbaren, Unterstützung für Sustainable Transport Workshop</t>
+  </si>
+  <si>
+    <t>OEP: Model Factsheets ergänzen, Locationanfrage RLI Klausur, Endredaktion TVB EmpowerPlan</t>
+  </si>
+  <si>
+    <t>Admin-Vertretung: Betreuung Empfangsbüro, Post, Paketannahme, Büroräume checken; Endredaktion TVB EmpowerPlan</t>
+  </si>
+  <si>
+    <t>Auswertung Menti Umfrage Sommerparty, MA-Runde, Paket abholen, Absprache OEP: Model Factsheets auf neusten Stand bringen</t>
+  </si>
+  <si>
+    <t>Test Nextcloud, OEP: Modelfactsheets ergänzen, Internetausfall</t>
+  </si>
+  <si>
+    <t>Design, Erstellung Jubiläumskarten</t>
+  </si>
+  <si>
+    <t>Meeting zu Jahresplanung Events, Location Suche für Sommerparty und Klausur, Orga-Tätigkeiten im Büro</t>
+  </si>
+  <si>
+    <t>GVB StadtLandEnergie: xls-Auszüge + Tabellen bearbeiten &amp; einfügen, Struckturplan erstellen, Projektmeeting</t>
+  </si>
+  <si>
+    <t>Teammeeting; GVB StadtLandEnergie: xls-Auszüge erneuern, weitere jpgs einfügen, Struckturplan überarbeiten</t>
+  </si>
+  <si>
+    <t>GVB StadtLandEnergie finallisieren: jpgs einfügen, Korrektur lesen, Zeilenumbrüche und weitere Formatierung, letztes Meeting zur Absprache</t>
+  </si>
+  <si>
+    <t>Nextcloud testen, Überarbeitung Wikipedia Artikel eGo Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GVB StadtLandEnergie: Meeting zur Absprache, Formatierungsaufgaben </t>
+  </si>
+  <si>
+    <t>Feedbackgespräch, Projektreport einschl. Vor- und Nachbereitung, 12 Jahre RLI Jubiläum, GVB StadtLandEnergie</t>
+  </si>
+  <si>
+    <t>GVB StadtLandEnergie: Tabellen formatieren, TODOs spezifizieren, Projektmeeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teammeeting, Zwischenstand Umfrage Sommerparty auswerten, GVB StadtLandEnergie bearbeiten </t>
+  </si>
+  <si>
+    <t>StadtLandEnergie Projektmeeting, Arbeit an GVB, Meilensteine aktualisieren/formatieren</t>
+  </si>
+  <si>
+    <t>Boards sichern, Vorbereitung MA-Runde, Team Orga</t>
+  </si>
+  <si>
+    <t>Teammeeting Protokoll im Redmine ablegen, GVB StadtLandEnergie Endredaktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christians Abschiedsgeschenk basteln; Orga Abschiedsfeier: Einkauf, Set up; Abschiedsevent </t>
+  </si>
+  <si>
+    <t>Boards sichern, Unterstützung bei Admin Orga</t>
+  </si>
+  <si>
+    <t>Recherche eGo^n Wärmepumpen</t>
+  </si>
+  <si>
+    <t>Absprache mit Sarah zu Erstellung der GVB StadtLandEnergie, Erstellung von Latex Layout für GVB</t>
+  </si>
+  <si>
+    <t>Text für RLI Webseite über das WWF Dasboard erstellen, Boards sichern, SLE Texte aus easyonline übersetzen</t>
+  </si>
+  <si>
+    <t>Erstellung von Latex Layout für GVB, Teammeeting, Covid Impfung</t>
+  </si>
+  <si>
+    <t>Teammeeting Protokll, GVB StadtLandEnergie: Vorlage Reisekostentabelle an Vorlage aus PtJ Schreiben anpassen, SLE Kick-Off, Austausch Wärmepumpen mit OG</t>
+  </si>
+  <si>
+    <t>Serientermin Zoom für Projektmeetings SLE, gantt Diagramm erstellen, SLE Projektmeeting, Feedbackgespräch</t>
+  </si>
+  <si>
+    <t>Kommunikation mit Projektpartnern SLE, Boards sichern, Aufgaben in der GVB StadtLandEnergie</t>
+  </si>
+  <si>
+    <t>GVB StadtLandEnergie: TODOs abarbeiten, Referenzen einfügen, Crashkurs Mentimeter für Marius</t>
+  </si>
+  <si>
+    <t>RLI-interne Absprache zu SLE, Projektreport inklusive Vor- und Nachbereitung, Webinar der TU zu nachhaltigen Studiengängen</t>
+  </si>
+  <si>
+    <t>OEP: Model Factsheets ergänzen, Team-Meeting, OG Bufdi Führung, Orga RLI Klausur, Feedbackgespräch, Tagebuch überarbeiten/aktualisieren</t>
+  </si>
+  <si>
+    <t>Projektmeeting SLE, Texte verfassen für GVB</t>
+  </si>
+  <si>
+    <t>Boards sichern, Arbeit mit den Kalkulationstabellen für StadtLandEnergie</t>
+  </si>
+  <si>
+    <t>MA-Runde, Erstellung Menti Umfrage: Sommer-Weihnachtsfeier, erste Location Suche</t>
+  </si>
+  <si>
+    <t>Teammeeting, Projektmeeting SLE, Doku Teamtage finalisieren,  Absprache Wikipedia eGo-Tools mit Anya</t>
+  </si>
+  <si>
+    <t>Teammeeting Protokoll ins Redmine, Erstellung der Texte für Wikipedia</t>
+  </si>
+  <si>
+    <t>Projektmeeting SLE, Boards sichern, Aufgaben für GVB StadtLandEnergie</t>
+  </si>
+  <si>
+    <t>Seminar "Grüne Berufe"</t>
+  </si>
+  <si>
+    <t>Seminar "Weltbewusst"</t>
+  </si>
+  <si>
+    <t>Projektmeeting SLE, GVB StadtLandEnergie: Meilenstein Liste überarbeiten, Thursday Updates on Energy Modeling</t>
+  </si>
+  <si>
+    <t>Boards sichern, Erstellung Wikipedia Artikel eGo Tools</t>
+  </si>
+  <si>
+    <t>Organisation meines Daten-/Ordnermanagements, abschließende organisatorische Tätigkeiten</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GVB StadtLandEnergie,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> krank</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -869,15 +1020,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Y368"/>
+  <dimension ref="A3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:25" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -888,7 +1039,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="5" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -922,7 +1073,10 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" s="8">
         <v>44410</v>
       </c>
@@ -954,7 +1108,7 @@
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>44411</v>
       </c>
@@ -986,7 +1140,7 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>44412</v>
       </c>
@@ -1020,7 +1174,7 @@
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>44413</v>
       </c>
@@ -1052,7 +1206,7 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>44414</v>
       </c>
@@ -1084,7 +1238,7 @@
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>44415</v>
       </c>
@@ -1112,7 +1266,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>44416</v>
       </c>
@@ -1140,7 +1294,10 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
       <c r="B13" s="8">
         <v>44417</v>
       </c>
@@ -1174,7 +1331,7 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>44418</v>
       </c>
@@ -1206,7 +1363,7 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>44419</v>
       </c>
@@ -1236,7 +1393,7 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>44420</v>
       </c>
@@ -1266,7 +1423,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>44421</v>
       </c>
@@ -1298,7 +1455,7 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>44422</v>
       </c>
@@ -1326,7 +1483,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>44423</v>
       </c>
@@ -1354,7 +1511,10 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
       <c r="B20" s="8">
         <v>44424</v>
       </c>
@@ -1388,7 +1548,7 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>44425</v>
       </c>
@@ -1418,7 +1578,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>44426</v>
       </c>
@@ -1448,7 +1608,7 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>44427</v>
       </c>
@@ -1478,7 +1638,7 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>44428</v>
       </c>
@@ -1510,7 +1670,7 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>44429</v>
       </c>
@@ -1538,7 +1698,7 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <v>44430</v>
       </c>
@@ -1566,7 +1726,10 @@
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
       <c r="B27" s="8">
         <v>44431</v>
       </c>
@@ -1598,7 +1761,7 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>44432</v>
       </c>
@@ -1628,7 +1791,7 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>44433</v>
       </c>
@@ -1658,7 +1821,7 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>44434</v>
       </c>
@@ -1688,7 +1851,7 @@
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>44435</v>
       </c>
@@ -1718,7 +1881,7 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <v>44436</v>
       </c>
@@ -1746,7 +1909,7 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <v>44437</v>
       </c>
@@ -1774,7 +1937,10 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
       <c r="B34" s="8">
         <v>44438</v>
       </c>
@@ -1808,7 +1974,7 @@
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>44439</v>
       </c>
@@ -1838,7 +2004,7 @@
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>44440</v>
       </c>
@@ -1868,7 +2034,7 @@
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>44441</v>
       </c>
@@ -1898,7 +2064,7 @@
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>44442</v>
       </c>
@@ -1928,7 +2094,7 @@
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <v>44443</v>
       </c>
@@ -1956,7 +2122,7 @@
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <v>44444</v>
       </c>
@@ -1984,7 +2150,10 @@
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
       <c r="B41" s="8">
         <v>44445</v>
       </c>
@@ -2016,7 +2185,7 @@
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>44446</v>
       </c>
@@ -2046,7 +2215,7 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>44447</v>
       </c>
@@ -2076,7 +2245,7 @@
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>44448</v>
       </c>
@@ -2106,7 +2275,7 @@
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>44449</v>
       </c>
@@ -2134,7 +2303,7 @@
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <v>44450</v>
       </c>
@@ -2162,7 +2331,7 @@
       <c r="X46" s="15"/>
       <c r="Y46" s="15"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <v>44451</v>
       </c>
@@ -2190,7 +2359,10 @@
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
       <c r="B48" s="8">
         <v>44452</v>
       </c>
@@ -2222,7 +2394,7 @@
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>44453</v>
       </c>
@@ -2252,7 +2424,7 @@
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>44454</v>
       </c>
@@ -2284,7 +2456,7 @@
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>44455</v>
       </c>
@@ -2314,7 +2486,7 @@
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>44456</v>
       </c>
@@ -2344,7 +2516,7 @@
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <v>44457</v>
       </c>
@@ -2372,7 +2544,7 @@
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <v>44458</v>
       </c>
@@ -2400,7 +2572,10 @@
       <c r="X54" s="15"/>
       <c r="Y54" s="15"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
       <c r="B55" s="8">
         <v>44459</v>
       </c>
@@ -2430,7 +2605,7 @@
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>44460</v>
       </c>
@@ -2460,7 +2635,7 @@
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>44461</v>
       </c>
@@ -2490,7 +2665,7 @@
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>44462</v>
       </c>
@@ -2520,7 +2695,7 @@
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>44463</v>
       </c>
@@ -2550,7 +2725,7 @@
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <v>44464</v>
       </c>
@@ -2578,7 +2753,7 @@
       <c r="X60" s="15"/>
       <c r="Y60" s="15"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <v>44465</v>
       </c>
@@ -2606,7 +2781,10 @@
       <c r="X61" s="15"/>
       <c r="Y61" s="15"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9</v>
+      </c>
       <c r="B62" s="8">
         <v>44466</v>
       </c>
@@ -2636,7 +2814,7 @@
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>44467</v>
       </c>
@@ -2666,7 +2844,7 @@
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>44468</v>
       </c>
@@ -2696,7 +2874,7 @@
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>44469</v>
       </c>
@@ -2726,7 +2904,7 @@
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>44470</v>
       </c>
@@ -2756,7 +2934,7 @@
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <v>44471</v>
       </c>
@@ -2784,7 +2962,7 @@
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <v>44472</v>
       </c>
@@ -2812,7 +2990,10 @@
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10</v>
+      </c>
       <c r="B69" s="8">
         <v>44473</v>
       </c>
@@ -2842,7 +3023,7 @@
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
         <v>44474</v>
       </c>
@@ -2874,7 +3055,7 @@
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <v>44475</v>
       </c>
@@ -2904,7 +3085,7 @@
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <v>44476</v>
       </c>
@@ -2934,7 +3115,7 @@
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>44477</v>
       </c>
@@ -2964,7 +3145,7 @@
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <v>44478</v>
       </c>
@@ -2992,7 +3173,7 @@
       <c r="X74" s="15"/>
       <c r="Y74" s="15"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <v>44479</v>
       </c>
@@ -3020,7 +3201,10 @@
       <c r="X75" s="15"/>
       <c r="Y75" s="15"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>11</v>
+      </c>
       <c r="B76" s="8">
         <v>44480</v>
       </c>
@@ -3050,7 +3234,7 @@
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>44481</v>
       </c>
@@ -3082,7 +3266,7 @@
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>44482</v>
       </c>
@@ -3114,7 +3298,7 @@
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>44483</v>
       </c>
@@ -3144,7 +3328,7 @@
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>44484</v>
       </c>
@@ -3174,7 +3358,7 @@
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <v>44485</v>
       </c>
@@ -3202,7 +3386,7 @@
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <v>44486</v>
       </c>
@@ -3230,7 +3414,10 @@
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>12</v>
+      </c>
       <c r="B83" s="8">
         <v>44487</v>
       </c>
@@ -3260,7 +3447,7 @@
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B84" s="8">
         <v>44488</v>
       </c>
@@ -3290,7 +3477,7 @@
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
         <v>44489</v>
       </c>
@@ -3320,7 +3507,7 @@
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B86" s="8">
         <v>44490</v>
       </c>
@@ -3350,7 +3537,7 @@
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <v>44491</v>
       </c>
@@ -3380,7 +3567,7 @@
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <v>44492</v>
       </c>
@@ -3408,7 +3595,7 @@
       <c r="X88" s="15"/>
       <c r="Y88" s="15"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <v>44493</v>
       </c>
@@ -3436,7 +3623,10 @@
       <c r="X89" s="15"/>
       <c r="Y89" s="15"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>13</v>
+      </c>
       <c r="B90" s="8">
         <v>44494</v>
       </c>
@@ -3466,7 +3656,7 @@
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
         <v>44495</v>
       </c>
@@ -3496,7 +3686,7 @@
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B92" s="8">
         <v>44496</v>
       </c>
@@ -3528,7 +3718,7 @@
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B93" s="8">
         <v>44497</v>
       </c>
@@ -3558,7 +3748,7 @@
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B94" s="8">
         <v>44498</v>
       </c>
@@ -3588,7 +3778,7 @@
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
         <v>44499</v>
       </c>
@@ -3616,7 +3806,7 @@
       <c r="X95" s="15"/>
       <c r="Y95" s="15"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B96" s="12">
         <v>44500</v>
       </c>
@@ -3644,7 +3834,10 @@
       <c r="X96" s="15"/>
       <c r="Y96" s="15"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>14</v>
+      </c>
       <c r="B97" s="8">
         <v>44501</v>
       </c>
@@ -3676,7 +3869,7 @@
       <c r="X97" s="11"/>
       <c r="Y97" s="11"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B98" s="8">
         <v>44502</v>
       </c>
@@ -3708,7 +3901,7 @@
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B99" s="8">
         <v>44503</v>
       </c>
@@ -3738,7 +3931,7 @@
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B100" s="8">
         <v>44504</v>
       </c>
@@ -3770,7 +3963,7 @@
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B101" s="8">
         <v>44505</v>
       </c>
@@ -3800,7 +3993,7 @@
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B102" s="12">
         <v>44506</v>
       </c>
@@ -3828,7 +4021,7 @@
       <c r="X102" s="15"/>
       <c r="Y102" s="15"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B103" s="12">
         <v>44507</v>
       </c>
@@ -3856,7 +4049,10 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>15</v>
+      </c>
       <c r="B104" s="8">
         <v>44508</v>
       </c>
@@ -3886,7 +4082,7 @@
       <c r="X104" s="11"/>
       <c r="Y104" s="11"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B105" s="8">
         <v>44509</v>
       </c>
@@ -3916,7 +4112,7 @@
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B106" s="8">
         <v>44510</v>
       </c>
@@ -3948,7 +4144,7 @@
       <c r="X106" s="11"/>
       <c r="Y106" s="11"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B107" s="8">
         <v>44511</v>
       </c>
@@ -3978,7 +4174,7 @@
       <c r="X107" s="11"/>
       <c r="Y107" s="11"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B108" s="8">
         <v>44512</v>
       </c>
@@ -4008,7 +4204,7 @@
       <c r="X108" s="11"/>
       <c r="Y108" s="11"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B109" s="12">
         <v>44513</v>
       </c>
@@ -4036,7 +4232,7 @@
       <c r="X109" s="15"/>
       <c r="Y109" s="15"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B110" s="12">
         <v>44514</v>
       </c>
@@ -4064,7 +4260,10 @@
       <c r="X110" s="15"/>
       <c r="Y110" s="15"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>16</v>
+      </c>
       <c r="B111" s="8">
         <v>44515</v>
       </c>
@@ -4094,7 +4293,7 @@
       <c r="X111" s="11"/>
       <c r="Y111" s="11"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B112" s="8">
         <v>44516</v>
       </c>
@@ -4124,7 +4323,7 @@
       <c r="X112" s="11"/>
       <c r="Y112" s="11"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B113" s="8">
         <v>44517</v>
       </c>
@@ -4154,7 +4353,7 @@
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
     </row>
-    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B114" s="8">
         <v>44518</v>
       </c>
@@ -4184,7 +4383,7 @@
       <c r="X114" s="11"/>
       <c r="Y114" s="11"/>
     </row>
-    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B115" s="8">
         <v>44519</v>
       </c>
@@ -4214,7 +4413,7 @@
       <c r="X115" s="11"/>
       <c r="Y115" s="11"/>
     </row>
-    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B116" s="12">
         <v>44520</v>
       </c>
@@ -4242,7 +4441,7 @@
       <c r="X116" s="15"/>
       <c r="Y116" s="15"/>
     </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
         <v>44521</v>
       </c>
@@ -4270,7 +4469,10 @@
       <c r="X117" s="15"/>
       <c r="Y117" s="15"/>
     </row>
-    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>17</v>
+      </c>
       <c r="B118" s="8">
         <v>44522</v>
       </c>
@@ -4300,7 +4502,7 @@
       <c r="X118" s="11"/>
       <c r="Y118" s="11"/>
     </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B119" s="8">
         <v>44523</v>
       </c>
@@ -4330,7 +4532,7 @@
       <c r="X119" s="11"/>
       <c r="Y119" s="11"/>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B120" s="8">
         <v>44524</v>
       </c>
@@ -4360,7 +4562,7 @@
       <c r="X120" s="11"/>
       <c r="Y120" s="11"/>
     </row>
-    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B121" s="8">
         <v>44525</v>
       </c>
@@ -4390,7 +4592,7 @@
       <c r="X121" s="11"/>
       <c r="Y121" s="11"/>
     </row>
-    <row r="122" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B122" s="8">
         <v>44526</v>
       </c>
@@ -4420,7 +4622,7 @@
       <c r="X122" s="11"/>
       <c r="Y122" s="11"/>
     </row>
-    <row r="123" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B123" s="12">
         <v>44527</v>
       </c>
@@ -4448,7 +4650,7 @@
       <c r="X123" s="15"/>
       <c r="Y123" s="15"/>
     </row>
-    <row r="124" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B124" s="12">
         <v>44528</v>
       </c>
@@ -4476,7 +4678,10 @@
       <c r="X124" s="15"/>
       <c r="Y124" s="15"/>
     </row>
-    <row r="125" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>18</v>
+      </c>
       <c r="B125" s="8">
         <v>44529</v>
       </c>
@@ -4506,7 +4711,7 @@
       <c r="X125" s="11"/>
       <c r="Y125" s="11"/>
     </row>
-    <row r="126" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B126" s="8">
         <v>44530</v>
       </c>
@@ -4536,7 +4741,7 @@
       <c r="X126" s="11"/>
       <c r="Y126" s="11"/>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B127" s="8">
         <v>44531</v>
       </c>
@@ -4566,7 +4771,7 @@
       <c r="X127" s="11"/>
       <c r="Y127" s="11"/>
     </row>
-    <row r="128" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B128" s="8">
         <v>44532</v>
       </c>
@@ -4596,7 +4801,7 @@
       <c r="X128" s="11"/>
       <c r="Y128" s="11"/>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B129" s="8">
         <v>44533</v>
       </c>
@@ -4626,7 +4831,7 @@
       <c r="X129" s="11"/>
       <c r="Y129" s="11"/>
     </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
         <v>44534</v>
       </c>
@@ -4654,7 +4859,7 @@
       <c r="X130" s="15"/>
       <c r="Y130" s="15"/>
     </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
         <v>44535</v>
       </c>
@@ -4682,7 +4887,10 @@
       <c r="X131" s="15"/>
       <c r="Y131" s="15"/>
     </row>
-    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>19</v>
+      </c>
       <c r="B132" s="8">
         <v>44536</v>
       </c>
@@ -4712,7 +4920,7 @@
       <c r="X132" s="11"/>
       <c r="Y132" s="11"/>
     </row>
-    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B133" s="8">
         <v>44537</v>
       </c>
@@ -4742,7 +4950,7 @@
       <c r="X133" s="11"/>
       <c r="Y133" s="11"/>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B134" s="8">
         <v>44538</v>
       </c>
@@ -4772,7 +4980,7 @@
       <c r="X134" s="11"/>
       <c r="Y134" s="11"/>
     </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B135" s="8">
         <v>44539</v>
       </c>
@@ -4802,7 +5010,7 @@
       <c r="X135" s="11"/>
       <c r="Y135" s="11"/>
     </row>
-    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B136" s="8">
         <v>44540</v>
       </c>
@@ -4832,7 +5040,7 @@
       <c r="X136" s="11"/>
       <c r="Y136" s="11"/>
     </row>
-    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
         <v>44541</v>
       </c>
@@ -4860,7 +5068,7 @@
       <c r="X137" s="15"/>
       <c r="Y137" s="15"/>
     </row>
-    <row r="138" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B138" s="12">
         <v>44542</v>
       </c>
@@ -4888,11 +5096,16 @@
       <c r="X138" s="15"/>
       <c r="Y138" s="15"/>
     </row>
-    <row r="139" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>20</v>
+      </c>
       <c r="B139" s="8">
         <v>44543</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -4916,11 +5129,13 @@
       <c r="X139" s="11"/>
       <c r="Y139" s="11"/>
     </row>
-    <row r="140" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B140" s="8">
         <v>44544</v>
       </c>
-      <c r="C140" s="9"/>
+      <c r="C140" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -4944,11 +5159,13 @@
       <c r="X140" s="11"/>
       <c r="Y140" s="11"/>
     </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B141" s="8">
         <v>44545</v>
       </c>
-      <c r="C141" s="9"/>
+      <c r="C141" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -4972,11 +5189,13 @@
       <c r="X141" s="11"/>
       <c r="Y141" s="11"/>
     </row>
-    <row r="142" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B142" s="8">
         <v>44546</v>
       </c>
-      <c r="C142" s="9"/>
+      <c r="C142" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -5000,11 +5219,13 @@
       <c r="X142" s="11"/>
       <c r="Y142" s="11"/>
     </row>
-    <row r="143" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B143" s="8">
         <v>44547</v>
       </c>
-      <c r="C143" s="9"/>
+      <c r="C143" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -5028,7 +5249,7 @@
       <c r="X143" s="11"/>
       <c r="Y143" s="11"/>
     </row>
-    <row r="144" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B144" s="12">
         <v>44548</v>
       </c>
@@ -5056,7 +5277,7 @@
       <c r="X144" s="15"/>
       <c r="Y144" s="15"/>
     </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B145" s="12">
         <v>44549</v>
       </c>
@@ -5084,11 +5305,16 @@
       <c r="X145" s="15"/>
       <c r="Y145" s="15"/>
     </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>21</v>
+      </c>
       <c r="B146" s="8">
         <v>44550</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -5112,11 +5338,13 @@
       <c r="X146" s="11"/>
       <c r="Y146" s="11"/>
     </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B147" s="8">
         <v>44551</v>
       </c>
-      <c r="C147" s="9"/>
+      <c r="C147" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -5140,11 +5368,13 @@
       <c r="X147" s="11"/>
       <c r="Y147" s="11"/>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B148" s="8">
         <v>44552</v>
       </c>
-      <c r="C148" s="9"/>
+      <c r="C148" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -5168,11 +5398,13 @@
       <c r="X148" s="11"/>
       <c r="Y148" s="11"/>
     </row>
-    <row r="149" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B149" s="8">
         <v>44553</v>
       </c>
-      <c r="C149" s="9"/>
+      <c r="C149" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -5196,11 +5428,13 @@
       <c r="X149" s="11"/>
       <c r="Y149" s="11"/>
     </row>
-    <row r="150" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B150" s="8">
         <v>44554</v>
       </c>
-      <c r="C150" s="9"/>
+      <c r="C150" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -5224,7 +5458,7 @@
       <c r="X150" s="11"/>
       <c r="Y150" s="11"/>
     </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B151" s="12">
         <v>44555</v>
       </c>
@@ -5252,7 +5486,7 @@
       <c r="X151" s="15"/>
       <c r="Y151" s="15"/>
     </row>
-    <row r="152" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B152" s="12">
         <v>44556</v>
       </c>
@@ -5280,11 +5514,16 @@
       <c r="X152" s="15"/>
       <c r="Y152" s="15"/>
     </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>22</v>
+      </c>
       <c r="B153" s="8">
         <v>44557</v>
       </c>
-      <c r="C153" s="9"/>
+      <c r="C153" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
@@ -5308,11 +5547,13 @@
       <c r="X153" s="11"/>
       <c r="Y153" s="11"/>
     </row>
-    <row r="154" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B154" s="8">
         <v>44558</v>
       </c>
-      <c r="C154" s="9"/>
+      <c r="C154" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
@@ -5336,11 +5577,13 @@
       <c r="X154" s="11"/>
       <c r="Y154" s="11"/>
     </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B155" s="8">
         <v>44559</v>
       </c>
-      <c r="C155" s="9"/>
+      <c r="C155" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -5364,11 +5607,13 @@
       <c r="X155" s="11"/>
       <c r="Y155" s="11"/>
     </row>
-    <row r="156" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B156" s="8">
         <v>44560</v>
       </c>
-      <c r="C156" s="9"/>
+      <c r="C156" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
@@ -5392,11 +5637,13 @@
       <c r="X156" s="11"/>
       <c r="Y156" s="11"/>
     </row>
-    <row r="157" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B157" s="8">
         <v>44561</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -5420,7 +5667,7 @@
       <c r="X157" s="11"/>
       <c r="Y157" s="11"/>
     </row>
-    <row r="158" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B158" s="12">
         <v>44562</v>
       </c>
@@ -5448,7 +5695,7 @@
       <c r="X158" s="15"/>
       <c r="Y158" s="15"/>
     </row>
-    <row r="159" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B159" s="12">
         <v>44563</v>
       </c>
@@ -5476,11 +5723,16 @@
       <c r="X159" s="15"/>
       <c r="Y159" s="15"/>
     </row>
-    <row r="160" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>23</v>
+      </c>
       <c r="B160" s="8">
         <v>44564</v>
       </c>
-      <c r="C160" s="9"/>
+      <c r="C160" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -5504,11 +5756,13 @@
       <c r="X160" s="11"/>
       <c r="Y160" s="11"/>
     </row>
-    <row r="161" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B161" s="8">
         <v>44565</v>
       </c>
-      <c r="C161" s="9"/>
+      <c r="C161" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -5532,11 +5786,13 @@
       <c r="X161" s="11"/>
       <c r="Y161" s="11"/>
     </row>
-    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B162" s="8">
         <v>44566</v>
       </c>
-      <c r="C162" s="9"/>
+      <c r="C162" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
@@ -5560,11 +5816,13 @@
       <c r="X162" s="11"/>
       <c r="Y162" s="11"/>
     </row>
-    <row r="163" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B163" s="8">
         <v>44567</v>
       </c>
-      <c r="C163" s="9"/>
+      <c r="C163" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
@@ -5588,11 +5846,13 @@
       <c r="X163" s="11"/>
       <c r="Y163" s="11"/>
     </row>
-    <row r="164" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B164" s="8">
         <v>44568</v>
       </c>
-      <c r="C164" s="9"/>
+      <c r="C164" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
@@ -5616,7 +5876,7 @@
       <c r="X164" s="11"/>
       <c r="Y164" s="11"/>
     </row>
-    <row r="165" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B165" s="12">
         <v>44569</v>
       </c>
@@ -5644,7 +5904,7 @@
       <c r="X165" s="15"/>
       <c r="Y165" s="15"/>
     </row>
-    <row r="166" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B166" s="12">
         <v>44570</v>
       </c>
@@ -5672,11 +5932,16 @@
       <c r="X166" s="15"/>
       <c r="Y166" s="15"/>
     </row>
-    <row r="167" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>24</v>
+      </c>
       <c r="B167" s="8">
         <v>44571</v>
       </c>
-      <c r="C167" s="9"/>
+      <c r="C167" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
@@ -5700,11 +5965,13 @@
       <c r="X167" s="11"/>
       <c r="Y167" s="11"/>
     </row>
-    <row r="168" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B168" s="8">
         <v>44572</v>
       </c>
-      <c r="C168" s="9"/>
+      <c r="C168" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
@@ -5728,11 +5995,13 @@
       <c r="X168" s="11"/>
       <c r="Y168" s="11"/>
     </row>
-    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B169" s="8">
         <v>44573</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
@@ -5756,11 +6025,13 @@
       <c r="X169" s="11"/>
       <c r="Y169" s="11"/>
     </row>
-    <row r="170" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B170" s="8">
         <v>44574</v>
       </c>
-      <c r="C170" s="9"/>
+      <c r="C170" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
@@ -5784,11 +6055,13 @@
       <c r="X170" s="11"/>
       <c r="Y170" s="11"/>
     </row>
-    <row r="171" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B171" s="8">
         <v>44575</v>
       </c>
-      <c r="C171" s="9"/>
+      <c r="C171" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
@@ -5812,7 +6085,7 @@
       <c r="X171" s="11"/>
       <c r="Y171" s="11"/>
     </row>
-    <row r="172" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B172" s="12">
         <v>44576</v>
       </c>
@@ -5840,7 +6113,7 @@
       <c r="X172" s="15"/>
       <c r="Y172" s="15"/>
     </row>
-    <row r="173" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B173" s="12">
         <v>44577</v>
       </c>
@@ -5868,11 +6141,16 @@
       <c r="X173" s="15"/>
       <c r="Y173" s="15"/>
     </row>
-    <row r="174" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>25</v>
+      </c>
       <c r="B174" s="8">
         <v>44578</v>
       </c>
-      <c r="C174" s="9"/>
+      <c r="C174" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -5896,11 +6174,13 @@
       <c r="X174" s="11"/>
       <c r="Y174" s="11"/>
     </row>
-    <row r="175" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B175" s="8">
         <v>44579</v>
       </c>
-      <c r="C175" s="9"/>
+      <c r="C175" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
@@ -5924,11 +6204,13 @@
       <c r="X175" s="11"/>
       <c r="Y175" s="11"/>
     </row>
-    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B176" s="8">
         <v>44580</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
@@ -5952,11 +6234,13 @@
       <c r="X176" s="11"/>
       <c r="Y176" s="11"/>
     </row>
-    <row r="177" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B177" s="8">
         <v>44581</v>
       </c>
-      <c r="C177" s="9"/>
+      <c r="C177" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -5980,11 +6264,13 @@
       <c r="X177" s="11"/>
       <c r="Y177" s="11"/>
     </row>
-    <row r="178" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B178" s="8">
         <v>44582</v>
       </c>
-      <c r="C178" s="9"/>
+      <c r="C178" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
@@ -6008,7 +6294,7 @@
       <c r="X178" s="11"/>
       <c r="Y178" s="11"/>
     </row>
-    <row r="179" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B179" s="12">
         <v>44583</v>
       </c>
@@ -6036,7 +6322,7 @@
       <c r="X179" s="15"/>
       <c r="Y179" s="15"/>
     </row>
-    <row r="180" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B180" s="12">
         <v>44584</v>
       </c>
@@ -6064,11 +6350,16 @@
       <c r="X180" s="15"/>
       <c r="Y180" s="15"/>
     </row>
-    <row r="181" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>26</v>
+      </c>
       <c r="B181" s="8">
         <v>44585</v>
       </c>
-      <c r="C181" s="9"/>
+      <c r="C181" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
@@ -6092,11 +6383,13 @@
       <c r="X181" s="11"/>
       <c r="Y181" s="11"/>
     </row>
-    <row r="182" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B182" s="8">
         <v>44586</v>
       </c>
-      <c r="C182" s="9"/>
+      <c r="C182" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
@@ -6120,11 +6413,13 @@
       <c r="X182" s="11"/>
       <c r="Y182" s="11"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B183" s="8">
         <v>44587</v>
       </c>
-      <c r="C183" s="9"/>
+      <c r="C183" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -6148,11 +6443,13 @@
       <c r="X183" s="11"/>
       <c r="Y183" s="11"/>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B184" s="8">
         <v>44588</v>
       </c>
-      <c r="C184" s="9"/>
+      <c r="C184" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
@@ -6176,11 +6473,13 @@
       <c r="X184" s="11"/>
       <c r="Y184" s="11"/>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B185" s="8">
         <v>44589</v>
       </c>
-      <c r="C185" s="9"/>
+      <c r="C185" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -6204,7 +6503,7 @@
       <c r="X185" s="11"/>
       <c r="Y185" s="11"/>
     </row>
-    <row r="186" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B186" s="12">
         <v>44590</v>
       </c>
@@ -6232,7 +6531,7 @@
       <c r="X186" s="15"/>
       <c r="Y186" s="15"/>
     </row>
-    <row r="187" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B187" s="12">
         <v>44591</v>
       </c>
@@ -6260,11 +6559,16 @@
       <c r="X187" s="15"/>
       <c r="Y187" s="15"/>
     </row>
-    <row r="188" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>27</v>
+      </c>
       <c r="B188" s="8">
         <v>44592</v>
       </c>
-      <c r="C188" s="9"/>
+      <c r="C188" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
@@ -6288,11 +6592,13 @@
       <c r="X188" s="11"/>
       <c r="Y188" s="11"/>
     </row>
-    <row r="189" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B189" s="8">
         <v>44593</v>
       </c>
-      <c r="C189" s="9"/>
+      <c r="C189" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -6316,11 +6622,13 @@
       <c r="X189" s="11"/>
       <c r="Y189" s="11"/>
     </row>
-    <row r="190" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B190" s="8">
         <v>44594</v>
       </c>
-      <c r="C190" s="9"/>
+      <c r="C190" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -6344,11 +6652,13 @@
       <c r="X190" s="11"/>
       <c r="Y190" s="11"/>
     </row>
-    <row r="191" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B191" s="8">
         <v>44595</v>
       </c>
-      <c r="C191" s="9"/>
+      <c r="C191" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -6372,11 +6682,13 @@
       <c r="X191" s="11"/>
       <c r="Y191" s="11"/>
     </row>
-    <row r="192" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B192" s="8">
         <v>44596</v>
       </c>
-      <c r="C192" s="9"/>
+      <c r="C192" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
@@ -6400,7 +6712,7 @@
       <c r="X192" s="11"/>
       <c r="Y192" s="11"/>
     </row>
-    <row r="193" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B193" s="12">
         <v>44597</v>
       </c>
@@ -6428,7 +6740,7 @@
       <c r="X193" s="15"/>
       <c r="Y193" s="15"/>
     </row>
-    <row r="194" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B194" s="12">
         <v>44598</v>
       </c>
@@ -6456,11 +6768,16 @@
       <c r="X194" s="15"/>
       <c r="Y194" s="15"/>
     </row>
-    <row r="195" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>28</v>
+      </c>
       <c r="B195" s="8">
         <v>44599</v>
       </c>
-      <c r="C195" s="9"/>
+      <c r="C195" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
@@ -6484,11 +6801,13 @@
       <c r="X195" s="11"/>
       <c r="Y195" s="11"/>
     </row>
-    <row r="196" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B196" s="8">
         <v>44600</v>
       </c>
-      <c r="C196" s="9"/>
+      <c r="C196" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
@@ -6512,11 +6831,13 @@
       <c r="X196" s="11"/>
       <c r="Y196" s="11"/>
     </row>
-    <row r="197" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B197" s="8">
         <v>44601</v>
       </c>
-      <c r="C197" s="9"/>
+      <c r="C197" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
@@ -6540,11 +6861,13 @@
       <c r="X197" s="11"/>
       <c r="Y197" s="11"/>
     </row>
-    <row r="198" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B198" s="8">
         <v>44602</v>
       </c>
-      <c r="C198" s="9"/>
+      <c r="C198" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
@@ -6568,11 +6891,13 @@
       <c r="X198" s="11"/>
       <c r="Y198" s="11"/>
     </row>
-    <row r="199" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B199" s="8">
         <v>44603</v>
       </c>
-      <c r="C199" s="9"/>
+      <c r="C199" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
@@ -6596,7 +6921,7 @@
       <c r="X199" s="11"/>
       <c r="Y199" s="11"/>
     </row>
-    <row r="200" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B200" s="12">
         <v>44604</v>
       </c>
@@ -6624,7 +6949,7 @@
       <c r="X200" s="15"/>
       <c r="Y200" s="15"/>
     </row>
-    <row r="201" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B201" s="12">
         <v>44605</v>
       </c>
@@ -6652,11 +6977,16 @@
       <c r="X201" s="15"/>
       <c r="Y201" s="15"/>
     </row>
-    <row r="202" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>29</v>
+      </c>
       <c r="B202" s="8">
         <v>44606</v>
       </c>
-      <c r="C202" s="9"/>
+      <c r="C202" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
@@ -6680,11 +7010,13 @@
       <c r="X202" s="11"/>
       <c r="Y202" s="11"/>
     </row>
-    <row r="203" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B203" s="8">
         <v>44607</v>
       </c>
-      <c r="C203" s="9"/>
+      <c r="C203" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
@@ -6708,11 +7040,13 @@
       <c r="X203" s="11"/>
       <c r="Y203" s="11"/>
     </row>
-    <row r="204" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B204" s="8">
         <v>44608</v>
       </c>
-      <c r="C204" s="9"/>
+      <c r="C204" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
@@ -6736,11 +7070,13 @@
       <c r="X204" s="11"/>
       <c r="Y204" s="11"/>
     </row>
-    <row r="205" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B205" s="8">
         <v>44609</v>
       </c>
-      <c r="C205" s="9"/>
+      <c r="C205" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
@@ -6764,11 +7100,13 @@
       <c r="X205" s="11"/>
       <c r="Y205" s="11"/>
     </row>
-    <row r="206" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B206" s="8">
         <v>44610</v>
       </c>
-      <c r="C206" s="9"/>
+      <c r="C206" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
@@ -6792,7 +7130,7 @@
       <c r="X206" s="11"/>
       <c r="Y206" s="11"/>
     </row>
-    <row r="207" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
         <v>44611</v>
       </c>
@@ -6820,7 +7158,7 @@
       <c r="X207" s="15"/>
       <c r="Y207" s="15"/>
     </row>
-    <row r="208" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B208" s="12">
         <v>44612</v>
       </c>
@@ -6848,11 +7186,16 @@
       <c r="X208" s="15"/>
       <c r="Y208" s="15"/>
     </row>
-    <row r="209" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>30</v>
+      </c>
       <c r="B209" s="8">
         <v>44613</v>
       </c>
-      <c r="C209" s="9"/>
+      <c r="C209" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
@@ -6876,11 +7219,13 @@
       <c r="X209" s="11"/>
       <c r="Y209" s="11"/>
     </row>
-    <row r="210" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B210" s="8">
         <v>44614</v>
       </c>
-      <c r="C210" s="9"/>
+      <c r="C210" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
@@ -6904,11 +7249,13 @@
       <c r="X210" s="11"/>
       <c r="Y210" s="11"/>
     </row>
-    <row r="211" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B211" s="8">
         <v>44615</v>
       </c>
-      <c r="C211" s="9"/>
+      <c r="C211" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -6932,11 +7279,13 @@
       <c r="X211" s="11"/>
       <c r="Y211" s="11"/>
     </row>
-    <row r="212" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B212" s="8">
         <v>44616</v>
       </c>
-      <c r="C212" s="9"/>
+      <c r="C212" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
@@ -6960,11 +7309,13 @@
       <c r="X212" s="11"/>
       <c r="Y212" s="11"/>
     </row>
-    <row r="213" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B213" s="8">
         <v>44617</v>
       </c>
-      <c r="C213" s="9"/>
+      <c r="C213" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
@@ -6988,7 +7339,7 @@
       <c r="X213" s="11"/>
       <c r="Y213" s="11"/>
     </row>
-    <row r="214" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B214" s="12">
         <v>44618</v>
       </c>
@@ -7016,7 +7367,7 @@
       <c r="X214" s="15"/>
       <c r="Y214" s="15"/>
     </row>
-    <row r="215" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B215" s="12">
         <v>44619</v>
       </c>
@@ -7044,11 +7395,16 @@
       <c r="X215" s="15"/>
       <c r="Y215" s="15"/>
     </row>
-    <row r="216" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>31</v>
+      </c>
       <c r="B216" s="8">
         <v>44620</v>
       </c>
-      <c r="C216" s="9"/>
+      <c r="C216" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
@@ -7072,11 +7428,13 @@
       <c r="X216" s="11"/>
       <c r="Y216" s="11"/>
     </row>
-    <row r="217" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B217" s="8">
         <v>44621</v>
       </c>
-      <c r="C217" s="9"/>
+      <c r="C217" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
@@ -7100,7 +7458,7 @@
       <c r="X217" s="11"/>
       <c r="Y217" s="11"/>
     </row>
-    <row r="218" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B218" s="8">
         <v>44622</v>
       </c>
@@ -7128,7 +7486,7 @@
       <c r="X218" s="11"/>
       <c r="Y218" s="11"/>
     </row>
-    <row r="219" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B219" s="8">
         <v>44623</v>
       </c>
@@ -7156,7 +7514,7 @@
       <c r="X219" s="11"/>
       <c r="Y219" s="11"/>
     </row>
-    <row r="220" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B220" s="8">
         <v>44624</v>
       </c>
@@ -7184,7 +7542,7 @@
       <c r="X220" s="11"/>
       <c r="Y220" s="11"/>
     </row>
-    <row r="221" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B221" s="12">
         <v>44625</v>
       </c>
@@ -7212,7 +7570,7 @@
       <c r="X221" s="15"/>
       <c r="Y221" s="15"/>
     </row>
-    <row r="222" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B222" s="12">
         <v>44626</v>
       </c>
@@ -7240,7 +7598,10 @@
       <c r="X222" s="15"/>
       <c r="Y222" s="15"/>
     </row>
-    <row r="223" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>32</v>
+      </c>
       <c r="B223" s="8">
         <v>44627</v>
       </c>
@@ -7268,7 +7629,7 @@
       <c r="X223" s="11"/>
       <c r="Y223" s="11"/>
     </row>
-    <row r="224" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B224" s="8">
         <v>44628</v>
       </c>
@@ -7296,7 +7657,7 @@
       <c r="X224" s="11"/>
       <c r="Y224" s="11"/>
     </row>
-    <row r="225" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B225" s="8">
         <v>44629</v>
       </c>
@@ -7324,7 +7685,7 @@
       <c r="X225" s="11"/>
       <c r="Y225" s="11"/>
     </row>
-    <row r="226" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B226" s="8">
         <v>44630</v>
       </c>
@@ -7352,7 +7713,7 @@
       <c r="X226" s="11"/>
       <c r="Y226" s="11"/>
     </row>
-    <row r="227" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B227" s="8">
         <v>44631</v>
       </c>
@@ -7380,7 +7741,7 @@
       <c r="X227" s="11"/>
       <c r="Y227" s="11"/>
     </row>
-    <row r="228" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B228" s="12">
         <v>44632</v>
       </c>
@@ -7408,7 +7769,7 @@
       <c r="X228" s="15"/>
       <c r="Y228" s="15"/>
     </row>
-    <row r="229" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B229" s="12">
         <v>44633</v>
       </c>
@@ -7436,7 +7797,10 @@
       <c r="X229" s="15"/>
       <c r="Y229" s="15"/>
     </row>
-    <row r="230" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>33</v>
+      </c>
       <c r="B230" s="8">
         <v>44634</v>
       </c>
@@ -7464,7 +7828,7 @@
       <c r="X230" s="11"/>
       <c r="Y230" s="11"/>
     </row>
-    <row r="231" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B231" s="8">
         <v>44635</v>
       </c>
@@ -7492,7 +7856,7 @@
       <c r="X231" s="11"/>
       <c r="Y231" s="11"/>
     </row>
-    <row r="232" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B232" s="8">
         <v>44636</v>
       </c>
@@ -7520,7 +7884,7 @@
       <c r="X232" s="11"/>
       <c r="Y232" s="11"/>
     </row>
-    <row r="233" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B233" s="8">
         <v>44637</v>
       </c>
@@ -7548,7 +7912,7 @@
       <c r="X233" s="11"/>
       <c r="Y233" s="11"/>
     </row>
-    <row r="234" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B234" s="8">
         <v>44638</v>
       </c>
@@ -7576,7 +7940,7 @@
       <c r="X234" s="11"/>
       <c r="Y234" s="11"/>
     </row>
-    <row r="235" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B235" s="12">
         <v>44639</v>
       </c>
@@ -7604,7 +7968,7 @@
       <c r="X235" s="15"/>
       <c r="Y235" s="15"/>
     </row>
-    <row r="236" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B236" s="12">
         <v>44640</v>
       </c>
@@ -7632,7 +7996,10 @@
       <c r="X236" s="15"/>
       <c r="Y236" s="15"/>
     </row>
-    <row r="237" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>34</v>
+      </c>
       <c r="B237" s="8">
         <v>44641</v>
       </c>
@@ -7660,7 +8027,7 @@
       <c r="X237" s="11"/>
       <c r="Y237" s="11"/>
     </row>
-    <row r="238" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B238" s="8">
         <v>44642</v>
       </c>
@@ -7688,7 +8055,7 @@
       <c r="X238" s="11"/>
       <c r="Y238" s="11"/>
     </row>
-    <row r="239" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B239" s="8">
         <v>44643</v>
       </c>
@@ -7716,7 +8083,7 @@
       <c r="X239" s="11"/>
       <c r="Y239" s="11"/>
     </row>
-    <row r="240" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B240" s="8">
         <v>44644</v>
       </c>
@@ -7744,7 +8111,7 @@
       <c r="X240" s="11"/>
       <c r="Y240" s="11"/>
     </row>
-    <row r="241" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B241" s="8">
         <v>44645</v>
       </c>
@@ -7772,7 +8139,7 @@
       <c r="X241" s="11"/>
       <c r="Y241" s="11"/>
     </row>
-    <row r="242" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
         <v>44646</v>
       </c>
@@ -7800,7 +8167,7 @@
       <c r="X242" s="15"/>
       <c r="Y242" s="15"/>
     </row>
-    <row r="243" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B243" s="12">
         <v>44647</v>
       </c>
@@ -7828,7 +8195,10 @@
       <c r="X243" s="15"/>
       <c r="Y243" s="15"/>
     </row>
-    <row r="244" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>35</v>
+      </c>
       <c r="B244" s="8">
         <v>44648</v>
       </c>
@@ -7856,7 +8226,7 @@
       <c r="X244" s="11"/>
       <c r="Y244" s="11"/>
     </row>
-    <row r="245" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B245" s="8">
         <v>44649</v>
       </c>
@@ -7884,7 +8254,7 @@
       <c r="X245" s="11"/>
       <c r="Y245" s="11"/>
     </row>
-    <row r="246" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B246" s="8">
         <v>44650</v>
       </c>
@@ -7912,7 +8282,7 @@
       <c r="X246" s="11"/>
       <c r="Y246" s="11"/>
     </row>
-    <row r="247" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B247" s="8">
         <v>44651</v>
       </c>
@@ -7940,7 +8310,7 @@
       <c r="X247" s="11"/>
       <c r="Y247" s="11"/>
     </row>
-    <row r="248" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B248" s="8">
         <v>44652</v>
       </c>
@@ -7968,7 +8338,7 @@
       <c r="X248" s="11"/>
       <c r="Y248" s="11"/>
     </row>
-    <row r="249" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B249" s="12">
         <v>44653</v>
       </c>
@@ -7996,7 +8366,7 @@
       <c r="X249" s="15"/>
       <c r="Y249" s="15"/>
     </row>
-    <row r="250" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B250" s="12">
         <v>44654</v>
       </c>
@@ -8024,7 +8394,10 @@
       <c r="X250" s="15"/>
       <c r="Y250" s="15"/>
     </row>
-    <row r="251" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>36</v>
+      </c>
       <c r="B251" s="8">
         <v>44655</v>
       </c>
@@ -8052,7 +8425,7 @@
       <c r="X251" s="11"/>
       <c r="Y251" s="11"/>
     </row>
-    <row r="252" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B252" s="8">
         <v>44656</v>
       </c>
@@ -8080,7 +8453,7 @@
       <c r="X252" s="11"/>
       <c r="Y252" s="11"/>
     </row>
-    <row r="253" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B253" s="8">
         <v>44657</v>
       </c>
@@ -8108,7 +8481,7 @@
       <c r="X253" s="11"/>
       <c r="Y253" s="11"/>
     </row>
-    <row r="254" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B254" s="8">
         <v>44658</v>
       </c>
@@ -8136,7 +8509,7 @@
       <c r="X254" s="11"/>
       <c r="Y254" s="11"/>
     </row>
-    <row r="255" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B255" s="8">
         <v>44659</v>
       </c>
@@ -8164,7 +8537,7 @@
       <c r="X255" s="11"/>
       <c r="Y255" s="11"/>
     </row>
-    <row r="256" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B256" s="12">
         <v>44660</v>
       </c>
@@ -8192,7 +8565,7 @@
       <c r="X256" s="15"/>
       <c r="Y256" s="15"/>
     </row>
-    <row r="257" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B257" s="12">
         <v>44661</v>
       </c>
@@ -8220,7 +8593,10 @@
       <c r="X257" s="15"/>
       <c r="Y257" s="15"/>
     </row>
-    <row r="258" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>37</v>
+      </c>
       <c r="B258" s="8">
         <v>44662</v>
       </c>
@@ -8248,7 +8624,7 @@
       <c r="X258" s="11"/>
       <c r="Y258" s="11"/>
     </row>
-    <row r="259" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B259" s="8">
         <v>44663</v>
       </c>
@@ -8276,7 +8652,7 @@
       <c r="X259" s="11"/>
       <c r="Y259" s="11"/>
     </row>
-    <row r="260" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B260" s="8">
         <v>44664</v>
       </c>
@@ -8304,7 +8680,7 @@
       <c r="X260" s="11"/>
       <c r="Y260" s="11"/>
     </row>
-    <row r="261" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B261" s="8">
         <v>44665</v>
       </c>
@@ -8332,7 +8708,7 @@
       <c r="X261" s="11"/>
       <c r="Y261" s="11"/>
     </row>
-    <row r="262" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B262" s="8">
         <v>44666</v>
       </c>
@@ -8360,7 +8736,7 @@
       <c r="X262" s="11"/>
       <c r="Y262" s="11"/>
     </row>
-    <row r="263" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
         <v>44667</v>
       </c>
@@ -8388,7 +8764,7 @@
       <c r="X263" s="15"/>
       <c r="Y263" s="15"/>
     </row>
-    <row r="264" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B264" s="12">
         <v>44668</v>
       </c>
@@ -8416,7 +8792,10 @@
       <c r="X264" s="15"/>
       <c r="Y264" s="15"/>
     </row>
-    <row r="265" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>38</v>
+      </c>
       <c r="B265" s="8">
         <v>44669</v>
       </c>
@@ -8444,7 +8823,7 @@
       <c r="X265" s="11"/>
       <c r="Y265" s="11"/>
     </row>
-    <row r="266" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B266" s="8">
         <v>44670</v>
       </c>
@@ -8472,7 +8851,7 @@
       <c r="X266" s="11"/>
       <c r="Y266" s="11"/>
     </row>
-    <row r="267" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B267" s="8">
         <v>44671</v>
       </c>
@@ -8500,7 +8879,7 @@
       <c r="X267" s="11"/>
       <c r="Y267" s="11"/>
     </row>
-    <row r="268" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B268" s="8">
         <v>44672</v>
       </c>
@@ -8528,7 +8907,7 @@
       <c r="X268" s="11"/>
       <c r="Y268" s="11"/>
     </row>
-    <row r="269" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B269" s="8">
         <v>44673</v>
       </c>
@@ -8556,7 +8935,7 @@
       <c r="X269" s="11"/>
       <c r="Y269" s="11"/>
     </row>
-    <row r="270" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B270" s="12">
         <v>44674</v>
       </c>
@@ -8584,7 +8963,7 @@
       <c r="X270" s="15"/>
       <c r="Y270" s="15"/>
     </row>
-    <row r="271" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B271" s="12">
         <v>44675</v>
       </c>
@@ -8612,7 +8991,10 @@
       <c r="X271" s="15"/>
       <c r="Y271" s="15"/>
     </row>
-    <row r="272" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>39</v>
+      </c>
       <c r="B272" s="8">
         <v>44676</v>
       </c>
@@ -8640,7 +9022,7 @@
       <c r="X272" s="11"/>
       <c r="Y272" s="11"/>
     </row>
-    <row r="273" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B273" s="8">
         <v>44677</v>
       </c>
@@ -8668,7 +9050,7 @@
       <c r="X273" s="11"/>
       <c r="Y273" s="11"/>
     </row>
-    <row r="274" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B274" s="8">
         <v>44678</v>
       </c>
@@ -8696,7 +9078,7 @@
       <c r="X274" s="11"/>
       <c r="Y274" s="11"/>
     </row>
-    <row r="275" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B275" s="8">
         <v>44679</v>
       </c>
@@ -8724,7 +9106,7 @@
       <c r="X275" s="11"/>
       <c r="Y275" s="11"/>
     </row>
-    <row r="276" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B276" s="8">
         <v>44680</v>
       </c>
@@ -8752,7 +9134,7 @@
       <c r="X276" s="11"/>
       <c r="Y276" s="11"/>
     </row>
-    <row r="277" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
         <v>44681</v>
       </c>
@@ -8780,7 +9162,7 @@
       <c r="X277" s="15"/>
       <c r="Y277" s="15"/>
     </row>
-    <row r="278" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B278" s="12">
         <v>44682</v>
       </c>
@@ -8808,7 +9190,10 @@
       <c r="X278" s="15"/>
       <c r="Y278" s="15"/>
     </row>
-    <row r="279" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>40</v>
+      </c>
       <c r="B279" s="8">
         <v>44683</v>
       </c>
@@ -8836,7 +9221,7 @@
       <c r="X279" s="11"/>
       <c r="Y279" s="11"/>
     </row>
-    <row r="280" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B280" s="8">
         <v>44684</v>
       </c>
@@ -8864,7 +9249,7 @@
       <c r="X280" s="11"/>
       <c r="Y280" s="11"/>
     </row>
-    <row r="281" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B281" s="8">
         <v>44685</v>
       </c>
@@ -8892,7 +9277,7 @@
       <c r="X281" s="11"/>
       <c r="Y281" s="11"/>
     </row>
-    <row r="282" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B282" s="8">
         <v>44686</v>
       </c>
@@ -8920,7 +9305,7 @@
       <c r="X282" s="11"/>
       <c r="Y282" s="11"/>
     </row>
-    <row r="283" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B283" s="8">
         <v>44687</v>
       </c>
@@ -8948,7 +9333,7 @@
       <c r="X283" s="11"/>
       <c r="Y283" s="11"/>
     </row>
-    <row r="284" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B284" s="12">
         <v>44688</v>
       </c>
@@ -8976,7 +9361,7 @@
       <c r="X284" s="15"/>
       <c r="Y284" s="15"/>
     </row>
-    <row r="285" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
         <v>44689</v>
       </c>
@@ -9004,7 +9389,10 @@
       <c r="X285" s="15"/>
       <c r="Y285" s="15"/>
     </row>
-    <row r="286" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>41</v>
+      </c>
       <c r="B286" s="8">
         <v>44690</v>
       </c>
@@ -9032,7 +9420,7 @@
       <c r="X286" s="11"/>
       <c r="Y286" s="11"/>
     </row>
-    <row r="287" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B287" s="8">
         <v>44691</v>
       </c>
@@ -9060,7 +9448,7 @@
       <c r="X287" s="11"/>
       <c r="Y287" s="11"/>
     </row>
-    <row r="288" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B288" s="8">
         <v>44692</v>
       </c>
@@ -9088,7 +9476,7 @@
       <c r="X288" s="11"/>
       <c r="Y288" s="11"/>
     </row>
-    <row r="289" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B289" s="8">
         <v>44693</v>
       </c>
@@ -9116,7 +9504,7 @@
       <c r="X289" s="11"/>
       <c r="Y289" s="11"/>
     </row>
-    <row r="290" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B290" s="8">
         <v>44694</v>
       </c>
@@ -9144,7 +9532,7 @@
       <c r="X290" s="11"/>
       <c r="Y290" s="11"/>
     </row>
-    <row r="291" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B291" s="12">
         <v>44695</v>
       </c>
@@ -9172,7 +9560,7 @@
       <c r="X291" s="15"/>
       <c r="Y291" s="15"/>
     </row>
-    <row r="292" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B292" s="12">
         <v>44696</v>
       </c>
@@ -9200,7 +9588,10 @@
       <c r="X292" s="15"/>
       <c r="Y292" s="15"/>
     </row>
-    <row r="293" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>42</v>
+      </c>
       <c r="B293" s="8">
         <v>44697</v>
       </c>
@@ -9228,7 +9619,7 @@
       <c r="X293" s="11"/>
       <c r="Y293" s="11"/>
     </row>
-    <row r="294" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B294" s="8">
         <v>44698</v>
       </c>
@@ -9256,7 +9647,7 @@
       <c r="X294" s="11"/>
       <c r="Y294" s="11"/>
     </row>
-    <row r="295" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B295" s="8">
         <v>44699</v>
       </c>
@@ -9284,7 +9675,7 @@
       <c r="X295" s="11"/>
       <c r="Y295" s="11"/>
     </row>
-    <row r="296" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B296" s="8">
         <v>44700</v>
       </c>
@@ -9312,7 +9703,7 @@
       <c r="X296" s="11"/>
       <c r="Y296" s="11"/>
     </row>
-    <row r="297" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B297" s="8">
         <v>44701</v>
       </c>
@@ -9340,7 +9731,7 @@
       <c r="X297" s="11"/>
       <c r="Y297" s="11"/>
     </row>
-    <row r="298" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B298" s="12">
         <v>44702</v>
       </c>
@@ -9368,7 +9759,7 @@
       <c r="X298" s="15"/>
       <c r="Y298" s="15"/>
     </row>
-    <row r="299" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B299" s="12">
         <v>44703</v>
       </c>
@@ -9396,7 +9787,10 @@
       <c r="X299" s="15"/>
       <c r="Y299" s="15"/>
     </row>
-    <row r="300" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>43</v>
+      </c>
       <c r="B300" s="8">
         <v>44704</v>
       </c>
@@ -9424,7 +9818,7 @@
       <c r="X300" s="11"/>
       <c r="Y300" s="11"/>
     </row>
-    <row r="301" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B301" s="8">
         <v>44705</v>
       </c>
@@ -9452,7 +9846,7 @@
       <c r="X301" s="11"/>
       <c r="Y301" s="11"/>
     </row>
-    <row r="302" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B302" s="8">
         <v>44706</v>
       </c>
@@ -9480,7 +9874,7 @@
       <c r="X302" s="11"/>
       <c r="Y302" s="11"/>
     </row>
-    <row r="303" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B303" s="8">
         <v>44707</v>
       </c>
@@ -9508,7 +9902,7 @@
       <c r="X303" s="11"/>
       <c r="Y303" s="11"/>
     </row>
-    <row r="304" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B304" s="8">
         <v>44708</v>
       </c>
@@ -9536,7 +9930,7 @@
       <c r="X304" s="11"/>
       <c r="Y304" s="11"/>
     </row>
-    <row r="305" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B305" s="12">
         <v>44709</v>
       </c>
@@ -9564,7 +9958,7 @@
       <c r="X305" s="15"/>
       <c r="Y305" s="15"/>
     </row>
-    <row r="306" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B306" s="12">
         <v>44710</v>
       </c>
@@ -9592,7 +9986,10 @@
       <c r="X306" s="15"/>
       <c r="Y306" s="15"/>
     </row>
-    <row r="307" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>44</v>
+      </c>
       <c r="B307" s="8">
         <v>44711</v>
       </c>
@@ -9620,7 +10017,7 @@
       <c r="X307" s="11"/>
       <c r="Y307" s="11"/>
     </row>
-    <row r="308" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B308" s="8">
         <v>44712</v>
       </c>
@@ -9648,7 +10045,7 @@
       <c r="X308" s="11"/>
       <c r="Y308" s="11"/>
     </row>
-    <row r="309" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B309" s="8">
         <v>44713</v>
       </c>
@@ -9676,7 +10073,7 @@
       <c r="X309" s="11"/>
       <c r="Y309" s="11"/>
     </row>
-    <row r="310" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B310" s="8">
         <v>44714</v>
       </c>
@@ -9704,7 +10101,7 @@
       <c r="X310" s="11"/>
       <c r="Y310" s="11"/>
     </row>
-    <row r="311" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B311" s="8">
         <v>44715</v>
       </c>
@@ -9732,7 +10129,7 @@
       <c r="X311" s="11"/>
       <c r="Y311" s="11"/>
     </row>
-    <row r="312" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B312" s="12">
         <v>44716</v>
       </c>
@@ -9760,7 +10157,7 @@
       <c r="X312" s="15"/>
       <c r="Y312" s="15"/>
     </row>
-    <row r="313" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B313" s="12">
         <v>44717</v>
       </c>
@@ -9788,7 +10185,10 @@
       <c r="X313" s="15"/>
       <c r="Y313" s="15"/>
     </row>
-    <row r="314" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>45</v>
+      </c>
       <c r="B314" s="8">
         <v>44718</v>
       </c>
@@ -9816,7 +10216,7 @@
       <c r="X314" s="11"/>
       <c r="Y314" s="11"/>
     </row>
-    <row r="315" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B315" s="8">
         <v>44719</v>
       </c>
@@ -9844,7 +10244,7 @@
       <c r="X315" s="11"/>
       <c r="Y315" s="11"/>
     </row>
-    <row r="316" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B316" s="8">
         <v>44720</v>
       </c>
@@ -9872,7 +10272,7 @@
       <c r="X316" s="11"/>
       <c r="Y316" s="11"/>
     </row>
-    <row r="317" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B317" s="8">
         <v>44721</v>
       </c>
@@ -9900,7 +10300,7 @@
       <c r="X317" s="11"/>
       <c r="Y317" s="11"/>
     </row>
-    <row r="318" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B318" s="8">
         <v>44722</v>
       </c>
@@ -9928,7 +10328,7 @@
       <c r="X318" s="11"/>
       <c r="Y318" s="11"/>
     </row>
-    <row r="319" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B319" s="12">
         <v>44723</v>
       </c>
@@ -9956,7 +10356,7 @@
       <c r="X319" s="15"/>
       <c r="Y319" s="15"/>
     </row>
-    <row r="320" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B320" s="12">
         <v>44724</v>
       </c>
@@ -9984,7 +10384,10 @@
       <c r="X320" s="15"/>
       <c r="Y320" s="15"/>
     </row>
-    <row r="321" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>46</v>
+      </c>
       <c r="B321" s="8">
         <v>44725</v>
       </c>
@@ -10012,7 +10415,7 @@
       <c r="X321" s="11"/>
       <c r="Y321" s="11"/>
     </row>
-    <row r="322" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B322" s="8">
         <v>44726</v>
       </c>
@@ -10040,7 +10443,7 @@
       <c r="X322" s="11"/>
       <c r="Y322" s="11"/>
     </row>
-    <row r="323" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B323" s="8">
         <v>44727</v>
       </c>
@@ -10068,7 +10471,7 @@
       <c r="X323" s="11"/>
       <c r="Y323" s="11"/>
     </row>
-    <row r="324" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B324" s="8">
         <v>44728</v>
       </c>
@@ -10096,7 +10499,7 @@
       <c r="X324" s="11"/>
       <c r="Y324" s="11"/>
     </row>
-    <row r="325" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B325" s="8">
         <v>44729</v>
       </c>
@@ -10124,7 +10527,7 @@
       <c r="X325" s="11"/>
       <c r="Y325" s="11"/>
     </row>
-    <row r="326" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B326" s="12">
         <v>44730</v>
       </c>
@@ -10152,7 +10555,7 @@
       <c r="X326" s="15"/>
       <c r="Y326" s="15"/>
     </row>
-    <row r="327" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B327" s="12">
         <v>44731</v>
       </c>
@@ -10180,7 +10583,10 @@
       <c r="X327" s="15"/>
       <c r="Y327" s="15"/>
     </row>
-    <row r="328" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>47</v>
+      </c>
       <c r="B328" s="8">
         <v>44732</v>
       </c>
@@ -10208,7 +10614,7 @@
       <c r="X328" s="11"/>
       <c r="Y328" s="11"/>
     </row>
-    <row r="329" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B329" s="8">
         <v>44733</v>
       </c>
@@ -10236,7 +10642,7 @@
       <c r="X329" s="11"/>
       <c r="Y329" s="11"/>
     </row>
-    <row r="330" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B330" s="8">
         <v>44734</v>
       </c>
@@ -10264,7 +10670,7 @@
       <c r="X330" s="11"/>
       <c r="Y330" s="11"/>
     </row>
-    <row r="331" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B331" s="8">
         <v>44735</v>
       </c>
@@ -10292,7 +10698,7 @@
       <c r="X331" s="11"/>
       <c r="Y331" s="11"/>
     </row>
-    <row r="332" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B332" s="8">
         <v>44736</v>
       </c>
@@ -10320,7 +10726,7 @@
       <c r="X332" s="11"/>
       <c r="Y332" s="11"/>
     </row>
-    <row r="333" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B333" s="12">
         <v>44737</v>
       </c>
@@ -10348,7 +10754,7 @@
       <c r="X333" s="15"/>
       <c r="Y333" s="15"/>
     </row>
-    <row r="334" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B334" s="12">
         <v>44738</v>
       </c>
@@ -10376,7 +10782,10 @@
       <c r="X334" s="15"/>
       <c r="Y334" s="15"/>
     </row>
-    <row r="335" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>48</v>
+      </c>
       <c r="B335" s="8">
         <v>44739</v>
       </c>
@@ -10404,7 +10813,7 @@
       <c r="X335" s="11"/>
       <c r="Y335" s="11"/>
     </row>
-    <row r="336" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B336" s="8">
         <v>44740</v>
       </c>
@@ -10432,7 +10841,7 @@
       <c r="X336" s="11"/>
       <c r="Y336" s="11"/>
     </row>
-    <row r="337" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B337" s="8">
         <v>44741</v>
       </c>
@@ -10460,7 +10869,7 @@
       <c r="X337" s="11"/>
       <c r="Y337" s="11"/>
     </row>
-    <row r="338" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B338" s="8">
         <v>44742</v>
       </c>
@@ -10488,7 +10897,7 @@
       <c r="X338" s="11"/>
       <c r="Y338" s="11"/>
     </row>
-    <row r="339" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B339" s="8">
         <v>44743</v>
       </c>
@@ -10516,7 +10925,7 @@
       <c r="X339" s="11"/>
       <c r="Y339" s="11"/>
     </row>
-    <row r="340" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B340" s="12">
         <v>44744</v>
       </c>
@@ -10544,7 +10953,7 @@
       <c r="X340" s="15"/>
       <c r="Y340" s="15"/>
     </row>
-    <row r="341" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B341" s="12">
         <v>44745</v>
       </c>
@@ -10572,7 +10981,10 @@
       <c r="X341" s="15"/>
       <c r="Y341" s="15"/>
     </row>
-    <row r="342" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>49</v>
+      </c>
       <c r="B342" s="8">
         <v>44746</v>
       </c>
@@ -10600,7 +11012,7 @@
       <c r="X342" s="11"/>
       <c r="Y342" s="11"/>
     </row>
-    <row r="343" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B343" s="8">
         <v>44747</v>
       </c>
@@ -10628,7 +11040,7 @@
       <c r="X343" s="11"/>
       <c r="Y343" s="11"/>
     </row>
-    <row r="344" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B344" s="8">
         <v>44748</v>
       </c>
@@ -10656,7 +11068,7 @@
       <c r="X344" s="11"/>
       <c r="Y344" s="11"/>
     </row>
-    <row r="345" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B345" s="8">
         <v>44749</v>
       </c>
@@ -10684,7 +11096,7 @@
       <c r="X345" s="11"/>
       <c r="Y345" s="11"/>
     </row>
-    <row r="346" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B346" s="8">
         <v>44750</v>
       </c>
@@ -10712,7 +11124,7 @@
       <c r="X346" s="11"/>
       <c r="Y346" s="11"/>
     </row>
-    <row r="347" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B347" s="12">
         <v>44751</v>
       </c>
@@ -10740,7 +11152,7 @@
       <c r="X347" s="15"/>
       <c r="Y347" s="15"/>
     </row>
-    <row r="348" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B348" s="12">
         <v>44752</v>
       </c>
@@ -10768,7 +11180,10 @@
       <c r="X348" s="15"/>
       <c r="Y348" s="15"/>
     </row>
-    <row r="349" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>50</v>
+      </c>
       <c r="B349" s="8">
         <v>44753</v>
       </c>
@@ -10796,7 +11211,7 @@
       <c r="X349" s="11"/>
       <c r="Y349" s="11"/>
     </row>
-    <row r="350" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B350" s="8">
         <v>44754</v>
       </c>
@@ -10824,7 +11239,7 @@
       <c r="X350" s="11"/>
       <c r="Y350" s="11"/>
     </row>
-    <row r="351" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B351" s="8">
         <v>44755</v>
       </c>
@@ -10852,7 +11267,7 @@
       <c r="X351" s="11"/>
       <c r="Y351" s="11"/>
     </row>
-    <row r="352" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B352" s="8">
         <v>44756</v>
       </c>
@@ -10880,7 +11295,7 @@
       <c r="X352" s="11"/>
       <c r="Y352" s="11"/>
     </row>
-    <row r="353" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B353" s="8">
         <v>44757</v>
       </c>
@@ -10908,7 +11323,7 @@
       <c r="X353" s="11"/>
       <c r="Y353" s="11"/>
     </row>
-    <row r="354" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B354" s="12">
         <v>44758</v>
       </c>
@@ -10936,7 +11351,7 @@
       <c r="X354" s="15"/>
       <c r="Y354" s="15"/>
     </row>
-    <row r="355" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B355" s="12">
         <v>44759</v>
       </c>
@@ -10964,7 +11379,10 @@
       <c r="X355" s="15"/>
       <c r="Y355" s="15"/>
     </row>
-    <row r="356" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>51</v>
+      </c>
       <c r="B356" s="8">
         <v>44760</v>
       </c>
@@ -10992,7 +11410,7 @@
       <c r="X356" s="11"/>
       <c r="Y356" s="11"/>
     </row>
-    <row r="357" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B357" s="8">
         <v>44761</v>
       </c>
@@ -11020,7 +11438,7 @@
       <c r="X357" s="11"/>
       <c r="Y357" s="11"/>
     </row>
-    <row r="358" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B358" s="8">
         <v>44762</v>
       </c>
@@ -11048,7 +11466,7 @@
       <c r="X358" s="11"/>
       <c r="Y358" s="11"/>
     </row>
-    <row r="359" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B359" s="8">
         <v>44763</v>
       </c>
@@ -11076,7 +11494,7 @@
       <c r="X359" s="11"/>
       <c r="Y359" s="11"/>
     </row>
-    <row r="360" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B360" s="8">
         <v>44764</v>
       </c>
@@ -11104,7 +11522,7 @@
       <c r="X360" s="11"/>
       <c r="Y360" s="11"/>
     </row>
-    <row r="361" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B361" s="12">
         <v>44765</v>
       </c>
@@ -11132,7 +11550,7 @@
       <c r="X361" s="15"/>
       <c r="Y361" s="15"/>
     </row>
-    <row r="362" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B362" s="12">
         <v>44766</v>
       </c>
@@ -11160,7 +11578,10 @@
       <c r="X362" s="15"/>
       <c r="Y362" s="15"/>
     </row>
-    <row r="363" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>52</v>
+      </c>
       <c r="B363" s="8">
         <v>44767</v>
       </c>
@@ -11188,7 +11609,7 @@
       <c r="X363" s="11"/>
       <c r="Y363" s="11"/>
     </row>
-    <row r="364" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B364" s="8">
         <v>44768</v>
       </c>
@@ -11216,7 +11637,7 @@
       <c r="X364" s="11"/>
       <c r="Y364" s="11"/>
     </row>
-    <row r="365" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B365" s="8">
         <v>44769</v>
       </c>
@@ -11244,7 +11665,7 @@
       <c r="X365" s="11"/>
       <c r="Y365" s="11"/>
     </row>
-    <row r="366" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B366" s="8">
         <v>44770</v>
       </c>
@@ -11272,7 +11693,7 @@
       <c r="X366" s="11"/>
       <c r="Y366" s="11"/>
     </row>
-    <row r="367" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B367" s="8">
         <v>44771</v>
       </c>
@@ -11300,7 +11721,7 @@
       <c r="X367" s="11"/>
       <c r="Y367" s="11"/>
     </row>
-    <row r="368" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B368" s="12">
         <v>44772</v>
       </c>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -552,6 +552,15 @@
       </rPr>
       <t xml:space="preserve"> krank</t>
     </r>
+  </si>
+  <si>
+    <t>Bads und Boards sichern, Teammeeting Protokoll ablegen, OEP: Modelfactsheets ergänzen, Recherche und Einkauf von Sachspenden des RLI für die Ukraine</t>
+  </si>
+  <si>
+    <t>Einkauf von Sachspenden, Vorbereitung von Paketen und Geschenken, andere Orga</t>
+  </si>
+  <si>
+    <t>OEP: Model Factsheets ergänzen, Bestandsaufnahme der Büros für neues Raumbuchungstool, Orga Geburtstagsgruppen</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C371" sqref="C371"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7462,7 +7471,9 @@
       <c r="B218" s="8">
         <v>44622</v>
       </c>
-      <c r="C218" s="9"/>
+      <c r="C218" s="16" t="s">
+        <v>156</v>
+      </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
@@ -7490,7 +7501,9 @@
       <c r="B219" s="8">
         <v>44623</v>
       </c>
-      <c r="C219" s="9"/>
+      <c r="C219" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
@@ -7518,7 +7531,9 @@
       <c r="B220" s="8">
         <v>44624</v>
       </c>
-      <c r="C220" s="9"/>
+      <c r="C220" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="192">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -561,6 +561,105 @@
   </si>
   <si>
     <t>OEP: Model Factsheets ergänzen, Bestandsaufnahme der Büros für neues Raumbuchungstool, Orga Geburtstagsgruppen</t>
+  </si>
+  <si>
+    <t>Teilnehmende  bei open_BEA Workshops in Latex-Tabelle eintragen, Orte für Mobi Tagung suchen/kontaktieren, Einkauf für Küche</t>
+  </si>
+  <si>
+    <t>Vorbereitung Frauenfrühstück, Teilnehmende  bei open_BEA Workshops in Latex-Tabelle eintragen, Orte für Mobi Tagung suchen/kontaktieren</t>
+  </si>
+  <si>
+    <t>Einkauf für Frauenfrühstück, Teammeeting, Follow-Up Jahresziele</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Erstellung PPP für European Solar Diversity Champion Award, Pads und Boards sichern, Jubiläumskarten im Copyshop drucken</t>
+  </si>
+  <si>
+    <t>Webinar Studiumsorienterung, Orga im Büro</t>
+  </si>
+  <si>
+    <t>Pads und boards sichern, Projektreport organisieren und vorbereiten, Vertretung für Empfangsbüro: Post, Pakete, Telefonate, …</t>
+  </si>
+  <si>
+    <t>OEP: Model Factsheets ergänzen, Vertretung im Empfangsbüro</t>
+  </si>
+  <si>
+    <t>Vertretung am Empfang: Post, Rechnungen, Einkäufe, …; OEP: Modelfactsheets ergänzen; Recherche für Terassenmöbel; Orga TUEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertretung am Empfang: Post, Rechnungen, Einkäufe, …; Orga/Einkauf Abschiedsgeschenk Lena; Karten abholen im Copyshop; Planung der Mobi Tagung </t>
+  </si>
+  <si>
+    <t>Fridays for Future Global Demo</t>
+  </si>
+  <si>
+    <t>Vertretung am Empfang: Post, Rechnungen, Einkäufe, …; Teammeeting Protokoll ablegen; Bestellung Terassenmöbel</t>
+  </si>
+  <si>
+    <t>Seminar Wattenmeer ("Gute Führungen")</t>
+  </si>
+  <si>
+    <t>Ostern</t>
+  </si>
+  <si>
+    <t>"Teamevent" Beachvolleyball, Pads und Boards ablegen, OEP Modelfactsheets, DNR Recherche: Annahmen im KOM-Entwurf</t>
+  </si>
+  <si>
+    <t>Teammeeting, Teammeeting Nachbereitung, Update Recherche DNR</t>
+  </si>
+  <si>
+    <t>Teammeeting, Teammeeting Nachbereitung, kleine To Dos aufarbeiten, alles auf neusten Stand bringen, DNR Recherche: EE-Anteil in DE/EU 2030</t>
+  </si>
+  <si>
+    <t>Projektreport inklusive Vor- und Nachbereitung, Ausarbeitung schriftlicher Entwurf für DNR Recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_BEA Abschlussbericht drucken und binden, </t>
+  </si>
+  <si>
+    <t>Finalisierung der Excel für DNR Recherche, OEP Modelfactsheets aktualisieren, Vorbereitung der open_BEA Abschlussdokumente für Projektträger</t>
+  </si>
+  <si>
+    <t>Abschiedskarte für Peter designen und erstellen, Unterschriften einholen</t>
+  </si>
+  <si>
+    <t>DNR Recherche: Anteil des Stromsektors in DE 2030, Recherche Wärme Visualisierngstools</t>
+  </si>
+  <si>
+    <t>Vorbereitung Angebot CO2 in der EU und in Deutschland</t>
+  </si>
+  <si>
+    <t>Vertretung am Empfang: Post, Rechnungen, Einkäufe, …; Abschied Lena; Studi Ausschreibung anpassen und einreichen</t>
+  </si>
+  <si>
+    <t>DNR Recherche: EU KOM-Entwurf, open_BEA Abschlussbericht Verweise und Quellen fixen/anpassen</t>
+  </si>
+  <si>
+    <t>Besprechung DNR Recherche: EE-Anteil in DE/EU 2030 + Verteilung der Aufgaben mit Miriam, Büro Orga, Dienstreisekostenabrechnung</t>
+  </si>
+  <si>
+    <t>Einkauf Geschenke, Feedbackgespräch mit Editha, Aufräumen der Mails und Festplatte</t>
+  </si>
+  <si>
+    <t>Teeammeeting, Teammeeting Nachbereitung, Einkauf fürs Büro, OEP Modelfactsheets ergänzen</t>
+  </si>
+  <si>
+    <t>DNR Recherche: Berechnung der Energieverbrauchs Sektoren in DE + EE-Anteil</t>
+  </si>
+  <si>
+    <t>Kick-Off RLIED, Suche nach Leitstudien für DNR Recherche</t>
+  </si>
+  <si>
+    <t>Geburtstagsgruppen Orga, DNR Recherche: Zusammenfassung aktueller Stand, Erstellung von Tabellen zur Berechnung</t>
+  </si>
+  <si>
+    <t>Einkauf für Externe Gäste, Vorbereitung RLS-Strategietag, Final Update DNR Recherche, Aufarbeitung Tagebuch, Recherche überstezen</t>
+  </si>
+  <si>
+    <t>Büro von Veranstaltung aufräumen, OEP Modelfactsheets ergänzen, OEP Absprache, Stundenzettel 202 1aufarbeiten/kontrollieren</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7620,7 +7719,9 @@
       <c r="B223" s="8">
         <v>44627</v>
       </c>
-      <c r="C223" s="9"/>
+      <c r="C223" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
@@ -7648,7 +7749,9 @@
       <c r="B224" s="8">
         <v>44628</v>
       </c>
-      <c r="C224" s="9"/>
+      <c r="C224" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
@@ -7676,7 +7779,9 @@
       <c r="B225" s="8">
         <v>44629</v>
       </c>
-      <c r="C225" s="9"/>
+      <c r="C225" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
@@ -7704,7 +7809,9 @@
       <c r="B226" s="8">
         <v>44630</v>
       </c>
-      <c r="C226" s="9"/>
+      <c r="C226" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
@@ -7732,7 +7839,9 @@
       <c r="B227" s="8">
         <v>44631</v>
       </c>
-      <c r="C227" s="9"/>
+      <c r="C227" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
@@ -7819,7 +7928,9 @@
       <c r="B230" s="8">
         <v>44634</v>
       </c>
-      <c r="C230" s="9"/>
+      <c r="C230" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
@@ -7847,7 +7958,9 @@
       <c r="B231" s="8">
         <v>44635</v>
       </c>
-      <c r="C231" s="9"/>
+      <c r="C231" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
@@ -7875,7 +7988,9 @@
       <c r="B232" s="8">
         <v>44636</v>
       </c>
-      <c r="C232" s="9"/>
+      <c r="C232" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
@@ -7903,7 +8018,9 @@
       <c r="B233" s="8">
         <v>44637</v>
       </c>
-      <c r="C233" s="9"/>
+      <c r="C233" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
@@ -7931,7 +8048,9 @@
       <c r="B234" s="8">
         <v>44638</v>
       </c>
-      <c r="C234" s="9"/>
+      <c r="C234" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
@@ -8018,7 +8137,9 @@
       <c r="B237" s="8">
         <v>44641</v>
       </c>
-      <c r="C237" s="9"/>
+      <c r="C237" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
@@ -8046,7 +8167,9 @@
       <c r="B238" s="8">
         <v>44642</v>
       </c>
-      <c r="C238" s="9"/>
+      <c r="C238" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
@@ -8074,7 +8197,9 @@
       <c r="B239" s="8">
         <v>44643</v>
       </c>
-      <c r="C239" s="9"/>
+      <c r="C239" s="16" t="s">
+        <v>170</v>
+      </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
@@ -8102,7 +8227,9 @@
       <c r="B240" s="8">
         <v>44644</v>
       </c>
-      <c r="C240" s="9"/>
+      <c r="C240" s="16" t="s">
+        <v>182</v>
+      </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
@@ -8130,7 +8257,9 @@
       <c r="B241" s="8">
         <v>44645</v>
       </c>
-      <c r="C241" s="9"/>
+      <c r="C241" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
@@ -8217,7 +8346,9 @@
       <c r="B244" s="8">
         <v>44648</v>
       </c>
-      <c r="C244" s="9"/>
+      <c r="C244" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
@@ -8245,7 +8376,9 @@
       <c r="B245" s="8">
         <v>44649</v>
       </c>
-      <c r="C245" s="9"/>
+      <c r="C245" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
@@ -8273,7 +8406,9 @@
       <c r="B246" s="8">
         <v>44650</v>
       </c>
-      <c r="C246" s="9"/>
+      <c r="C246" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
@@ -8301,7 +8436,9 @@
       <c r="B247" s="8">
         <v>44651</v>
       </c>
-      <c r="C247" s="9"/>
+      <c r="C247" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
@@ -8329,7 +8466,9 @@
       <c r="B248" s="8">
         <v>44652</v>
       </c>
-      <c r="C248" s="9"/>
+      <c r="C248" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
@@ -8416,7 +8555,9 @@
       <c r="B251" s="8">
         <v>44655</v>
       </c>
-      <c r="C251" s="9"/>
+      <c r="C251" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
@@ -8444,7 +8585,9 @@
       <c r="B252" s="8">
         <v>44656</v>
       </c>
-      <c r="C252" s="9"/>
+      <c r="C252" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
@@ -8472,7 +8615,9 @@
       <c r="B253" s="8">
         <v>44657</v>
       </c>
-      <c r="C253" s="9"/>
+      <c r="C253" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
@@ -8500,7 +8645,9 @@
       <c r="B254" s="8">
         <v>44658</v>
       </c>
-      <c r="C254" s="9"/>
+      <c r="C254" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
@@ -8528,7 +8675,9 @@
       <c r="B255" s="8">
         <v>44659</v>
       </c>
-      <c r="C255" s="9"/>
+      <c r="C255" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
@@ -8615,7 +8764,9 @@
       <c r="B258" s="8">
         <v>44662</v>
       </c>
-      <c r="C258" s="9"/>
+      <c r="C258" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
@@ -8643,7 +8794,9 @@
       <c r="B259" s="8">
         <v>44663</v>
       </c>
-      <c r="C259" s="9"/>
+      <c r="C259" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
@@ -8671,7 +8824,9 @@
       <c r="B260" s="8">
         <v>44664</v>
       </c>
-      <c r="C260" s="9"/>
+      <c r="C260" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
@@ -8699,7 +8854,9 @@
       <c r="B261" s="8">
         <v>44665</v>
       </c>
-      <c r="C261" s="9"/>
+      <c r="C261" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
@@ -8727,7 +8884,9 @@
       <c r="B262" s="8">
         <v>44666</v>
       </c>
-      <c r="C262" s="9"/>
+      <c r="C262" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
@@ -8814,7 +8973,9 @@
       <c r="B265" s="8">
         <v>44669</v>
       </c>
-      <c r="C265" s="9"/>
+      <c r="C265" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
@@ -8842,7 +9003,9 @@
       <c r="B266" s="8">
         <v>44670</v>
       </c>
-      <c r="C266" s="9"/>
+      <c r="C266" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
@@ -8870,7 +9033,9 @@
       <c r="B267" s="8">
         <v>44671</v>
       </c>
-      <c r="C267" s="9"/>
+      <c r="C267" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
@@ -8898,7 +9063,9 @@
       <c r="B268" s="8">
         <v>44672</v>
       </c>
-      <c r="C268" s="9"/>
+      <c r="C268" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
@@ -8926,7 +9093,9 @@
       <c r="B269" s="8">
         <v>44673</v>
       </c>
-      <c r="C269" s="9"/>
+      <c r="C269" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
@@ -9013,7 +9182,9 @@
       <c r="B272" s="8">
         <v>44676</v>
       </c>
-      <c r="C272" s="9"/>
+      <c r="C272" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
@@ -9041,7 +9212,9 @@
       <c r="B273" s="8">
         <v>44677</v>
       </c>
-      <c r="C273" s="9"/>
+      <c r="C273" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
@@ -9069,7 +9242,9 @@
       <c r="B274" s="8">
         <v>44678</v>
       </c>
-      <c r="C274" s="9"/>
+      <c r="C274" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
@@ -9097,7 +9272,9 @@
       <c r="B275" s="8">
         <v>44679</v>
       </c>
-      <c r="C275" s="9"/>
+      <c r="C275" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
@@ -9125,7 +9302,9 @@
       <c r="B276" s="8">
         <v>44680</v>
       </c>
-      <c r="C276" s="9"/>
+      <c r="C276" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
@@ -9212,7 +9391,9 @@
       <c r="B279" s="8">
         <v>44683</v>
       </c>
-      <c r="C279" s="9"/>
+      <c r="C279" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
@@ -9240,7 +9421,9 @@
       <c r="B280" s="8">
         <v>44684</v>
       </c>
-      <c r="C280" s="9"/>
+      <c r="C280" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
@@ -9268,7 +9451,9 @@
       <c r="B281" s="8">
         <v>44685</v>
       </c>
-      <c r="C281" s="9"/>
+      <c r="C281" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
@@ -9296,7 +9481,9 @@
       <c r="B282" s="8">
         <v>44686</v>
       </c>
-      <c r="C282" s="9"/>
+      <c r="C282" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
@@ -9324,7 +9511,9 @@
       <c r="B283" s="8">
         <v>44687</v>
       </c>
-      <c r="C283" s="9"/>
+      <c r="C283" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>

--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="225">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -660,6 +660,105 @@
   </si>
   <si>
     <t>Büro von Veranstaltung aufräumen, OEP Modelfactsheets ergänzen, OEP Absprache, Stundenzettel 202 1aufarbeiten/kontrollieren</t>
+  </si>
+  <si>
+    <t>Seminar "How will we work together?"</t>
+  </si>
+  <si>
+    <t>DNR Recherche Ausarbeitung mit Editha</t>
+  </si>
+  <si>
+    <t>Meeting in the Park; Teammeeting; Finalisierung Recherche DNR (Formulierungen, Zahlen, Layout anpassen)</t>
+  </si>
+  <si>
+    <t>Inhalt für OEP project pages hinzugefügt + push zum Repository, Absprache mit Jonas</t>
+  </si>
+  <si>
+    <t>Himmelfahrt</t>
+  </si>
+  <si>
+    <t>EnArgus Recherche: Projekte zur Wärmende, Teammeeting, Abschied Peter, Absprache OEP Aufgaben mit Ludwig</t>
+  </si>
+  <si>
+    <t>Update RLIED Meeting, EnArgus Recherche, Nachbereitung Teammeeting</t>
+  </si>
+  <si>
+    <t>Inhalt für OEP project pages hinzugefügt, Projektreport + Vor- und Nachbereitung, Einkauf Corona-Schnelltests</t>
+  </si>
+  <si>
+    <t>Inhalt für OEP project pages hinzugefügt, Orga Meeting Christmas-summer-party, Plakat-Druck im Copyshop</t>
+  </si>
+  <si>
+    <t>GitHub, GitBash</t>
+  </si>
+  <si>
+    <t>Vorbereitungen für OEP Aufgabe: clone oep repository, branch ... , Vorbereitung Projektreport</t>
+  </si>
+  <si>
+    <t>Vorbereitung Veranstaltung im Konfi, Einkauf, Orga im Büro</t>
+  </si>
+  <si>
+    <t>Geburtstagskarte Christine basteln + Geschenk vorbereiten, Einkauf Büro</t>
+  </si>
+  <si>
+    <t>Geburtstagskarten malen, Haupttätigkeiten für Zeugnis gesammelt</t>
+  </si>
+  <si>
+    <t>Besorgungen im Büro, Projektreffen eGo^n, Geburtstagskarten designen</t>
+  </si>
+  <si>
+    <t>Balkenplan für Vollantrag, Teammeeting + Protokoll ablegen</t>
+  </si>
+  <si>
+    <t>Kontaktliste für PV- und Windflächenrechner erstellen</t>
+  </si>
+  <si>
+    <t>Unterstützung MODEX Abschlussbericht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balkenplan für Vollantrag, Orga für Projekttreffen eGo^n </t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier + Vorereitung und Aufbau, Einkäufe, Transport, Deko, …</t>
+  </si>
+  <si>
+    <t>Einarbeitung Jette, Erstellung einer Kontaktliste für Timo mit Recherche der Kontaktdaten</t>
+  </si>
+  <si>
+    <t>Bildschirmvorsorge, Unterstützung MODEX Abschlussbericht, Party Orga: final check</t>
+  </si>
+  <si>
+    <t>Seminar: Nationalpark Harz entdecken</t>
+  </si>
+  <si>
+    <t>Teammeeting Protokoll ins Pad und Wiki übertragen; Recherche eGo^n</t>
+  </si>
+  <si>
+    <t>Recherche eGo^n</t>
+  </si>
+  <si>
+    <t>Orga und Einkäufe im Büro, Geburtstagskarte malen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachbereitung Weihnachtsfeier, Aktualisierung Tagebuch </t>
+  </si>
+  <si>
+    <t>FlexMex Abschlussbericht und -dokumente gedruckt, gebunden, Unterschriften gesammelt</t>
+  </si>
+  <si>
+    <t>Balkenplan für Vollantrag Auswerten und Kontrollsummen bilden, FlexMex Abschlussdokumente fertiggestellt und versendet</t>
+  </si>
+  <si>
+    <t>MODEX Abschlussbericht und -dokumente gedruckt, gebunden, Unterschriften gesammelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektreport inklusive Vor- und Nachbereitung, MODEX Abschlussdokumente fertiggestellt und verschickt </t>
+  </si>
+  <si>
+    <t>Teammeeting + Protokoll ablegen, UMAS Quellen in Latex und Zotero einfügen</t>
+  </si>
+  <si>
+    <t>UMAS Quellen, Meeting: Update RLIED, Vorbereitung Weihnachtsfeier</t>
   </si>
 </sst>
 </file>
@@ -818,7 +917,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1"/>
@@ -843,6 +942,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -1128,10 +1228,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J331" sqref="J331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9600,7 +9703,9 @@
       <c r="B286" s="8">
         <v>44690</v>
       </c>
-      <c r="C286" s="9"/>
+      <c r="C286" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
@@ -9628,7 +9733,9 @@
       <c r="B287" s="8">
         <v>44691</v>
       </c>
-      <c r="C287" s="9"/>
+      <c r="C287" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
@@ -9656,7 +9763,9 @@
       <c r="B288" s="8">
         <v>44692</v>
       </c>
-      <c r="C288" s="9"/>
+      <c r="C288" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
@@ -9684,7 +9793,9 @@
       <c r="B289" s="8">
         <v>44693</v>
       </c>
-      <c r="C289" s="9"/>
+      <c r="C289" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
@@ -9712,7 +9823,9 @@
       <c r="B290" s="8">
         <v>44694</v>
       </c>
-      <c r="C290" s="9"/>
+      <c r="C290" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
@@ -9799,7 +9912,9 @@
       <c r="B293" s="8">
         <v>44697</v>
       </c>
-      <c r="C293" s="9"/>
+      <c r="C293" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
@@ -9827,7 +9942,9 @@
       <c r="B294" s="8">
         <v>44698</v>
       </c>
-      <c r="C294" s="9"/>
+      <c r="C294" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
@@ -9855,7 +9972,9 @@
       <c r="B295" s="8">
         <v>44699</v>
       </c>
-      <c r="C295" s="9"/>
+      <c r="C295" s="16" t="s">
+        <v>215</v>
+      </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
@@ -9883,7 +10002,9 @@
       <c r="B296" s="8">
         <v>44700</v>
       </c>
-      <c r="C296" s="9"/>
+      <c r="C296" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
@@ -9911,7 +10032,9 @@
       <c r="B297" s="8">
         <v>44701</v>
       </c>
-      <c r="C297" s="9"/>
+      <c r="C297" s="16" t="s">
+        <v>204</v>
+      </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
@@ -9998,7 +10121,9 @@
       <c r="B300" s="8">
         <v>44704</v>
       </c>
-      <c r="C300" s="9"/>
+      <c r="C300" s="16" t="s">
+        <v>203</v>
+      </c>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
@@ -10010,7 +10135,7 @@
       <c r="L300" s="9"/>
       <c r="M300" s="9"/>
       <c r="N300" s="9"/>
-      <c r="O300" s="10"/>
+      <c r="O300" s="18"/>
       <c r="P300" s="10"/>
       <c r="Q300" s="10"/>
       <c r="R300" s="10"/>
@@ -10026,7 +10151,9 @@
       <c r="B301" s="8">
         <v>44705</v>
       </c>
-      <c r="C301" s="9"/>
+      <c r="C301" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
@@ -10054,7 +10181,9 @@
       <c r="B302" s="8">
         <v>44706</v>
       </c>
-      <c r="C302" s="9"/>
+      <c r="C302" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
@@ -10082,7 +10211,9 @@
       <c r="B303" s="8">
         <v>44707</v>
       </c>
-      <c r="C303" s="9"/>
+      <c r="C303" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
@@ -10110,7 +10241,9 @@
       <c r="B304" s="8">
         <v>44708</v>
       </c>
-      <c r="C304" s="9"/>
+      <c r="C304" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
@@ -10197,7 +10330,9 @@
       <c r="B307" s="8">
         <v>44711</v>
       </c>
-      <c r="C307" s="9"/>
+      <c r="C307" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
@@ -10209,7 +10344,9 @@
       <c r="L307" s="9"/>
       <c r="M307" s="9"/>
       <c r="N307" s="9"/>
-      <c r="O307" s="10"/>
+      <c r="O307" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="P307" s="10"/>
       <c r="Q307" s="10"/>
       <c r="R307" s="10"/>
@@ -10225,7 +10362,9 @@
       <c r="B308" s="8">
         <v>44712</v>
       </c>
-      <c r="C308" s="9"/>
+      <c r="C308" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
@@ -10237,7 +10376,9 @@
       <c r="L308" s="9"/>
       <c r="M308" s="9"/>
       <c r="N308" s="9"/>
-      <c r="O308" s="10"/>
+      <c r="O308" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="P308" s="10"/>
       <c r="Q308" s="10"/>
       <c r="R308" s="10"/>
@@ -10253,7 +10394,9 @@
       <c r="B309" s="8">
         <v>44713</v>
       </c>
-      <c r="C309" s="9"/>
+      <c r="C309" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
@@ -10265,7 +10408,9 @@
       <c r="L309" s="9"/>
       <c r="M309" s="9"/>
       <c r="N309" s="9"/>
-      <c r="O309" s="10"/>
+      <c r="O309" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="P309" s="10"/>
       <c r="Q309" s="10"/>
       <c r="R309" s="10"/>
@@ -10281,7 +10426,9 @@
       <c r="B310" s="8">
         <v>44714</v>
       </c>
-      <c r="C310" s="9"/>
+      <c r="C310" s="16" t="s">
+        <v>195</v>
+      </c>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
@@ -10293,7 +10440,9 @@
       <c r="L310" s="9"/>
       <c r="M310" s="9"/>
       <c r="N310" s="9"/>
-      <c r="O310" s="10"/>
+      <c r="O310" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="P310" s="10"/>
       <c r="Q310" s="10"/>
       <c r="R310" s="10"/>
@@ -10309,7 +10458,9 @@
       <c r="B311" s="8">
         <v>44715</v>
       </c>
-      <c r="C311" s="9"/>
+      <c r="C311" s="16" t="s">
+        <v>217</v>
+      </c>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -10396,7 +10547,9 @@
       <c r="B314" s="8">
         <v>44718</v>
       </c>
-      <c r="C314" s="9"/>
+      <c r="C314" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
@@ -10424,7 +10577,9 @@
       <c r="B315" s="8">
         <v>44719</v>
       </c>
-      <c r="C315" s="9"/>
+      <c r="C315" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
@@ -10452,7 +10607,9 @@
       <c r="B316" s="8">
         <v>44720</v>
       </c>
-      <c r="C316" s="9"/>
+      <c r="C316" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
@@ -10480,7 +10637,9 @@
       <c r="B317" s="8">
         <v>44721</v>
       </c>
-      <c r="C317" s="9"/>
+      <c r="C317" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
@@ -10508,7 +10667,9 @@
       <c r="B318" s="8">
         <v>44722</v>
       </c>
-      <c r="C318" s="9"/>
+      <c r="C318" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
@@ -10536,7 +10697,9 @@
       <c r="B319" s="12">
         <v>44723</v>
       </c>
-      <c r="C319" s="13"/>
+      <c r="C319" s="24" t="s">
+        <v>214</v>
+      </c>
       <c r="D319" s="13"/>
       <c r="E319" s="13"/>
       <c r="F319" s="13"/>
@@ -10595,7 +10758,9 @@
       <c r="B321" s="8">
         <v>44725</v>
       </c>
-      <c r="C321" s="9"/>
+      <c r="C321" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
@@ -10623,7 +10788,9 @@
       <c r="B322" s="8">
         <v>44726</v>
       </c>
-      <c r="C322" s="9"/>
+      <c r="C322" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
@@ -10651,7 +10818,9 @@
       <c r="B323" s="8">
         <v>44727</v>
       </c>
-      <c r="C323" s="9"/>
+      <c r="C323" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
@@ -10679,7 +10848,9 @@
       <c r="B324" s="8">
         <v>44728</v>
       </c>
-      <c r="C324" s="9"/>
+      <c r="C324" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
@@ -10707,7 +10878,9 @@
       <c r="B325" s="8">
         <v>44729</v>
       </c>
-      <c r="C325" s="9"/>
+      <c r="C325" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
@@ -10794,7 +10967,9 @@
       <c r="B328" s="8">
         <v>44732</v>
       </c>
-      <c r="C328" s="9"/>
+      <c r="C328" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
@@ -10822,7 +10997,9 @@
       <c r="B329" s="8">
         <v>44733</v>
       </c>
-      <c r="C329" s="9"/>
+      <c r="C329" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
       <c r="F329" s="9"/>
@@ -10850,7 +11027,9 @@
       <c r="B330" s="8">
         <v>44734</v>
       </c>
-      <c r="C330" s="9"/>
+      <c r="C330" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
       <c r="F330" s="9"/>
@@ -10878,7 +11057,9 @@
       <c r="B331" s="8">
         <v>44735</v>
       </c>
-      <c r="C331" s="9"/>
+      <c r="C331" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
       <c r="F331" s="9"/>
@@ -10906,7 +11087,9 @@
       <c r="B332" s="8">
         <v>44736</v>
       </c>
-      <c r="C332" s="9"/>
+      <c r="C332" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
       <c r="F332" s="9"/>
@@ -10993,7 +11176,9 @@
       <c r="B335" s="8">
         <v>44739</v>
       </c>
-      <c r="C335" s="9"/>
+      <c r="C335" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="D335" s="9"/>
       <c r="E335" s="9"/>
       <c r="F335" s="9"/>
@@ -11021,7 +11206,9 @@
       <c r="B336" s="8">
         <v>44740</v>
       </c>
-      <c r="C336" s="9"/>
+      <c r="C336" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="D336" s="9"/>
       <c r="E336" s="9"/>
       <c r="F336" s="9"/>
@@ -11049,7 +11236,9 @@
       <c r="B337" s="8">
         <v>44741</v>
       </c>
-      <c r="C337" s="9"/>
+      <c r="C337" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="D337" s="9"/>
       <c r="E337" s="9"/>
       <c r="F337" s="9"/>
@@ -11077,7 +11266,9 @@
       <c r="B338" s="8">
         <v>44742</v>
       </c>
-      <c r="C338" s="9"/>
+      <c r="C338" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="D338" s="9"/>
       <c r="E338" s="9"/>
       <c r="F338" s="9"/>
@@ -11105,7 +11296,9 @@
       <c r="B339" s="8">
         <v>44743</v>
       </c>
-      <c r="C339" s="9"/>
+      <c r="C339" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="D339" s="9"/>
       <c r="E339" s="9"/>
       <c r="F339" s="9"/>
@@ -11192,7 +11385,9 @@
       <c r="B342" s="8">
         <v>44746</v>
       </c>
-      <c r="C342" s="9"/>
+      <c r="C342" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="D342" s="9"/>
       <c r="E342" s="9"/>
       <c r="F342" s="9"/>
@@ -11220,7 +11415,9 @@
       <c r="B343" s="8">
         <v>44747</v>
       </c>
-      <c r="C343" s="9"/>
+      <c r="C343" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="D343" s="9"/>
       <c r="E343" s="9"/>
       <c r="F343" s="9"/>
@@ -11248,7 +11445,9 @@
       <c r="B344" s="8">
         <v>44748</v>
       </c>
-      <c r="C344" s="9"/>
+      <c r="C344" s="16" t="s">
+        <v>212</v>
+      </c>
       <c r="D344" s="9"/>
       <c r="E344" s="9"/>
       <c r="F344" s="9"/>
@@ -11276,7 +11475,9 @@
       <c r="B345" s="8">
         <v>44749</v>
       </c>
-      <c r="C345" s="9"/>
+      <c r="C345" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="D345" s="9"/>
       <c r="E345" s="9"/>
       <c r="F345" s="9"/>
@@ -11304,7 +11505,9 @@
       <c r="B346" s="8">
         <v>44750</v>
       </c>
-      <c r="C346" s="9"/>
+      <c r="C346" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="D346" s="9"/>
       <c r="E346" s="9"/>
       <c r="F346" s="9"/>
@@ -11955,6 +12158,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bufdi_Tagebuch.xlsx
+++ b/Bufdi_Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="231">
   <si>
     <t>Bufdi Tagebuch</t>
   </si>
@@ -759,6 +759,43 @@
   </si>
   <si>
     <t>UMAS Quellen, Meeting: Update RLIED, Vorbereitung Weihnachtsfeier</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meeting in the Park</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, vorher Einkauf für Picknick</t>
+    </r>
+  </si>
+  <si>
+    <t>Geburtstagskarte Kerstin basten, Accounts sichern, Ordner sortieren/leeren</t>
+  </si>
+  <si>
+    <t>Abschlussgespräch, Verantwortungen/Aufgaben abgeben/deligieren, Orga Vertrag für Herbst</t>
+  </si>
+  <si>
+    <t>Teammeeting; Links, Passwörter, Daten sichern, Check-Out Laufzettel</t>
+  </si>
+  <si>
+    <t>Orga Teammeeting, Protokolle auf den neusten Stand bringen, aktualisieren, Karten malen</t>
+  </si>
+  <si>
+    <t>Unterkunft für Teammeeting recherchieren/kontaktieren, Übergabe organisieren</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1270,8 @@
   </sheetPr>
   <dimension ref="A3:Y368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J331" sqref="J331"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11594,7 +11631,9 @@
       <c r="B349" s="8">
         <v>44753</v>
       </c>
-      <c r="C349" s="9"/>
+      <c r="C349" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
       <c r="F349" s="9"/>
@@ -11622,7 +11661,9 @@
       <c r="B350" s="8">
         <v>44754</v>
       </c>
-      <c r="C350" s="9"/>
+      <c r="C350" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="D350" s="9"/>
       <c r="E350" s="9"/>
       <c r="F350" s="9"/>
@@ -11650,7 +11691,9 @@
       <c r="B351" s="8">
         <v>44755</v>
       </c>
-      <c r="C351" s="9"/>
+      <c r="C351" s="16" t="s">
+        <v>225</v>
+      </c>
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
       <c r="F351" s="9"/>
@@ -11678,7 +11721,9 @@
       <c r="B352" s="8">
         <v>44756</v>
       </c>
-      <c r="C352" s="9"/>
+      <c r="C352" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
       <c r="F352" s="9"/>
@@ -11706,7 +11751,9 @@
       <c r="B353" s="8">
         <v>44757</v>
       </c>
-      <c r="C353" s="9"/>
+      <c r="C353" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="D353" s="9"/>
       <c r="E353" s="9"/>
       <c r="F353" s="9"/>
@@ -11793,7 +11840,9 @@
       <c r="B356" s="8">
         <v>44760</v>
       </c>
-      <c r="C356" s="9"/>
+      <c r="C356" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
       <c r="F356" s="9"/>
@@ -11821,7 +11870,9 @@
       <c r="B357" s="8">
         <v>44761</v>
       </c>
-      <c r="C357" s="9"/>
+      <c r="C357" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
       <c r="F357" s="9"/>
@@ -11849,7 +11900,9 @@
       <c r="B358" s="8">
         <v>44762</v>
       </c>
-      <c r="C358" s="9"/>
+      <c r="C358" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
       <c r="F358" s="9"/>
@@ -11877,7 +11930,9 @@
       <c r="B359" s="8">
         <v>44763</v>
       </c>
-      <c r="C359" s="9"/>
+      <c r="C359" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
       <c r="F359" s="9"/>
@@ -11905,7 +11960,9 @@
       <c r="B360" s="8">
         <v>44764</v>
       </c>
-      <c r="C360" s="9"/>
+      <c r="C360" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
       <c r="F360" s="9"/>
@@ -11992,7 +12049,9 @@
       <c r="B363" s="8">
         <v>44767</v>
       </c>
-      <c r="C363" s="9"/>
+      <c r="C363" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
       <c r="F363" s="9"/>
@@ -12020,7 +12079,9 @@
       <c r="B364" s="8">
         <v>44768</v>
       </c>
-      <c r="C364" s="9"/>
+      <c r="C364" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D364" s="9"/>
       <c r="E364" s="9"/>
       <c r="F364" s="9"/>
@@ -12048,7 +12109,9 @@
       <c r="B365" s="8">
         <v>44769</v>
       </c>
-      <c r="C365" s="9"/>
+      <c r="C365" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D365" s="9"/>
       <c r="E365" s="9"/>
       <c r="F365" s="9"/>
@@ -12076,7 +12139,9 @@
       <c r="B366" s="8">
         <v>44770</v>
       </c>
-      <c r="C366" s="9"/>
+      <c r="C366" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
       <c r="F366" s="9"/>
@@ -12104,7 +12169,9 @@
       <c r="B367" s="8">
         <v>44771</v>
       </c>
-      <c r="C367" s="9"/>
+      <c r="C367" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
       <c r="F367" s="9"/>
